--- a/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9968640284853233</v>
+        <v>0.9968640284853234</v>
       </c>
       <c r="D2">
-        <v>1.016083695977599</v>
+        <v>1.0160836959776</v>
       </c>
       <c r="E2">
-        <v>0.9778935603707218</v>
+        <v>0.9778935603707223</v>
       </c>
       <c r="F2">
         <v>1.000277362790083</v>
@@ -445,10 +445,10 @@
         <v>1.027323416182565</v>
       </c>
       <c r="L2">
-        <v>0.9896697130039301</v>
+        <v>0.9896697130039305</v>
       </c>
       <c r="M2">
-        <v>1.011732834860436</v>
+        <v>1.011732834860437</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,19 +462,19 @@
         <v>1.003874568523174</v>
       </c>
       <c r="D3">
-        <v>1.021513979014691</v>
+        <v>1.02151397901469</v>
       </c>
       <c r="E3">
-        <v>0.9835356650553417</v>
+        <v>0.9835356650553411</v>
       </c>
       <c r="F3">
-        <v>1.007119286034277</v>
+        <v>1.007119286034276</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046383138268907</v>
+        <v>1.046383138268906</v>
       </c>
       <c r="J3">
         <v>1.02426016330271</v>
@@ -483,7 +483,7 @@
         <v>1.031878790280518</v>
       </c>
       <c r="L3">
-        <v>0.9943836367313299</v>
+        <v>0.9943836367313293</v>
       </c>
       <c r="M3">
         <v>1.017661877536998</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008274075220809</v>
+        <v>1.008274075220808</v>
       </c>
       <c r="D4">
-        <v>1.024923598867614</v>
+        <v>1.024923598867613</v>
       </c>
       <c r="E4">
-        <v>0.9870941937245017</v>
+        <v>0.9870941937245018</v>
       </c>
       <c r="F4">
-        <v>1.011424424279716</v>
+        <v>1.011424424279715</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.048022286683857</v>
       </c>
       <c r="J4">
-        <v>1.027468471544525</v>
+        <v>1.027468471544524</v>
       </c>
       <c r="K4">
-        <v>1.03473024350047</v>
+        <v>1.034730243500469</v>
       </c>
       <c r="L4">
-        <v>0.9973509172294339</v>
+        <v>0.997350917229434</v>
       </c>
       <c r="M4">
-        <v>1.021386894584108</v>
+        <v>1.021386894584107</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010092642535494</v>
+        <v>1.010092642535495</v>
       </c>
       <c r="D5">
-        <v>1.02633332416352</v>
+        <v>1.026333324163521</v>
       </c>
       <c r="E5">
-        <v>0.9885692416116354</v>
+        <v>0.9885692416116356</v>
       </c>
       <c r="F5">
         <v>1.013206645162747</v>
@@ -550,19 +550,19 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048696386061384</v>
+        <v>1.048696386061385</v>
       </c>
       <c r="J5">
-        <v>1.028793258161903</v>
+        <v>1.028793258161904</v>
       </c>
       <c r="K5">
         <v>1.035907086043253</v>
       </c>
       <c r="L5">
-        <v>0.9985794929797861</v>
+        <v>0.9985794929797863</v>
       </c>
       <c r="M5">
-        <v>1.022927578140733</v>
+        <v>1.022927578140734</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010396219514816</v>
+        <v>1.010396219514817</v>
       </c>
       <c r="D6">
-        <v>1.026568669237942</v>
+        <v>1.026568669237943</v>
       </c>
       <c r="E6">
-        <v>0.9888157111444236</v>
+        <v>0.9888157111444242</v>
       </c>
       <c r="F6">
-        <v>1.013504308957215</v>
+        <v>1.013504308957216</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048808709772791</v>
+        <v>1.048808709772792</v>
       </c>
       <c r="J6">
-        <v>1.029014323911896</v>
+        <v>1.029014323911898</v>
       </c>
       <c r="K6">
-        <v>1.03610342917166</v>
+        <v>1.036103429171662</v>
       </c>
       <c r="L6">
-        <v>0.9987846970949067</v>
+        <v>0.9987846970949074</v>
       </c>
       <c r="M6">
-        <v>1.023184819176597</v>
+        <v>1.023184819176599</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008298494536026</v>
+        <v>1.008298494536028</v>
       </c>
       <c r="D7">
-        <v>1.024942527146511</v>
+        <v>1.024942527146512</v>
       </c>
       <c r="E7">
-        <v>0.9871139842952574</v>
+        <v>0.987113984295258</v>
       </c>
       <c r="F7">
-        <v>1.011448345115036</v>
+        <v>1.011448345115038</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048031352097361</v>
+        <v>1.048031352097362</v>
       </c>
       <c r="J7">
-        <v>1.027486266063538</v>
+        <v>1.02748626606354</v>
       </c>
       <c r="K7">
-        <v>1.034746053202419</v>
+        <v>1.03474605320242</v>
       </c>
       <c r="L7">
-        <v>0.9973674064099392</v>
+        <v>0.9973674064099396</v>
       </c>
       <c r="M7">
-        <v>1.021407579003708</v>
+        <v>1.021407579003709</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9992627018883319</v>
+        <v>0.9992627018883324</v>
       </c>
       <c r="D8">
-        <v>1.01794123395073</v>
+        <v>1.017941233950731</v>
       </c>
       <c r="E8">
-        <v>0.9798201580068658</v>
+        <v>0.9798201580068664</v>
       </c>
       <c r="F8">
         <v>1.002615871326459</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044653003870567</v>
+        <v>1.044653003870568</v>
       </c>
       <c r="J8">
         <v>1.020892313234836</v>
       </c>
       <c r="K8">
-        <v>1.028883542497591</v>
+        <v>1.028883542497592</v>
       </c>
       <c r="L8">
-        <v>0.9912805989428455</v>
+        <v>0.9912805989428459</v>
       </c>
       <c r="M8">
         <v>1.013760525182539</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9822053310365757</v>
+        <v>0.9822053310365769</v>
       </c>
       <c r="D9">
-        <v>1.004744407333496</v>
+        <v>1.004744407333497</v>
       </c>
       <c r="E9">
-        <v>0.9662045904539247</v>
+        <v>0.9662045904539249</v>
       </c>
       <c r="F9">
-        <v>0.9860399688627969</v>
+        <v>0.9860399688627972</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038163878960444</v>
+        <v>1.038163878960445</v>
       </c>
       <c r="J9">
-        <v>1.008402501764503</v>
+        <v>1.008402501764504</v>
       </c>
       <c r="K9">
-        <v>1.017760975981468</v>
+        <v>1.017760975981469</v>
       </c>
       <c r="L9">
         <v>0.9798708534486587</v>
       </c>
       <c r="M9">
-        <v>0.9993636725997055</v>
+        <v>0.999363672599706</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9699327594687378</v>
+        <v>0.9699327594687366</v>
       </c>
       <c r="D10">
-        <v>0.9952711547062654</v>
+        <v>0.9952711547062646</v>
       </c>
       <c r="E10">
-        <v>0.956527241704477</v>
+        <v>0.9565272417044763</v>
       </c>
       <c r="F10">
-        <v>0.9741879314203027</v>
+        <v>0.9741879314203019</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033423715341682</v>
+        <v>1.033423715341681</v>
       </c>
       <c r="J10">
-        <v>0.9993922729118229</v>
+        <v>0.9993922729118219</v>
       </c>
       <c r="K10">
-        <v>1.009726318068818</v>
+        <v>1.009726318068817</v>
       </c>
       <c r="L10">
-        <v>0.9717284251022167</v>
+        <v>0.9717284251022161</v>
       </c>
       <c r="M10">
-        <v>0.9890394125431549</v>
+        <v>0.989039412543154</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.964368782343302</v>
+        <v>0.9643687823433035</v>
       </c>
       <c r="D11">
-        <v>0.9909835304580166</v>
+        <v>0.9909835304580185</v>
       </c>
       <c r="E11">
-        <v>0.9521718648107197</v>
+        <v>0.9521718648107201</v>
       </c>
       <c r="F11">
-        <v>0.9688342197207468</v>
+        <v>0.9688342197207472</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031258939073824</v>
+        <v>1.031258939073825</v>
       </c>
       <c r="J11">
-        <v>0.9953028412960389</v>
+        <v>0.9953028412960402</v>
       </c>
       <c r="K11">
-        <v>1.006077511171378</v>
+        <v>1.00607751117138</v>
       </c>
       <c r="L11">
-        <v>0.9680558591456037</v>
+        <v>0.9680558591456041</v>
       </c>
       <c r="M11">
-        <v>0.9843688231307877</v>
+        <v>0.9843688231307882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9622609687296882</v>
+        <v>0.9622609687296895</v>
       </c>
       <c r="D12">
-        <v>0.9893605265995534</v>
+        <v>0.9893605265995542</v>
       </c>
       <c r="E12">
-        <v>0.9505270865331201</v>
+        <v>0.9505270865331203</v>
       </c>
       <c r="F12">
-        <v>0.9668092043687375</v>
+        <v>0.9668092043687386</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030436600868418</v>
+        <v>1.030436600868419</v>
       </c>
       <c r="J12">
-        <v>0.9937530733843244</v>
+        <v>0.9937530733843253</v>
       </c>
       <c r="K12">
         <v>1.0046944407934</v>
       </c>
       <c r="L12">
-        <v>0.9666677202500569</v>
+        <v>0.9666677202500571</v>
       </c>
       <c r="M12">
-        <v>0.982601163660537</v>
+        <v>0.9826011636605382</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.96271502438922</v>
+        <v>0.9627150243892185</v>
       </c>
       <c r="D13">
-        <v>0.9897100852701169</v>
+        <v>0.9897100852701157</v>
       </c>
       <c r="E13">
-        <v>0.9508811571138464</v>
+        <v>0.950881157113846</v>
       </c>
       <c r="F13">
-        <v>0.9672452787443061</v>
+        <v>0.9672452787443051</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030613844877021</v>
+        <v>1.03061384487702</v>
       </c>
       <c r="J13">
-        <v>0.9940869406316238</v>
+        <v>0.9940869406316226</v>
       </c>
       <c r="K13">
-        <v>1.004992408552458</v>
+        <v>1.004992408552457</v>
       </c>
       <c r="L13">
-        <v>0.9669665995837246</v>
+        <v>0.9669665995837242</v>
       </c>
       <c r="M13">
-        <v>0.9829818643044003</v>
+        <v>0.9829818643043994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.964195410631003</v>
+        <v>0.9641954106310026</v>
       </c>
       <c r="D14">
-        <v>0.990850007982284</v>
+        <v>0.9908500079822836</v>
       </c>
       <c r="E14">
-        <v>0.9520364713764292</v>
+        <v>0.9520364713764291</v>
       </c>
       <c r="F14">
-        <v>0.9686675933889762</v>
+        <v>0.9686675933889759</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>1.031191345120871</v>
       </c>
       <c r="J14">
-        <v>0.9951753805487256</v>
+        <v>0.9951753805487252</v>
       </c>
       <c r="K14">
         <v>1.005963766030618</v>
@@ -904,7 +904,7 @@
         <v>0.9679416163924696</v>
       </c>
       <c r="M14">
-        <v>0.9842233938773883</v>
+        <v>0.9842233938773881</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9651019640522767</v>
+        <v>0.965101964052276</v>
       </c>
       <c r="D15">
-        <v>0.991548244907165</v>
+        <v>0.9915482449071643</v>
       </c>
       <c r="E15">
-        <v>0.9527446506735521</v>
+        <v>0.9527446506735519</v>
       </c>
       <c r="F15">
-        <v>0.9695390044189534</v>
+        <v>0.9695390044189526</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031544700314768</v>
+        <v>1.031544700314767</v>
       </c>
       <c r="J15">
-        <v>0.9958418454407912</v>
+        <v>0.9958418454407906</v>
       </c>
       <c r="K15">
-        <v>1.006558503592744</v>
+        <v>1.006558503592743</v>
       </c>
       <c r="L15">
-        <v>0.968539116712349</v>
+        <v>0.9685391167123487</v>
       </c>
       <c r="M15">
-        <v>0.9849839080452799</v>
+        <v>0.9849839080452792</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9702964640251147</v>
+        <v>0.9702964640251154</v>
       </c>
       <c r="D16">
-        <v>0.9955515928122212</v>
+        <v>0.9955515928122218</v>
       </c>
       <c r="E16">
-        <v>0.956812634735393</v>
+        <v>0.9568126347353935</v>
       </c>
       <c r="F16">
-        <v>0.9745383128541429</v>
+        <v>0.9745383128541435</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.033564905599154</v>
       </c>
       <c r="J16">
-        <v>0.9996595062655523</v>
+        <v>0.9996595062655531</v>
       </c>
       <c r="K16">
         <v>1.009964716374207</v>
       </c>
       <c r="L16">
-        <v>0.9719689085612984</v>
+        <v>0.9719689085612987</v>
       </c>
       <c r="M16">
-        <v>0.9893449427579898</v>
+        <v>0.9893449427579903</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9734855643849496</v>
+        <v>0.9734855643849498</v>
       </c>
       <c r="D17">
-        <v>0.9980114183959162</v>
+        <v>0.9980114183959166</v>
       </c>
       <c r="E17">
-        <v>0.9593187178388897</v>
+        <v>0.9593187178388898</v>
       </c>
       <c r="F17">
         <v>0.9776128224055821</v>
@@ -1009,16 +1009,16 @@
         <v>1.034801153512886</v>
       </c>
       <c r="J17">
-        <v>1.002002216416411</v>
+        <v>1.002002216416412</v>
       </c>
       <c r="K17">
         <v>1.012054404721958</v>
       </c>
       <c r="L17">
-        <v>0.9740797267764689</v>
+        <v>0.9740797267764691</v>
       </c>
       <c r="M17">
-        <v>0.9920251062512571</v>
+        <v>0.9920251062512573</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9753218675650848</v>
+        <v>0.9753218675650861</v>
       </c>
       <c r="D18">
-        <v>0.9994284658087216</v>
+        <v>0.9994284658087228</v>
       </c>
       <c r="E18">
-        <v>0.9607647138709778</v>
+        <v>0.9607647138709784</v>
       </c>
       <c r="F18">
-        <v>0.9793849699057594</v>
+        <v>0.9793849699057606</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035511507046794</v>
       </c>
       <c r="J18">
-        <v>1.003350733312439</v>
+        <v>1.00335073331244</v>
       </c>
       <c r="K18">
-        <v>1.013257071975193</v>
+        <v>1.013257071975194</v>
       </c>
       <c r="L18">
-        <v>0.9752969049633464</v>
+        <v>0.975296904963347</v>
       </c>
       <c r="M18">
-        <v>0.993569293529277</v>
+        <v>0.9935692935292783</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9759440557665313</v>
+        <v>0.9759440557665301</v>
       </c>
       <c r="D19">
-        <v>0.9999087063097578</v>
+        <v>0.9999087063097567</v>
       </c>
       <c r="E19">
-        <v>0.9612551507003423</v>
+        <v>0.9612551507003422</v>
       </c>
       <c r="F19">
-        <v>0.979985724862191</v>
+        <v>0.9799857248621905</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035751938498781</v>
+        <v>1.03575193849878</v>
       </c>
       <c r="J19">
-        <v>1.00380757049422</v>
+        <v>1.003807570494218</v>
       </c>
       <c r="K19">
-        <v>1.013664463895766</v>
+        <v>1.013664463895764</v>
       </c>
       <c r="L19">
-        <v>0.9757096068171972</v>
+        <v>0.9757096068171971</v>
       </c>
       <c r="M19">
-        <v>0.9940926580256157</v>
+        <v>0.9940926580256151</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9731458947890474</v>
+        <v>0.9731458947890471</v>
       </c>
       <c r="D20">
-        <v>0.9977493530479202</v>
+        <v>0.9977493530479196</v>
       </c>
       <c r="E20">
-        <v>0.9590514840401988</v>
+        <v>0.9590514840401979</v>
       </c>
       <c r="F20">
-        <v>0.9772851666609431</v>
+        <v>0.9772851666609427</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         <v>1.011831893152258</v>
       </c>
       <c r="L20">
-        <v>0.9738547199262305</v>
+        <v>0.97385471992623</v>
       </c>
       <c r="M20">
-        <v>0.9917395450017684</v>
+        <v>0.9917395450017681</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9637606394689966</v>
+        <v>0.9637606394689964</v>
       </c>
       <c r="D21">
         <v>0.9905151897338577</v>
       </c>
       <c r="E21">
-        <v>0.9516970244467838</v>
+        <v>0.9516970244467846</v>
       </c>
       <c r="F21">
-        <v>0.9682497891273893</v>
+        <v>0.9682497891273902</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031021801284073</v>
+        <v>1.031021801284074</v>
       </c>
       <c r="J21">
-        <v>0.9948557335647578</v>
+        <v>0.9948557335647579</v>
       </c>
       <c r="K21">
         <v>1.00567851068821</v>
       </c>
       <c r="L21">
-        <v>0.9676551769682237</v>
+        <v>0.9676551769682242</v>
       </c>
       <c r="M21">
-        <v>0.9838587233312186</v>
+        <v>0.9838587233312193</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9576198096173358</v>
+        <v>0.9576198096173348</v>
       </c>
       <c r="D22">
-        <v>0.9857894762486924</v>
+        <v>0.9857894762486915</v>
       </c>
       <c r="E22">
-        <v>0.9469154863136572</v>
+        <v>0.9469154863136571</v>
       </c>
       <c r="F22">
-        <v>0.9623563996171167</v>
+        <v>0.9623563996171158</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.028621890165866</v>
       </c>
       <c r="J22">
-        <v>0.9903397723941143</v>
+        <v>0.9903397723941132</v>
       </c>
       <c r="K22">
-        <v>1.001647802361096</v>
+        <v>1.001647802361095</v>
       </c>
       <c r="L22">
-        <v>0.9636173777350294</v>
+        <v>0.9636173777350292</v>
       </c>
       <c r="M22">
-        <v>0.9787123783776287</v>
+        <v>0.9787123783776279</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9608992425204863</v>
+        <v>0.9608992425204874</v>
       </c>
       <c r="D23">
-        <v>0.9883123950391229</v>
+        <v>0.9883123950391237</v>
       </c>
       <c r="E23">
         <v>0.9494660087171558</v>
       </c>
       <c r="F23">
-        <v>0.9655018819078661</v>
+        <v>0.965501881907867</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029904720319277</v>
       </c>
       <c r="J23">
-        <v>0.9927517233225317</v>
+        <v>0.9927517233225327</v>
       </c>
       <c r="K23">
-        <v>1.003800723383574</v>
+        <v>1.003800723383575</v>
       </c>
       <c r="L23">
-        <v>0.9657718591028187</v>
+        <v>0.9657718591028184</v>
       </c>
       <c r="M23">
-        <v>0.9814596983561807</v>
+        <v>0.9814596983561816</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9732994502829749</v>
+        <v>0.973299450282975</v>
       </c>
       <c r="D24">
-        <v>0.9978678236956896</v>
+        <v>0.99786782369569</v>
       </c>
       <c r="E24">
-        <v>0.9591722840304833</v>
+        <v>0.9591722840304829</v>
       </c>
       <c r="F24">
-        <v>0.9774332853552733</v>
+        <v>0.9774332853552732</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.034729095589493</v>
       </c>
       <c r="J24">
-        <v>1.001865522564557</v>
+        <v>1.001865522564558</v>
       </c>
       <c r="K24">
         <v>1.011932486488646</v>
       </c>
       <c r="L24">
-        <v>0.9739564340399233</v>
+        <v>0.973956434039923</v>
       </c>
       <c r="M24">
-        <v>0.9918686366820146</v>
+        <v>0.9918686366820145</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9867628215050578</v>
+        <v>0.9867628215050577</v>
       </c>
       <c r="D25">
         <v>1.008267344595384</v>
@@ -1304,7 +1304,7 @@
         <v>0.9698233842407388</v>
       </c>
       <c r="F25">
-        <v>0.9904568081284153</v>
+        <v>0.9904568081284155</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,10 +1316,10 @@
         <v>1.011744031745174</v>
       </c>
       <c r="K25">
-        <v>1.020738662144454</v>
+        <v>1.020738662144453</v>
       </c>
       <c r="L25">
-        <v>0.9829089425111019</v>
+        <v>0.9829089425111023</v>
       </c>
       <c r="M25">
         <v>1.003205098650797</v>

--- a/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9968640284853234</v>
+        <v>0.9968640284853233</v>
       </c>
       <c r="D2">
-        <v>1.0160836959776</v>
+        <v>1.016083695977599</v>
       </c>
       <c r="E2">
-        <v>0.9778935603707223</v>
+        <v>0.9778935603707218</v>
       </c>
       <c r="F2">
         <v>1.000277362790083</v>
@@ -445,10 +445,10 @@
         <v>1.027323416182565</v>
       </c>
       <c r="L2">
-        <v>0.9896697130039305</v>
+        <v>0.9896697130039301</v>
       </c>
       <c r="M2">
-        <v>1.011732834860437</v>
+        <v>1.011732834860436</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,19 +462,19 @@
         <v>1.003874568523174</v>
       </c>
       <c r="D3">
-        <v>1.02151397901469</v>
+        <v>1.021513979014691</v>
       </c>
       <c r="E3">
-        <v>0.9835356650553411</v>
+        <v>0.9835356650553417</v>
       </c>
       <c r="F3">
-        <v>1.007119286034276</v>
+        <v>1.007119286034277</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046383138268906</v>
+        <v>1.046383138268907</v>
       </c>
       <c r="J3">
         <v>1.02426016330271</v>
@@ -483,7 +483,7 @@
         <v>1.031878790280518</v>
       </c>
       <c r="L3">
-        <v>0.9943836367313293</v>
+        <v>0.9943836367313299</v>
       </c>
       <c r="M3">
         <v>1.017661877536998</v>
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008274075220808</v>
+        <v>1.008274075220809</v>
       </c>
       <c r="D4">
-        <v>1.024923598867613</v>
+        <v>1.024923598867614</v>
       </c>
       <c r="E4">
-        <v>0.9870941937245018</v>
+        <v>0.9870941937245017</v>
       </c>
       <c r="F4">
-        <v>1.011424424279715</v>
+        <v>1.011424424279716</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.048022286683857</v>
       </c>
       <c r="J4">
-        <v>1.027468471544524</v>
+        <v>1.027468471544525</v>
       </c>
       <c r="K4">
-        <v>1.034730243500469</v>
+        <v>1.03473024350047</v>
       </c>
       <c r="L4">
-        <v>0.997350917229434</v>
+        <v>0.9973509172294339</v>
       </c>
       <c r="M4">
-        <v>1.021386894584107</v>
+        <v>1.021386894584108</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010092642535495</v>
+        <v>1.010092642535494</v>
       </c>
       <c r="D5">
-        <v>1.026333324163521</v>
+        <v>1.02633332416352</v>
       </c>
       <c r="E5">
-        <v>0.9885692416116356</v>
+        <v>0.9885692416116354</v>
       </c>
       <c r="F5">
         <v>1.013206645162747</v>
@@ -550,19 +550,19 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048696386061385</v>
+        <v>1.048696386061384</v>
       </c>
       <c r="J5">
-        <v>1.028793258161904</v>
+        <v>1.028793258161903</v>
       </c>
       <c r="K5">
         <v>1.035907086043253</v>
       </c>
       <c r="L5">
-        <v>0.9985794929797863</v>
+        <v>0.9985794929797861</v>
       </c>
       <c r="M5">
-        <v>1.022927578140734</v>
+        <v>1.022927578140733</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010396219514817</v>
+        <v>1.010396219514816</v>
       </c>
       <c r="D6">
-        <v>1.026568669237943</v>
+        <v>1.026568669237942</v>
       </c>
       <c r="E6">
-        <v>0.9888157111444242</v>
+        <v>0.9888157111444236</v>
       </c>
       <c r="F6">
-        <v>1.013504308957216</v>
+        <v>1.013504308957215</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048808709772792</v>
+        <v>1.048808709772791</v>
       </c>
       <c r="J6">
-        <v>1.029014323911898</v>
+        <v>1.029014323911896</v>
       </c>
       <c r="K6">
-        <v>1.036103429171662</v>
+        <v>1.03610342917166</v>
       </c>
       <c r="L6">
-        <v>0.9987846970949074</v>
+        <v>0.9987846970949067</v>
       </c>
       <c r="M6">
-        <v>1.023184819176599</v>
+        <v>1.023184819176597</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008298494536028</v>
+        <v>1.008298494536026</v>
       </c>
       <c r="D7">
-        <v>1.024942527146512</v>
+        <v>1.024942527146511</v>
       </c>
       <c r="E7">
-        <v>0.987113984295258</v>
+        <v>0.9871139842952574</v>
       </c>
       <c r="F7">
-        <v>1.011448345115038</v>
+        <v>1.011448345115036</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048031352097362</v>
+        <v>1.048031352097361</v>
       </c>
       <c r="J7">
-        <v>1.02748626606354</v>
+        <v>1.027486266063538</v>
       </c>
       <c r="K7">
-        <v>1.03474605320242</v>
+        <v>1.034746053202419</v>
       </c>
       <c r="L7">
-        <v>0.9973674064099396</v>
+        <v>0.9973674064099392</v>
       </c>
       <c r="M7">
-        <v>1.021407579003709</v>
+        <v>1.021407579003708</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9992627018883324</v>
+        <v>0.9992627018883319</v>
       </c>
       <c r="D8">
-        <v>1.017941233950731</v>
+        <v>1.01794123395073</v>
       </c>
       <c r="E8">
-        <v>0.9798201580068664</v>
+        <v>0.9798201580068658</v>
       </c>
       <c r="F8">
         <v>1.002615871326459</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044653003870568</v>
+        <v>1.044653003870567</v>
       </c>
       <c r="J8">
         <v>1.020892313234836</v>
       </c>
       <c r="K8">
-        <v>1.028883542497592</v>
+        <v>1.028883542497591</v>
       </c>
       <c r="L8">
-        <v>0.9912805989428459</v>
+        <v>0.9912805989428455</v>
       </c>
       <c r="M8">
         <v>1.013760525182539</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9822053310365769</v>
+        <v>0.9822053310365757</v>
       </c>
       <c r="D9">
-        <v>1.004744407333497</v>
+        <v>1.004744407333496</v>
       </c>
       <c r="E9">
-        <v>0.9662045904539249</v>
+        <v>0.9662045904539247</v>
       </c>
       <c r="F9">
-        <v>0.9860399688627972</v>
+        <v>0.9860399688627969</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038163878960445</v>
+        <v>1.038163878960444</v>
       </c>
       <c r="J9">
-        <v>1.008402501764504</v>
+        <v>1.008402501764503</v>
       </c>
       <c r="K9">
-        <v>1.017760975981469</v>
+        <v>1.017760975981468</v>
       </c>
       <c r="L9">
         <v>0.9798708534486587</v>
       </c>
       <c r="M9">
-        <v>0.999363672599706</v>
+        <v>0.9993636725997055</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9699327594687366</v>
+        <v>0.9699327594687378</v>
       </c>
       <c r="D10">
-        <v>0.9952711547062646</v>
+        <v>0.9952711547062654</v>
       </c>
       <c r="E10">
-        <v>0.9565272417044763</v>
+        <v>0.956527241704477</v>
       </c>
       <c r="F10">
-        <v>0.9741879314203019</v>
+        <v>0.9741879314203027</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033423715341681</v>
+        <v>1.033423715341682</v>
       </c>
       <c r="J10">
-        <v>0.9993922729118219</v>
+        <v>0.9993922729118229</v>
       </c>
       <c r="K10">
-        <v>1.009726318068817</v>
+        <v>1.009726318068818</v>
       </c>
       <c r="L10">
-        <v>0.9717284251022161</v>
+        <v>0.9717284251022167</v>
       </c>
       <c r="M10">
-        <v>0.989039412543154</v>
+        <v>0.9890394125431549</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9643687823433035</v>
+        <v>0.964368782343302</v>
       </c>
       <c r="D11">
-        <v>0.9909835304580185</v>
+        <v>0.9909835304580166</v>
       </c>
       <c r="E11">
-        <v>0.9521718648107201</v>
+        <v>0.9521718648107197</v>
       </c>
       <c r="F11">
-        <v>0.9688342197207472</v>
+        <v>0.9688342197207468</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031258939073825</v>
+        <v>1.031258939073824</v>
       </c>
       <c r="J11">
-        <v>0.9953028412960402</v>
+        <v>0.9953028412960389</v>
       </c>
       <c r="K11">
-        <v>1.00607751117138</v>
+        <v>1.006077511171378</v>
       </c>
       <c r="L11">
-        <v>0.9680558591456041</v>
+        <v>0.9680558591456037</v>
       </c>
       <c r="M11">
-        <v>0.9843688231307882</v>
+        <v>0.9843688231307877</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9622609687296895</v>
+        <v>0.9622609687296882</v>
       </c>
       <c r="D12">
-        <v>0.9893605265995542</v>
+        <v>0.9893605265995534</v>
       </c>
       <c r="E12">
-        <v>0.9505270865331203</v>
+        <v>0.9505270865331201</v>
       </c>
       <c r="F12">
-        <v>0.9668092043687386</v>
+        <v>0.9668092043687375</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030436600868419</v>
+        <v>1.030436600868418</v>
       </c>
       <c r="J12">
-        <v>0.9937530733843253</v>
+        <v>0.9937530733843244</v>
       </c>
       <c r="K12">
         <v>1.0046944407934</v>
       </c>
       <c r="L12">
-        <v>0.9666677202500571</v>
+        <v>0.9666677202500569</v>
       </c>
       <c r="M12">
-        <v>0.9826011636605382</v>
+        <v>0.982601163660537</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9627150243892185</v>
+        <v>0.96271502438922</v>
       </c>
       <c r="D13">
-        <v>0.9897100852701157</v>
+        <v>0.9897100852701169</v>
       </c>
       <c r="E13">
-        <v>0.950881157113846</v>
+        <v>0.9508811571138464</v>
       </c>
       <c r="F13">
-        <v>0.9672452787443051</v>
+        <v>0.9672452787443061</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03061384487702</v>
+        <v>1.030613844877021</v>
       </c>
       <c r="J13">
-        <v>0.9940869406316226</v>
+        <v>0.9940869406316238</v>
       </c>
       <c r="K13">
-        <v>1.004992408552457</v>
+        <v>1.004992408552458</v>
       </c>
       <c r="L13">
-        <v>0.9669665995837242</v>
+        <v>0.9669665995837246</v>
       </c>
       <c r="M13">
-        <v>0.9829818643043994</v>
+        <v>0.9829818643044003</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9641954106310026</v>
+        <v>0.964195410631003</v>
       </c>
       <c r="D14">
-        <v>0.9908500079822836</v>
+        <v>0.990850007982284</v>
       </c>
       <c r="E14">
-        <v>0.9520364713764291</v>
+        <v>0.9520364713764292</v>
       </c>
       <c r="F14">
-        <v>0.9686675933889759</v>
+        <v>0.9686675933889762</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>1.031191345120871</v>
       </c>
       <c r="J14">
-        <v>0.9951753805487252</v>
+        <v>0.9951753805487256</v>
       </c>
       <c r="K14">
         <v>1.005963766030618</v>
@@ -904,7 +904,7 @@
         <v>0.9679416163924696</v>
       </c>
       <c r="M14">
-        <v>0.9842233938773881</v>
+        <v>0.9842233938773883</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.965101964052276</v>
+        <v>0.9651019640522767</v>
       </c>
       <c r="D15">
-        <v>0.9915482449071643</v>
+        <v>0.991548244907165</v>
       </c>
       <c r="E15">
-        <v>0.9527446506735519</v>
+        <v>0.9527446506735521</v>
       </c>
       <c r="F15">
-        <v>0.9695390044189526</v>
+        <v>0.9695390044189534</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031544700314767</v>
+        <v>1.031544700314768</v>
       </c>
       <c r="J15">
-        <v>0.9958418454407906</v>
+        <v>0.9958418454407912</v>
       </c>
       <c r="K15">
-        <v>1.006558503592743</v>
+        <v>1.006558503592744</v>
       </c>
       <c r="L15">
-        <v>0.9685391167123487</v>
+        <v>0.968539116712349</v>
       </c>
       <c r="M15">
-        <v>0.9849839080452792</v>
+        <v>0.9849839080452799</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9702964640251154</v>
+        <v>0.9702964640251147</v>
       </c>
       <c r="D16">
-        <v>0.9955515928122218</v>
+        <v>0.9955515928122212</v>
       </c>
       <c r="E16">
-        <v>0.9568126347353935</v>
+        <v>0.956812634735393</v>
       </c>
       <c r="F16">
-        <v>0.9745383128541435</v>
+        <v>0.9745383128541429</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.033564905599154</v>
       </c>
       <c r="J16">
-        <v>0.9996595062655531</v>
+        <v>0.9996595062655523</v>
       </c>
       <c r="K16">
         <v>1.009964716374207</v>
       </c>
       <c r="L16">
-        <v>0.9719689085612987</v>
+        <v>0.9719689085612984</v>
       </c>
       <c r="M16">
-        <v>0.9893449427579903</v>
+        <v>0.9893449427579898</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,13 +991,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9734855643849498</v>
+        <v>0.9734855643849496</v>
       </c>
       <c r="D17">
-        <v>0.9980114183959166</v>
+        <v>0.9980114183959162</v>
       </c>
       <c r="E17">
-        <v>0.9593187178388898</v>
+        <v>0.9593187178388897</v>
       </c>
       <c r="F17">
         <v>0.9776128224055821</v>
@@ -1009,16 +1009,16 @@
         <v>1.034801153512886</v>
       </c>
       <c r="J17">
-        <v>1.002002216416412</v>
+        <v>1.002002216416411</v>
       </c>
       <c r="K17">
         <v>1.012054404721958</v>
       </c>
       <c r="L17">
-        <v>0.9740797267764691</v>
+        <v>0.9740797267764689</v>
       </c>
       <c r="M17">
-        <v>0.9920251062512573</v>
+        <v>0.9920251062512571</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9753218675650861</v>
+        <v>0.9753218675650848</v>
       </c>
       <c r="D18">
-        <v>0.9994284658087228</v>
+        <v>0.9994284658087216</v>
       </c>
       <c r="E18">
-        <v>0.9607647138709784</v>
+        <v>0.9607647138709778</v>
       </c>
       <c r="F18">
-        <v>0.9793849699057606</v>
+        <v>0.9793849699057594</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035511507046794</v>
       </c>
       <c r="J18">
-        <v>1.00335073331244</v>
+        <v>1.003350733312439</v>
       </c>
       <c r="K18">
-        <v>1.013257071975194</v>
+        <v>1.013257071975193</v>
       </c>
       <c r="L18">
-        <v>0.975296904963347</v>
+        <v>0.9752969049633464</v>
       </c>
       <c r="M18">
-        <v>0.9935692935292783</v>
+        <v>0.993569293529277</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9759440557665301</v>
+        <v>0.9759440557665313</v>
       </c>
       <c r="D19">
-        <v>0.9999087063097567</v>
+        <v>0.9999087063097578</v>
       </c>
       <c r="E19">
-        <v>0.9612551507003422</v>
+        <v>0.9612551507003423</v>
       </c>
       <c r="F19">
-        <v>0.9799857248621905</v>
+        <v>0.979985724862191</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03575193849878</v>
+        <v>1.035751938498781</v>
       </c>
       <c r="J19">
-        <v>1.003807570494218</v>
+        <v>1.00380757049422</v>
       </c>
       <c r="K19">
-        <v>1.013664463895764</v>
+        <v>1.013664463895766</v>
       </c>
       <c r="L19">
-        <v>0.9757096068171971</v>
+        <v>0.9757096068171972</v>
       </c>
       <c r="M19">
-        <v>0.9940926580256151</v>
+        <v>0.9940926580256157</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9731458947890471</v>
+        <v>0.9731458947890474</v>
       </c>
       <c r="D20">
-        <v>0.9977493530479196</v>
+        <v>0.9977493530479202</v>
       </c>
       <c r="E20">
-        <v>0.9590514840401979</v>
+        <v>0.9590514840401988</v>
       </c>
       <c r="F20">
-        <v>0.9772851666609427</v>
+        <v>0.9772851666609431</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         <v>1.011831893152258</v>
       </c>
       <c r="L20">
-        <v>0.97385471992623</v>
+        <v>0.9738547199262305</v>
       </c>
       <c r="M20">
-        <v>0.9917395450017681</v>
+        <v>0.9917395450017684</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9637606394689964</v>
+        <v>0.9637606394689966</v>
       </c>
       <c r="D21">
         <v>0.9905151897338577</v>
       </c>
       <c r="E21">
-        <v>0.9516970244467846</v>
+        <v>0.9516970244467838</v>
       </c>
       <c r="F21">
-        <v>0.9682497891273902</v>
+        <v>0.9682497891273893</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031021801284074</v>
+        <v>1.031021801284073</v>
       </c>
       <c r="J21">
-        <v>0.9948557335647579</v>
+        <v>0.9948557335647578</v>
       </c>
       <c r="K21">
         <v>1.00567851068821</v>
       </c>
       <c r="L21">
-        <v>0.9676551769682242</v>
+        <v>0.9676551769682237</v>
       </c>
       <c r="M21">
-        <v>0.9838587233312193</v>
+        <v>0.9838587233312186</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9576198096173348</v>
+        <v>0.9576198096173358</v>
       </c>
       <c r="D22">
-        <v>0.9857894762486915</v>
+        <v>0.9857894762486924</v>
       </c>
       <c r="E22">
-        <v>0.9469154863136571</v>
+        <v>0.9469154863136572</v>
       </c>
       <c r="F22">
-        <v>0.9623563996171158</v>
+        <v>0.9623563996171167</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.028621890165866</v>
       </c>
       <c r="J22">
-        <v>0.9903397723941132</v>
+        <v>0.9903397723941143</v>
       </c>
       <c r="K22">
-        <v>1.001647802361095</v>
+        <v>1.001647802361096</v>
       </c>
       <c r="L22">
-        <v>0.9636173777350292</v>
+        <v>0.9636173777350294</v>
       </c>
       <c r="M22">
-        <v>0.9787123783776279</v>
+        <v>0.9787123783776287</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9608992425204874</v>
+        <v>0.9608992425204863</v>
       </c>
       <c r="D23">
-        <v>0.9883123950391237</v>
+        <v>0.9883123950391229</v>
       </c>
       <c r="E23">
         <v>0.9494660087171558</v>
       </c>
       <c r="F23">
-        <v>0.965501881907867</v>
+        <v>0.9655018819078661</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029904720319277</v>
       </c>
       <c r="J23">
-        <v>0.9927517233225327</v>
+        <v>0.9927517233225317</v>
       </c>
       <c r="K23">
-        <v>1.003800723383575</v>
+        <v>1.003800723383574</v>
       </c>
       <c r="L23">
-        <v>0.9657718591028184</v>
+        <v>0.9657718591028187</v>
       </c>
       <c r="M23">
-        <v>0.9814596983561816</v>
+        <v>0.9814596983561807</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.973299450282975</v>
+        <v>0.9732994502829749</v>
       </c>
       <c r="D24">
-        <v>0.99786782369569</v>
+        <v>0.9978678236956896</v>
       </c>
       <c r="E24">
-        <v>0.9591722840304829</v>
+        <v>0.9591722840304833</v>
       </c>
       <c r="F24">
-        <v>0.9774332853552732</v>
+        <v>0.9774332853552733</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.034729095589493</v>
       </c>
       <c r="J24">
-        <v>1.001865522564558</v>
+        <v>1.001865522564557</v>
       </c>
       <c r="K24">
         <v>1.011932486488646</v>
       </c>
       <c r="L24">
-        <v>0.973956434039923</v>
+        <v>0.9739564340399233</v>
       </c>
       <c r="M24">
-        <v>0.9918686366820145</v>
+        <v>0.9918686366820146</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9867628215050577</v>
+        <v>0.9867628215050578</v>
       </c>
       <c r="D25">
         <v>1.008267344595384</v>
@@ -1304,7 +1304,7 @@
         <v>0.9698233842407388</v>
       </c>
       <c r="F25">
-        <v>0.9904568081284155</v>
+        <v>0.9904568081284153</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,10 +1316,10 @@
         <v>1.011744031745174</v>
       </c>
       <c r="K25">
-        <v>1.020738662144453</v>
+        <v>1.020738662144454</v>
       </c>
       <c r="L25">
-        <v>0.9829089425111023</v>
+        <v>0.9829089425111019</v>
       </c>
       <c r="M25">
         <v>1.003205098650797</v>

--- a/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9968640284853233</v>
+        <v>0.9968728807270227</v>
       </c>
       <c r="D2">
-        <v>1.016083695977599</v>
+        <v>1.016091024102295</v>
       </c>
       <c r="E2">
-        <v>0.9778935603707218</v>
+        <v>0.9779028063915434</v>
       </c>
       <c r="F2">
-        <v>1.000277362790083</v>
+        <v>1.000285143840307</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043748674012454</v>
+        <v>1.04375287094292</v>
       </c>
       <c r="J2">
-        <v>1.019138942211933</v>
+        <v>1.019147527389246</v>
       </c>
       <c r="K2">
-        <v>1.027323416182565</v>
+        <v>1.027330646236306</v>
       </c>
       <c r="L2">
-        <v>0.9896697130039301</v>
+        <v>0.989678822713153</v>
       </c>
       <c r="M2">
-        <v>1.011732834860436</v>
+        <v>1.011740507585183</v>
+      </c>
+      <c r="N2">
+        <v>1.014161154047821</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003874568523174</v>
+        <v>1.003878647087675</v>
       </c>
       <c r="D3">
-        <v>1.021513979014691</v>
+        <v>1.021517395249943</v>
       </c>
       <c r="E3">
-        <v>0.9835356650553417</v>
+        <v>0.9835426512093747</v>
       </c>
       <c r="F3">
-        <v>1.007119286034277</v>
+        <v>1.007123649378733</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046383138268907</v>
+        <v>1.046385097489734</v>
       </c>
       <c r="J3">
-        <v>1.02426016330271</v>
+        <v>1.02426413184622</v>
       </c>
       <c r="K3">
-        <v>1.031878790280518</v>
+        <v>1.031882165062781</v>
       </c>
       <c r="L3">
-        <v>0.9943836367313299</v>
+        <v>0.9943905297006265</v>
       </c>
       <c r="M3">
-        <v>1.017661877536998</v>
+        <v>1.017666186032196</v>
+      </c>
+      <c r="N3">
+        <v>1.017761201768238</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008274075220809</v>
+        <v>1.008275206680132</v>
       </c>
       <c r="D4">
-        <v>1.024923598867614</v>
+        <v>1.024924594130512</v>
       </c>
       <c r="E4">
-        <v>0.9870941937245017</v>
+        <v>0.9870998023453799</v>
       </c>
       <c r="F4">
-        <v>1.011424424279716</v>
+        <v>1.011426686475702</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048022286683857</v>
+        <v>1.048022858756289</v>
       </c>
       <c r="J4">
-        <v>1.027468471544525</v>
+        <v>1.027469574698136</v>
       </c>
       <c r="K4">
-        <v>1.03473024350047</v>
+        <v>1.034731227461325</v>
       </c>
       <c r="L4">
-        <v>0.9973509172294339</v>
+        <v>0.9973564559366864</v>
       </c>
       <c r="M4">
-        <v>1.021386894584108</v>
+        <v>1.021389130235608</v>
+      </c>
+      <c r="N4">
+        <v>1.020013908556461</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010092642535494</v>
+        <v>1.010092566062156</v>
       </c>
       <c r="D5">
-        <v>1.02633332416352</v>
+        <v>1.026333325868495</v>
       </c>
       <c r="E5">
-        <v>0.9885692416116354</v>
+        <v>0.9885742898603551</v>
       </c>
       <c r="F5">
-        <v>1.013206645162747</v>
+        <v>1.013208048182793</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048696386061384</v>
+        <v>1.04869638832179</v>
       </c>
       <c r="J5">
-        <v>1.028793258161903</v>
+        <v>1.028793183540582</v>
       </c>
       <c r="K5">
-        <v>1.035907086043253</v>
+        <v>1.035907087729412</v>
       </c>
       <c r="L5">
-        <v>0.9985794929797861</v>
+        <v>0.9985844801127496</v>
       </c>
       <c r="M5">
-        <v>1.022927578140733</v>
+        <v>1.022928965179387</v>
+      </c>
+      <c r="N5">
+        <v>1.02094345722279</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010396219514816</v>
+        <v>1.010395941965229</v>
       </c>
       <c r="D6">
-        <v>1.026568669237942</v>
+        <v>1.026568505481265</v>
       </c>
       <c r="E6">
-        <v>0.9888157111444236</v>
+        <v>0.9888206663614176</v>
       </c>
       <c r="F6">
-        <v>1.013504308957215</v>
+        <v>1.013505569072583</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048808709772791</v>
+        <v>1.04880861710903</v>
       </c>
       <c r="J6">
-        <v>1.029014323911896</v>
+        <v>1.029014053047092</v>
       </c>
       <c r="K6">
-        <v>1.03610342917166</v>
+        <v>1.036103267213342</v>
       </c>
       <c r="L6">
-        <v>0.9987846970949067</v>
+        <v>0.9987895926189019</v>
       </c>
       <c r="M6">
-        <v>1.023184819176597</v>
+        <v>1.023186065010379</v>
+      </c>
+      <c r="N6">
+        <v>1.021098531463131</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008298494536026</v>
+        <v>1.008299609736571</v>
       </c>
       <c r="D7">
-        <v>1.024942527146511</v>
+        <v>1.024943509040983</v>
       </c>
       <c r="E7">
-        <v>0.9871139842952574</v>
+        <v>0.9871195853566873</v>
       </c>
       <c r="F7">
-        <v>1.011448345115036</v>
+        <v>1.011450595738598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048031352097361</v>
+        <v>1.048031916505002</v>
       </c>
       <c r="J7">
-        <v>1.027486266063538</v>
+        <v>1.027487353377129</v>
       </c>
       <c r="K7">
-        <v>1.034746053202419</v>
+        <v>1.034747023950889</v>
       </c>
       <c r="L7">
-        <v>0.9973674064099392</v>
+        <v>0.9973729376790196</v>
       </c>
       <c r="M7">
-        <v>1.021407579003708</v>
+        <v>1.021409803228969</v>
+      </c>
+      <c r="N7">
+        <v>1.020026396829824</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9992627018883319</v>
+        <v>0.9992699096251426</v>
       </c>
       <c r="D8">
-        <v>1.01794123395073</v>
+        <v>1.017947215807599</v>
       </c>
       <c r="E8">
-        <v>0.9798201580068658</v>
+        <v>0.979828621759702</v>
       </c>
       <c r="F8">
-        <v>1.002615871326459</v>
+        <v>1.002622473052155</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044653003870567</v>
+        <v>1.04465643119608</v>
       </c>
       <c r="J8">
-        <v>1.020892313234836</v>
+        <v>1.020899311469308</v>
       </c>
       <c r="K8">
-        <v>1.028883542497591</v>
+        <v>1.02888944686318</v>
       </c>
       <c r="L8">
-        <v>0.9912805989428455</v>
+        <v>0.9912889419984984</v>
       </c>
       <c r="M8">
-        <v>1.013760525182539</v>
+        <v>1.013767038069992</v>
+      </c>
+      <c r="N8">
+        <v>1.015394259902962</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9822053310365757</v>
+        <v>0.9822245115623122</v>
       </c>
       <c r="D9">
-        <v>1.004744407333496</v>
+        <v>1.004760157004946</v>
       </c>
       <c r="E9">
-        <v>0.9662045904539247</v>
+        <v>0.9662188276462931</v>
       </c>
       <c r="F9">
-        <v>0.9860399688627969</v>
+        <v>0.9860552004623169</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038163878960444</v>
+        <v>1.038172879165273</v>
       </c>
       <c r="J9">
-        <v>1.008402501764503</v>
+        <v>1.008420969996105</v>
       </c>
       <c r="K9">
-        <v>1.017760975981468</v>
+        <v>1.017776473216007</v>
       </c>
       <c r="L9">
-        <v>0.9798708534486587</v>
+        <v>0.9798848382193174</v>
       </c>
       <c r="M9">
-        <v>0.9993636725997055</v>
+        <v>0.9993786479769264</v>
+      </c>
+      <c r="N9">
+        <v>1.006599820785819</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9699327594687378</v>
+        <v>0.969961003722658</v>
       </c>
       <c r="D10">
-        <v>0.9952711547062654</v>
+        <v>0.9952942451942983</v>
       </c>
       <c r="E10">
-        <v>0.956527241704477</v>
+        <v>0.9565459496753926</v>
       </c>
       <c r="F10">
-        <v>0.9741879314203027</v>
+        <v>0.9742097583578673</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033423715341682</v>
+        <v>1.033436888455771</v>
       </c>
       <c r="J10">
-        <v>0.9993922729118229</v>
+        <v>0.9994192949805933</v>
       </c>
       <c r="K10">
-        <v>1.009726318068818</v>
+        <v>1.009748986489921</v>
       </c>
       <c r="L10">
-        <v>0.9717284251022167</v>
+        <v>0.9717467536314099</v>
       </c>
       <c r="M10">
-        <v>0.9890394125431549</v>
+        <v>0.9890608175597018</v>
+      </c>
+      <c r="N10">
+        <v>1.000242730987359</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.964368782343302</v>
+        <v>0.9644012782063597</v>
       </c>
       <c r="D11">
-        <v>0.9909835304580166</v>
+        <v>0.9910100478708116</v>
       </c>
       <c r="E11">
-        <v>0.9521718648107197</v>
+        <v>0.952192692901201</v>
       </c>
       <c r="F11">
-        <v>0.9688342197207468</v>
+        <v>0.9688591569882736</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031258939073824</v>
+        <v>1.031274056229072</v>
       </c>
       <c r="J11">
-        <v>0.9953028412960389</v>
+        <v>0.9953338376192568</v>
       </c>
       <c r="K11">
-        <v>1.006077511171378</v>
+        <v>1.006103516528952</v>
       </c>
       <c r="L11">
-        <v>0.9680558591456037</v>
+        <v>0.9680762403723899</v>
       </c>
       <c r="M11">
-        <v>0.9843688231307877</v>
+        <v>0.9843932493698413</v>
+      </c>
+      <c r="N11">
+        <v>0.9973547712543329</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9622609687296882</v>
+        <v>0.9622951003117695</v>
       </c>
       <c r="D12">
-        <v>0.9893605265995534</v>
+        <v>0.9893883596010724</v>
       </c>
       <c r="E12">
-        <v>0.9505270865331201</v>
+        <v>0.9505487336327534</v>
       </c>
       <c r="F12">
-        <v>0.9668092043687375</v>
+        <v>0.9668353409170533</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030436600868418</v>
+        <v>1.030452463700813</v>
       </c>
       <c r="J12">
-        <v>0.9937530733843244</v>
+        <v>0.9937855922740436</v>
       </c>
       <c r="K12">
-        <v>1.0046944407934</v>
+        <v>1.004721725411501</v>
       </c>
       <c r="L12">
-        <v>0.9666677202500569</v>
+        <v>0.9666888932461256</v>
       </c>
       <c r="M12">
-        <v>0.982601163660537</v>
+        <v>0.9826267529874798</v>
+      </c>
+      <c r="N12">
+        <v>0.9962599500389248</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.96271502438922</v>
+        <v>0.9627488024149585</v>
       </c>
       <c r="D13">
-        <v>0.9897100852701169</v>
+        <v>0.9897376340453966</v>
       </c>
       <c r="E13">
-        <v>0.9508811571138464</v>
+        <v>0.9509026270388081</v>
       </c>
       <c r="F13">
-        <v>0.9672452787443061</v>
+        <v>0.967271155949687</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030613844877021</v>
+        <v>1.030629546638884</v>
       </c>
       <c r="J13">
-        <v>0.9940869406316238</v>
+        <v>0.9941191307250031</v>
       </c>
       <c r="K13">
-        <v>1.004992408552458</v>
+        <v>1.005019416875771</v>
       </c>
       <c r="L13">
-        <v>0.9669665995837246</v>
+        <v>0.9669876013535548</v>
       </c>
       <c r="M13">
-        <v>0.9829818643044003</v>
+        <v>0.9830072022008561</v>
+      </c>
+      <c r="N13">
+        <v>0.9964958242390711</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.964195410631003</v>
+        <v>0.9642280405034486</v>
       </c>
       <c r="D14">
-        <v>0.990850007982284</v>
+        <v>0.9908766332369648</v>
       </c>
       <c r="E14">
-        <v>0.9520364713764292</v>
+        <v>0.9520573664992728</v>
       </c>
       <c r="F14">
-        <v>0.9686675933889762</v>
+        <v>0.9686926288556237</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031191345120871</v>
+        <v>1.03120652341406</v>
       </c>
       <c r="J14">
-        <v>0.9951753805487256</v>
+        <v>0.9952065017454372</v>
       </c>
       <c r="K14">
-        <v>1.005963766030618</v>
+        <v>1.00598987628909</v>
       </c>
       <c r="L14">
-        <v>0.9679416163924696</v>
+        <v>0.9679620624469036</v>
       </c>
       <c r="M14">
-        <v>0.9842233938773883</v>
+        <v>0.9842479153901459</v>
+      </c>
+      <c r="N14">
+        <v>0.9972647350121151</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9651019640522767</v>
+        <v>0.9651338942372985</v>
       </c>
       <c r="D15">
-        <v>0.991548244907165</v>
+        <v>0.9915743069823496</v>
       </c>
       <c r="E15">
-        <v>0.9527446506735521</v>
+        <v>0.9527651959421565</v>
       </c>
       <c r="F15">
-        <v>0.9695390044189534</v>
+        <v>0.9695635272777989</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031544700314768</v>
+        <v>1.031559559303191</v>
       </c>
       <c r="J15">
-        <v>0.9958418454407912</v>
+        <v>0.9958723143856522</v>
       </c>
       <c r="K15">
-        <v>1.006558503592744</v>
+        <v>1.006584065957384</v>
       </c>
       <c r="L15">
-        <v>0.968539116712349</v>
+        <v>0.9685592243705099</v>
       </c>
       <c r="M15">
-        <v>0.9849839080452799</v>
+        <v>0.9850079321460041</v>
+      </c>
+      <c r="N15">
+        <v>0.9977355002029349</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9702964640251147</v>
+        <v>0.970324433600593</v>
       </c>
       <c r="D16">
-        <v>0.9955515928122212</v>
+        <v>0.9955744615352878</v>
       </c>
       <c r="E16">
-        <v>0.956812634735393</v>
+        <v>0.9568312061938596</v>
       </c>
       <c r="F16">
-        <v>0.9745383128541429</v>
+        <v>0.9745599391972035</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033564905599154</v>
+        <v>1.033577952824868</v>
       </c>
       <c r="J16">
-        <v>0.9996595062655523</v>
+        <v>0.9996862707394222</v>
       </c>
       <c r="K16">
-        <v>1.009964716374207</v>
+        <v>1.009987168620222</v>
       </c>
       <c r="L16">
-        <v>0.9719689085612984</v>
+        <v>0.9719871047641316</v>
       </c>
       <c r="M16">
-        <v>0.9893449427579898</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9893661526887688</v>
+      </c>
+      <c r="N16">
+        <v>1.000431398189806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9734855643849496</v>
+        <v>0.9735111419020096</v>
       </c>
       <c r="D17">
-        <v>0.9980114183959162</v>
+        <v>0.9980323539974647</v>
       </c>
       <c r="E17">
-        <v>0.9593187178388897</v>
+        <v>0.9593361029999034</v>
       </c>
       <c r="F17">
-        <v>0.9776128224055821</v>
+        <v>0.9776327037096308</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034801153512886</v>
+        <v>1.034813102923735</v>
       </c>
       <c r="J17">
-        <v>1.002002216416411</v>
+        <v>1.002026733305293</v>
       </c>
       <c r="K17">
-        <v>1.012054404721958</v>
+        <v>1.012074971357638</v>
       </c>
       <c r="L17">
-        <v>0.9740797267764689</v>
+        <v>0.9740967722556054</v>
       </c>
       <c r="M17">
-        <v>0.9920251062512571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9920446178354001</v>
+      </c>
+      <c r="N17">
+        <v>1.002085055167152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9753218675650848</v>
+        <v>0.975346080819135</v>
       </c>
       <c r="D18">
-        <v>0.9994284658087216</v>
+        <v>0.9994482974018996</v>
       </c>
       <c r="E18">
-        <v>0.9607647138709778</v>
+        <v>0.9607814245705275</v>
       </c>
       <c r="F18">
-        <v>0.9793849699057594</v>
+        <v>0.9794038574765912</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035511507046794</v>
+        <v>1.035522829127243</v>
       </c>
       <c r="J18">
-        <v>1.003350733312439</v>
+        <v>1.003373964875638</v>
       </c>
       <c r="K18">
-        <v>1.013257071975193</v>
+        <v>1.013276560751389</v>
       </c>
       <c r="L18">
-        <v>0.9752969049633464</v>
+        <v>0.9753132955574404</v>
       </c>
       <c r="M18">
-        <v>0.993569293529277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9935878369778451</v>
+      </c>
+      <c r="N18">
+        <v>1.003036682419827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9759440557665313</v>
+        <v>0.9759678088952198</v>
       </c>
       <c r="D19">
-        <v>0.9999087063097578</v>
+        <v>0.999928165310712</v>
       </c>
       <c r="E19">
-        <v>0.9612551507003423</v>
+        <v>0.9612716342864434</v>
       </c>
       <c r="F19">
-        <v>0.979985724862191</v>
+        <v>0.9800042775290352</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035751938498781</v>
+        <v>1.03576304879996</v>
       </c>
       <c r="J19">
-        <v>1.00380757049422</v>
+        <v>1.003830367987565</v>
       </c>
       <c r="K19">
-        <v>1.013664463895766</v>
+        <v>1.01368358874208</v>
       </c>
       <c r="L19">
-        <v>0.9757096068171972</v>
+        <v>0.9757257767829488</v>
       </c>
       <c r="M19">
-        <v>0.9940926580256157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.994110875033838</v>
+      </c>
+      <c r="N19">
+        <v>1.003359021129479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9731458947890474</v>
+        <v>0.9731717256975335</v>
       </c>
       <c r="D20">
-        <v>0.9977493530479202</v>
+        <v>0.9977704935835314</v>
       </c>
       <c r="E20">
-        <v>0.9590514840401988</v>
+        <v>0.9590689946455762</v>
       </c>
       <c r="F20">
-        <v>0.9772851666609431</v>
+        <v>0.9773052326583531</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034669634965816</v>
+        <v>1.034681700796683</v>
       </c>
       <c r="J20">
-        <v>1.001752739341289</v>
+        <v>1.001777494683165</v>
       </c>
       <c r="K20">
-        <v>1.011831893152258</v>
+        <v>1.011852659789003</v>
       </c>
       <c r="L20">
-        <v>0.9738547199262305</v>
+        <v>0.9738718871565361</v>
       </c>
       <c r="M20">
-        <v>0.9917395450017684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9917592364421716</v>
+      </c>
+      <c r="N20">
+        <v>1.00190898222259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9637606394689966</v>
+        <v>0.9637936058188324</v>
       </c>
       <c r="D21">
-        <v>0.9905151897338577</v>
+        <v>0.9905420857162903</v>
       </c>
       <c r="E21">
-        <v>0.9516970244467838</v>
+        <v>0.9517180879307704</v>
       </c>
       <c r="F21">
-        <v>0.9682497891273893</v>
+        <v>0.9682750712001207</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031021801284073</v>
+        <v>1.03103713304848</v>
       </c>
       <c r="J21">
-        <v>0.9948557335647578</v>
+        <v>0.9948871681942447</v>
       </c>
       <c r="K21">
-        <v>1.00567851068821</v>
+        <v>1.005704884262228</v>
       </c>
       <c r="L21">
-        <v>0.9676551769682237</v>
+        <v>0.9676757858268378</v>
       </c>
       <c r="M21">
-        <v>0.9838587233312186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9838834840734692</v>
+      </c>
+      <c r="N21">
+        <v>0.9970389355735384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9576198096173358</v>
+        <v>0.9576575937999214</v>
       </c>
       <c r="D22">
-        <v>0.9857894762486924</v>
+        <v>0.9858202412316442</v>
       </c>
       <c r="E22">
-        <v>0.9469154863136572</v>
+        <v>0.9469389683234768</v>
       </c>
       <c r="F22">
-        <v>0.9623563996171167</v>
+        <v>0.9623852192792803</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028621890165866</v>
+        <v>1.028639413626612</v>
       </c>
       <c r="J22">
-        <v>0.9903397723941143</v>
+        <v>0.9903756783636219</v>
       </c>
       <c r="K22">
-        <v>1.001647802361096</v>
+        <v>1.001677934499386</v>
       </c>
       <c r="L22">
-        <v>0.9636173777350294</v>
+        <v>0.9636403222513669</v>
       </c>
       <c r="M22">
-        <v>0.9787123783776287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9787405662034584</v>
+      </c>
+      <c r="N22">
+        <v>0.9938479979690092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9608992425204863</v>
+        <v>0.9609344384237414</v>
       </c>
       <c r="D23">
-        <v>0.9883123950391229</v>
+        <v>0.9883410832057219</v>
       </c>
       <c r="E23">
-        <v>0.9494660087171558</v>
+        <v>0.949488189649574</v>
       </c>
       <c r="F23">
-        <v>0.9655018819078661</v>
+        <v>0.9655287995638767</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029904720319277</v>
+        <v>1.029921067676198</v>
       </c>
       <c r="J23">
-        <v>0.9927517233225317</v>
+        <v>0.9927852309928918</v>
       </c>
       <c r="K23">
-        <v>1.003800723383574</v>
+        <v>1.003828839028663</v>
       </c>
       <c r="L23">
-        <v>0.9657718591028187</v>
+        <v>0.9657935478242056</v>
       </c>
       <c r="M23">
-        <v>0.9814596983561807</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9814860446748095</v>
+      </c>
+      <c r="N23">
+        <v>0.995552453016317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9732994502829749</v>
+        <v>0.9733251665995784</v>
       </c>
       <c r="D24">
-        <v>0.9978678236956896</v>
+        <v>0.9978888715580462</v>
       </c>
       <c r="E24">
-        <v>0.9591722840304833</v>
+        <v>0.9591897378992009</v>
       </c>
       <c r="F24">
-        <v>0.9774332853552733</v>
+        <v>0.9774532678235953</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034729095589493</v>
+        <v>1.034741108775193</v>
       </c>
       <c r="J24">
-        <v>1.001865522564557</v>
+        <v>1.001890170080941</v>
       </c>
       <c r="K24">
-        <v>1.011932486488646</v>
+        <v>1.011953162685946</v>
       </c>
       <c r="L24">
-        <v>0.9739564340399233</v>
+        <v>0.9739735462059651</v>
       </c>
       <c r="M24">
-        <v>0.9918686366820146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.991888246784031</v>
+      </c>
+      <c r="N24">
+        <v>1.00198858181113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9867628215050578</v>
+        <v>0.98677873682981</v>
       </c>
       <c r="D25">
-        <v>1.008267344595384</v>
+        <v>1.008280438249644</v>
       </c>
       <c r="E25">
-        <v>0.9698233842407388</v>
+        <v>0.9698360301391337</v>
       </c>
       <c r="F25">
-        <v>0.9904568081284153</v>
+        <v>0.9904696764243324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039910158352024</v>
+        <v>1.039917645638435</v>
       </c>
       <c r="J25">
-        <v>1.011744031745174</v>
+        <v>1.01175939117637</v>
       </c>
       <c r="K25">
-        <v>1.020738662144454</v>
+        <v>1.020751556766731</v>
       </c>
       <c r="L25">
-        <v>0.9829089425111019</v>
+        <v>0.9829213760372667</v>
       </c>
       <c r="M25">
-        <v>1.003205098650797</v>
+        <v>1.00321776222386</v>
+      </c>
+      <c r="N25">
+        <v>1.008954946226526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9968728807270227</v>
+        <v>1.02109338985293</v>
       </c>
       <c r="D2">
-        <v>1.016091024102295</v>
+        <v>1.041197017195071</v>
       </c>
       <c r="E2">
-        <v>0.9779028063915434</v>
+        <v>1.034438304881843</v>
       </c>
       <c r="F2">
-        <v>1.000285143840307</v>
+        <v>1.046534574705687</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04375287094292</v>
+        <v>1.05908086104389</v>
       </c>
       <c r="J2">
-        <v>1.019147527389246</v>
+        <v>1.042660998631882</v>
       </c>
       <c r="K2">
-        <v>1.027330646236306</v>
+        <v>1.052110765238076</v>
       </c>
       <c r="L2">
-        <v>0.989678822713153</v>
+        <v>1.045437835704537</v>
       </c>
       <c r="M2">
-        <v>1.011740507585183</v>
+        <v>1.057381553092627</v>
       </c>
       <c r="N2">
-        <v>1.014161154047821</v>
+        <v>1.044141696844827</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003878647087675</v>
+        <v>1.028305398084327</v>
       </c>
       <c r="D3">
-        <v>1.021517395249943</v>
+        <v>1.046859005183467</v>
       </c>
       <c r="E3">
-        <v>0.9835426512093747</v>
+        <v>1.040078139735455</v>
       </c>
       <c r="F3">
-        <v>1.007123649378733</v>
+        <v>1.052537519249176</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046385097489734</v>
+        <v>1.061611021653475</v>
       </c>
       <c r="J3">
-        <v>1.02426413184622</v>
+        <v>1.048053083421052</v>
       </c>
       <c r="K3">
-        <v>1.031882165062781</v>
+        <v>1.056925468385403</v>
       </c>
       <c r="L3">
-        <v>0.9943905297006265</v>
+        <v>1.050222662411601</v>
       </c>
       <c r="M3">
-        <v>1.017666186032196</v>
+        <v>1.062539566474766</v>
       </c>
       <c r="N3">
-        <v>1.017761201768238</v>
+        <v>1.049541439012879</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008275206680132</v>
+        <v>1.032839237121514</v>
       </c>
       <c r="D4">
-        <v>1.024924594130512</v>
+        <v>1.050420907202773</v>
       </c>
       <c r="E4">
-        <v>0.9870998023453799</v>
+        <v>1.043635431072398</v>
       </c>
       <c r="F4">
-        <v>1.011426686475702</v>
+        <v>1.056319361481178</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048022858756289</v>
+        <v>1.063187725631835</v>
       </c>
       <c r="J4">
-        <v>1.027469574698136</v>
+        <v>1.051438647492411</v>
       </c>
       <c r="K4">
-        <v>1.034731227461325</v>
+        <v>1.059946622310401</v>
       </c>
       <c r="L4">
-        <v>0.9973564559366864</v>
+        <v>1.053234263725588</v>
       </c>
       <c r="M4">
-        <v>1.021389130235608</v>
+        <v>1.065782450779583</v>
       </c>
       <c r="N4">
-        <v>1.020013908556461</v>
+        <v>1.052931810973549</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010092566062156</v>
+        <v>1.034715148735543</v>
       </c>
       <c r="D5">
-        <v>1.026333325868495</v>
+        <v>1.051895162839532</v>
       </c>
       <c r="E5">
-        <v>0.9885742898603551</v>
+        <v>1.045109976620101</v>
       </c>
       <c r="F5">
-        <v>1.013208048182793</v>
+        <v>1.057885944769119</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04869638832179</v>
+        <v>1.063836698518917</v>
       </c>
       <c r="J5">
-        <v>1.028793183540582</v>
+        <v>1.052838384542496</v>
       </c>
       <c r="K5">
-        <v>1.035907087729412</v>
+        <v>1.061195216794411</v>
       </c>
       <c r="L5">
-        <v>0.9985844801127496</v>
+        <v>1.054481087477034</v>
       </c>
       <c r="M5">
-        <v>1.022928965179387</v>
+        <v>1.067124184974497</v>
       </c>
       <c r="N5">
-        <v>1.02094345722279</v>
+        <v>1.054333535810797</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010395941965229</v>
+        <v>1.035028403070507</v>
       </c>
       <c r="D6">
-        <v>1.026568505481265</v>
+        <v>1.052141371433453</v>
       </c>
       <c r="E6">
-        <v>0.9888206663614176</v>
+        <v>1.045356361838726</v>
       </c>
       <c r="F6">
-        <v>1.013505569072583</v>
+        <v>1.058147648443281</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04880861710903</v>
+        <v>1.0639448671106</v>
       </c>
       <c r="J6">
-        <v>1.029014053047092</v>
+        <v>1.05307205900126</v>
       </c>
       <c r="K6">
-        <v>1.036103267213342</v>
+        <v>1.061403630265393</v>
       </c>
       <c r="L6">
-        <v>0.9987895926189019</v>
+        <v>1.054689332670651</v>
       </c>
       <c r="M6">
-        <v>1.023186065010379</v>
+        <v>1.067348233236928</v>
       </c>
       <c r="N6">
-        <v>1.021098531463131</v>
+        <v>1.054567542114095</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008299609736571</v>
+        <v>1.032864419347317</v>
       </c>
       <c r="D7">
-        <v>1.024943509040983</v>
+        <v>1.050440695794667</v>
       </c>
       <c r="E7">
-        <v>0.9871195853566873</v>
+        <v>1.043655214907212</v>
       </c>
       <c r="F7">
-        <v>1.011450595738598</v>
+        <v>1.056340384254906</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048031916505002</v>
+        <v>1.063196450986043</v>
       </c>
       <c r="J7">
-        <v>1.027487353377129</v>
+        <v>1.051457441857313</v>
       </c>
       <c r="K7">
-        <v>1.034747023950889</v>
+        <v>1.059963389208259</v>
       </c>
       <c r="L7">
-        <v>0.9973729376790196</v>
+        <v>1.05325099826099</v>
       </c>
       <c r="M7">
-        <v>1.021409803228969</v>
+        <v>1.065800462482059</v>
       </c>
       <c r="N7">
-        <v>1.020026396829824</v>
+        <v>1.052950632028605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9992699096251426</v>
+        <v>1.023559276904773</v>
       </c>
       <c r="D8">
-        <v>1.017947215807599</v>
+        <v>1.043132339159123</v>
       </c>
       <c r="E8">
-        <v>0.979828621759702</v>
+        <v>1.036364063504543</v>
       </c>
       <c r="F8">
-        <v>1.002622473052155</v>
+        <v>1.048585282839452</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04465643119608</v>
+        <v>1.059948842997905</v>
       </c>
       <c r="J8">
-        <v>1.020899311469308</v>
+        <v>1.04450546836253</v>
       </c>
       <c r="K8">
-        <v>1.02888944686318</v>
+        <v>1.053758110826857</v>
       </c>
       <c r="L8">
-        <v>0.9912889419984984</v>
+        <v>1.047072998695763</v>
       </c>
       <c r="M8">
-        <v>1.013767038069992</v>
+        <v>1.059145022161896</v>
       </c>
       <c r="N8">
-        <v>1.015394259902962</v>
+        <v>1.045988785934057</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9822245115623122</v>
+        <v>1.006062000216219</v>
       </c>
       <c r="D9">
-        <v>1.004760157004946</v>
+        <v>1.02941535851192</v>
       </c>
       <c r="E9">
-        <v>0.9662188276462931</v>
+        <v>1.022756931872142</v>
       </c>
       <c r="F9">
-        <v>0.9860552004623169</v>
+        <v>1.03407454421428</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038172879165273</v>
+        <v>1.053733034643645</v>
       </c>
       <c r="J9">
-        <v>1.008420969996105</v>
+        <v>1.031402494820405</v>
       </c>
       <c r="K9">
-        <v>1.017776473216007</v>
+        <v>1.042048561783941</v>
       </c>
       <c r="L9">
-        <v>0.9798848382193174</v>
+        <v>1.035491276562128</v>
       </c>
       <c r="M9">
-        <v>0.9993786479769264</v>
+        <v>1.046637959604493</v>
       </c>
       <c r="N9">
-        <v>1.006599820785819</v>
+        <v>1.03286720466657</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.969961003722658</v>
+        <v>0.9935270626330113</v>
       </c>
       <c r="D10">
-        <v>0.9952942451942983</v>
+        <v>1.019614544233097</v>
       </c>
       <c r="E10">
-        <v>0.9565459496753926</v>
+        <v>1.013090951881316</v>
       </c>
       <c r="F10">
-        <v>0.9742097583578673</v>
+        <v>1.023738218449294</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033436888455771</v>
+        <v>1.04921096990214</v>
       </c>
       <c r="J10">
-        <v>0.9994192949805933</v>
+        <v>1.021999872503047</v>
       </c>
       <c r="K10">
-        <v>1.009748986489921</v>
+        <v>1.033638458355858</v>
       </c>
       <c r="L10">
-        <v>0.9717467536314099</v>
+        <v>1.027227800529948</v>
       </c>
       <c r="M10">
-        <v>0.9890608175597018</v>
+        <v>1.037691703292433</v>
       </c>
       <c r="N10">
-        <v>1.000242730987359</v>
+        <v>1.023451229547025</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9644012782063597</v>
+        <v>0.9878590657562836</v>
       </c>
       <c r="D11">
-        <v>0.9910100478708116</v>
+        <v>1.015191188442309</v>
       </c>
       <c r="E11">
-        <v>0.952192692901201</v>
+        <v>1.008742778130219</v>
       </c>
       <c r="F11">
-        <v>0.9688591569882736</v>
+        <v>1.019081009988425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031274056229072</v>
+        <v>1.047151087949935</v>
       </c>
       <c r="J11">
-        <v>0.9953338376192568</v>
+        <v>1.017745791778621</v>
       </c>
       <c r="K11">
-        <v>1.006103516528952</v>
+        <v>1.029832196952598</v>
       </c>
       <c r="L11">
-        <v>0.9680762403723899</v>
+        <v>1.023501680621079</v>
       </c>
       <c r="M11">
-        <v>0.9843932493698413</v>
+        <v>1.03365183959617</v>
       </c>
       <c r="N11">
-        <v>0.9973547712543329</v>
+        <v>1.019191107540021</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9622951003117695</v>
+        <v>0.9857143015903974</v>
       </c>
       <c r="D12">
-        <v>0.9893883596010724</v>
+        <v>1.013518855567749</v>
       </c>
       <c r="E12">
-        <v>0.9505487336327534</v>
+        <v>1.007101114822099</v>
       </c>
       <c r="F12">
-        <v>0.9668353409170533</v>
+        <v>1.017321474809156</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030452463700813</v>
+        <v>1.046369483604943</v>
       </c>
       <c r="J12">
-        <v>0.9937855922740436</v>
+        <v>1.016135809481364</v>
       </c>
       <c r="K12">
-        <v>1.004721725411501</v>
+        <v>1.028391559202013</v>
       </c>
       <c r="L12">
-        <v>0.9666888932461256</v>
+        <v>1.022093521596051</v>
       </c>
       <c r="M12">
-        <v>0.9826267529874798</v>
+        <v>1.032124180204713</v>
       </c>
       <c r="N12">
-        <v>0.9962599500389248</v>
+        <v>1.017578838883234</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9627488024149585</v>
+        <v>0.9861762023714243</v>
       </c>
       <c r="D13">
-        <v>0.9897376340453966</v>
+        <v>1.013878943100853</v>
       </c>
       <c r="E13">
-        <v>0.9509026270388081</v>
+        <v>1.00745449558847</v>
       </c>
       <c r="F13">
-        <v>0.967271155949687</v>
+        <v>1.017700283589245</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030629546638884</v>
+        <v>1.046537906303825</v>
       </c>
       <c r="J13">
-        <v>0.9941191307250031</v>
+        <v>1.016482547360191</v>
       </c>
       <c r="K13">
-        <v>1.005019416875771</v>
+        <v>1.028701831027454</v>
       </c>
       <c r="L13">
-        <v>0.9669876013535548</v>
+        <v>1.022396700276855</v>
       </c>
       <c r="M13">
-        <v>0.9830072022008561</v>
+        <v>1.03245313041348</v>
       </c>
       <c r="N13">
-        <v>0.9964958242390711</v>
+        <v>1.01792606916962</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9642280405034486</v>
+        <v>0.9876826036641515</v>
       </c>
       <c r="D14">
-        <v>0.9908766332369648</v>
+        <v>1.015053565102465</v>
       </c>
       <c r="E14">
-        <v>0.9520573664992728</v>
+        <v>1.00860763259007</v>
       </c>
       <c r="F14">
-        <v>0.9686926288556237</v>
+        <v>1.018936185651086</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03120652341406</v>
+        <v>1.047086823651177</v>
       </c>
       <c r="J14">
-        <v>0.9952065017454372</v>
+        <v>1.017613333425756</v>
       </c>
       <c r="K14">
-        <v>1.00598987628909</v>
+        <v>1.029713673555002</v>
       </c>
       <c r="L14">
-        <v>0.9679620624469036</v>
+        <v>1.023385785313099</v>
       </c>
       <c r="M14">
-        <v>0.9842479153901459</v>
+        <v>1.033526128295113</v>
       </c>
       <c r="N14">
-        <v>0.9972647350121151</v>
+        <v>1.019058461081101</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9651338942372985</v>
+        <v>0.988605417664057</v>
       </c>
       <c r="D15">
-        <v>0.9915743069823496</v>
+        <v>1.015773331288574</v>
       </c>
       <c r="E15">
-        <v>0.9527651959421565</v>
+        <v>1.00931453184197</v>
       </c>
       <c r="F15">
-        <v>0.9695635272777989</v>
+        <v>1.019693662259619</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031559559303191</v>
+        <v>1.04742280929439</v>
       </c>
       <c r="J15">
-        <v>0.9958723143856522</v>
+        <v>1.018306019416444</v>
       </c>
       <c r="K15">
-        <v>1.006584065957384</v>
+        <v>1.030333482025724</v>
       </c>
       <c r="L15">
-        <v>0.9685592243705099</v>
+        <v>1.023991938088544</v>
       </c>
       <c r="M15">
-        <v>0.9850079321460041</v>
+        <v>1.034183582233391</v>
       </c>
       <c r="N15">
-        <v>0.9977355002029349</v>
+        <v>1.019752130765349</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.970324433600593</v>
+        <v>0.9938978924838909</v>
       </c>
       <c r="D16">
-        <v>0.9955744615352878</v>
+        <v>1.019904132732537</v>
       </c>
       <c r="E16">
-        <v>0.9568312061938596</v>
+        <v>1.013375922760437</v>
       </c>
       <c r="F16">
-        <v>0.9745599391972035</v>
+        <v>1.024043281842163</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033577952824868</v>
+        <v>1.049345435324104</v>
       </c>
       <c r="J16">
-        <v>0.9996862707394222</v>
+        <v>1.022278156196588</v>
       </c>
       <c r="K16">
-        <v>1.009987168620222</v>
+        <v>1.033887426203377</v>
       </c>
       <c r="L16">
-        <v>0.9719871047641316</v>
+        <v>1.027471817633917</v>
       </c>
       <c r="M16">
-        <v>0.9893661526887688</v>
+        <v>1.037956141232892</v>
       </c>
       <c r="N16">
-        <v>1.000431398189806</v>
+        <v>1.023729908435331</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9735111419020096</v>
+        <v>0.9971511746093903</v>
       </c>
       <c r="D17">
-        <v>0.9980323539974647</v>
+        <v>1.022445650073815</v>
       </c>
       <c r="E17">
-        <v>0.9593361029999034</v>
+        <v>1.01587854349474</v>
       </c>
       <c r="F17">
-        <v>0.9776327037096308</v>
+        <v>1.02672150064594</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034813102923735</v>
+        <v>1.05052340505238</v>
       </c>
       <c r="J17">
-        <v>1.002026733305293</v>
+        <v>1.02471927089073</v>
       </c>
       <c r="K17">
-        <v>1.012074971357638</v>
+        <v>1.036071247723685</v>
       </c>
       <c r="L17">
-        <v>0.9740967722556054</v>
+        <v>1.029613776737892</v>
       </c>
       <c r="M17">
-        <v>0.9920446178354001</v>
+        <v>1.04027668366355</v>
       </c>
       <c r="N17">
-        <v>1.002085055167152</v>
+        <v>1.026174489792338</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.975346080819135</v>
+        <v>0.9990258196424182</v>
       </c>
       <c r="D18">
-        <v>0.9994482974018996</v>
+        <v>1.02391092259653</v>
       </c>
       <c r="E18">
-        <v>0.9607814245705275</v>
+        <v>1.017322732587205</v>
       </c>
       <c r="F18">
-        <v>0.9794038574765912</v>
+        <v>1.028266321508829</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035522829127243</v>
+        <v>1.05120075955866</v>
       </c>
       <c r="J18">
-        <v>1.003373964875638</v>
+        <v>1.026125680923777</v>
       </c>
       <c r="K18">
-        <v>1.013276560751389</v>
+        <v>1.03732930313696</v>
       </c>
       <c r="L18">
-        <v>0.9753132955574404</v>
+        <v>1.030849005471709</v>
       </c>
       <c r="M18">
-        <v>0.9935878369778451</v>
+        <v>1.041614349107014</v>
       </c>
       <c r="N18">
-        <v>1.003036682419827</v>
+        <v>1.027582897088949</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9759678088952198</v>
+        <v>0.9996612283947358</v>
       </c>
       <c r="D19">
-        <v>0.999928165310712</v>
+        <v>1.024407699672885</v>
       </c>
       <c r="E19">
-        <v>0.9612716342864434</v>
+        <v>1.017812586707189</v>
       </c>
       <c r="F19">
-        <v>0.9800042775290352</v>
+        <v>1.02879019199197</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03576304879996</v>
+        <v>1.051430102181699</v>
       </c>
       <c r="J19">
-        <v>1.003830367987565</v>
+        <v>1.026602338101137</v>
       </c>
       <c r="K19">
-        <v>1.01368358874208</v>
+        <v>1.037755658708301</v>
       </c>
       <c r="L19">
-        <v>0.9757257767829488</v>
+        <v>1.031267841717541</v>
       </c>
       <c r="M19">
-        <v>0.994110875033838</v>
+        <v>1.042067827421417</v>
       </c>
       <c r="N19">
-        <v>1.003359021129479</v>
+        <v>1.028060231174174</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9731717256975335</v>
+        <v>0.9968045236199229</v>
       </c>
       <c r="D20">
-        <v>0.9977704935835314</v>
+        <v>1.022174759313095</v>
       </c>
       <c r="E20">
-        <v>0.9590689946455762</v>
+        <v>1.01561165854351</v>
       </c>
       <c r="F20">
-        <v>0.9773052326583531</v>
+        <v>1.026435962785618</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034681700796683</v>
+        <v>1.050398035082878</v>
       </c>
       <c r="J20">
-        <v>1.001777494683165</v>
+        <v>1.024459183697632</v>
       </c>
       <c r="K20">
-        <v>1.011852659789003</v>
+        <v>1.035838585737871</v>
       </c>
       <c r="L20">
-        <v>0.9738718871565361</v>
+        <v>1.02938544021692</v>
       </c>
       <c r="M20">
-        <v>0.9917592364421716</v>
+        <v>1.04002936722678</v>
       </c>
       <c r="N20">
-        <v>1.00190898222259</v>
+        <v>1.025914033245594</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9637936058188324</v>
+        <v>0.9872401228942466</v>
       </c>
       <c r="D21">
-        <v>0.9905420857162903</v>
+        <v>1.014708497190207</v>
       </c>
       <c r="E21">
-        <v>0.9517180879307704</v>
+        <v>1.008268813808755</v>
       </c>
       <c r="F21">
-        <v>0.9682750712001207</v>
+        <v>1.018573082003414</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03103713304848</v>
+        <v>1.046925646081332</v>
       </c>
       <c r="J21">
-        <v>0.9948871681942447</v>
+        <v>1.017281189095194</v>
       </c>
       <c r="K21">
-        <v>1.005704884262228</v>
+        <v>1.02941646965292</v>
       </c>
       <c r="L21">
-        <v>0.9676757858268378</v>
+        <v>1.023095206268706</v>
       </c>
       <c r="M21">
-        <v>0.9838834840734692</v>
+        <v>1.033210922889085</v>
       </c>
       <c r="N21">
-        <v>0.9970389355735384</v>
+        <v>1.018725845067493</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9576575937999214</v>
+        <v>0.980996582517068</v>
       </c>
       <c r="D22">
-        <v>0.9858202412316442</v>
+        <v>1.009843261630008</v>
       </c>
       <c r="E22">
-        <v>0.9469389683234768</v>
+        <v>1.003497183206743</v>
       </c>
       <c r="F22">
-        <v>0.9623852192792803</v>
+        <v>1.01345649193108</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028639413626612</v>
+        <v>1.044646419047983</v>
       </c>
       <c r="J22">
-        <v>0.9903756783636219</v>
+        <v>1.01259412287299</v>
       </c>
       <c r="K22">
-        <v>1.001677934499386</v>
+        <v>1.025222211482524</v>
       </c>
       <c r="L22">
-        <v>0.9636403222513669</v>
+        <v>1.018999677112288</v>
       </c>
       <c r="M22">
-        <v>0.9787405662034584</v>
+        <v>1.028766004808873</v>
       </c>
       <c r="N22">
-        <v>0.9938479979690092</v>
+        <v>1.014032122673639</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9609344384237414</v>
+        <v>0.9843294260392588</v>
       </c>
       <c r="D23">
-        <v>0.9883410832057219</v>
+        <v>1.01243946884349</v>
       </c>
       <c r="E23">
-        <v>0.949488189649574</v>
+        <v>1.006042169062424</v>
       </c>
       <c r="F23">
-        <v>0.9655287995638767</v>
+        <v>1.016186150031908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029921067676198</v>
+        <v>1.045864212455113</v>
       </c>
       <c r="J23">
-        <v>0.9927852309928918</v>
+        <v>1.015096191272453</v>
       </c>
       <c r="K23">
-        <v>1.003828839028663</v>
+        <v>1.027461260792871</v>
       </c>
       <c r="L23">
-        <v>0.9657935478242056</v>
+        <v>1.021184811730324</v>
       </c>
       <c r="M23">
-        <v>0.9814860446748095</v>
+        <v>1.03113808522397</v>
       </c>
       <c r="N23">
-        <v>0.995552453016317</v>
+        <v>1.01653774429722</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9733251665995784</v>
+        <v>0.9969612309244127</v>
       </c>
       <c r="D24">
-        <v>0.9978888715580462</v>
+        <v>1.022297216018592</v>
       </c>
       <c r="E24">
-        <v>0.9591897378992009</v>
+        <v>1.015732300254814</v>
       </c>
       <c r="F24">
-        <v>0.9774532678235953</v>
+        <v>1.026565038460724</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034741108775193</v>
+        <v>1.050454714373205</v>
       </c>
       <c r="J24">
-        <v>1.001890170080941</v>
+        <v>1.024576759656859</v>
       </c>
       <c r="K24">
-        <v>1.011953162685946</v>
+        <v>1.035943764132371</v>
       </c>
       <c r="L24">
-        <v>0.9739735462059651</v>
+        <v>1.029488659219153</v>
       </c>
       <c r="M24">
-        <v>0.991888246784031</v>
+        <v>1.040141167757694</v>
       </c>
       <c r="N24">
-        <v>1.00198858181113</v>
+        <v>1.026031776176169</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.98677873682981</v>
+        <v>1.010728415636455</v>
       </c>
       <c r="D25">
-        <v>1.008280438249644</v>
+        <v>1.033069823942611</v>
       </c>
       <c r="E25">
-        <v>0.9698360301391337</v>
+        <v>1.02637280173823</v>
       </c>
       <c r="F25">
-        <v>0.9904696764243324</v>
+        <v>1.037935182913144</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039917645638435</v>
+        <v>1.055402907744791</v>
       </c>
       <c r="J25">
-        <v>1.01175939117637</v>
+        <v>1.034900042572612</v>
       </c>
       <c r="K25">
-        <v>1.020751556766731</v>
+        <v>1.045175581774883</v>
       </c>
       <c r="L25">
-        <v>0.9829213760372667</v>
+        <v>1.038575057824388</v>
       </c>
       <c r="M25">
-        <v>1.00321776222386</v>
+        <v>1.0499718223576</v>
       </c>
       <c r="N25">
-        <v>1.008954946226526</v>
+        <v>1.036369719337759</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02109338985293</v>
+        <v>1.019729134679243</v>
       </c>
       <c r="D2">
-        <v>1.041197017195071</v>
+        <v>1.038640644296488</v>
       </c>
       <c r="E2">
-        <v>1.034438304881843</v>
+        <v>1.033828791623348</v>
       </c>
       <c r="F2">
-        <v>1.046534574705687</v>
+        <v>1.04460780501468</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05908086104389</v>
+        <v>1.052749563319891</v>
       </c>
       <c r="J2">
-        <v>1.042660998631882</v>
+        <v>1.041335348328588</v>
       </c>
       <c r="K2">
-        <v>1.052110765238076</v>
+        <v>1.049586674401145</v>
       </c>
       <c r="L2">
-        <v>1.045437835704537</v>
+        <v>1.04483612740876</v>
       </c>
       <c r="M2">
-        <v>1.057381553092627</v>
+        <v>1.055478788055643</v>
       </c>
       <c r="N2">
-        <v>1.044141696844827</v>
+        <v>1.042814163966049</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028305398084327</v>
+        <v>1.023659216102224</v>
       </c>
       <c r="D3">
-        <v>1.046859005183467</v>
+        <v>1.041673620839776</v>
       </c>
       <c r="E3">
-        <v>1.040078139735455</v>
+        <v>1.037502007582775</v>
       </c>
       <c r="F3">
-        <v>1.052537519249176</v>
+        <v>1.048206725474405</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061611021653475</v>
+        <v>1.053919619720388</v>
       </c>
       <c r="J3">
-        <v>1.048053083421052</v>
+        <v>1.043525047324176</v>
       </c>
       <c r="K3">
-        <v>1.056925468385403</v>
+        <v>1.051799663819028</v>
       </c>
       <c r="L3">
-        <v>1.050222662411601</v>
+        <v>1.047676516747844</v>
       </c>
       <c r="M3">
-        <v>1.062539566474766</v>
+        <v>1.058257822493639</v>
       </c>
       <c r="N3">
-        <v>1.049541439012879</v>
+        <v>1.045006972585372</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032839237121514</v>
+        <v>1.026155727573</v>
       </c>
       <c r="D4">
-        <v>1.050420907202773</v>
+        <v>1.043603390623237</v>
       </c>
       <c r="E4">
-        <v>1.043635431072398</v>
+        <v>1.039844134034916</v>
       </c>
       <c r="F4">
-        <v>1.056319361481178</v>
+        <v>1.05049917963506</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063187725631835</v>
+        <v>1.054655126195597</v>
       </c>
       <c r="J4">
-        <v>1.051438647492411</v>
+        <v>1.044913232780064</v>
       </c>
       <c r="K4">
-        <v>1.059946622310401</v>
+        <v>1.053202571298256</v>
       </c>
       <c r="L4">
-        <v>1.053234263725588</v>
+        <v>1.049484330393479</v>
       </c>
       <c r="M4">
-        <v>1.065782450779583</v>
+        <v>1.060024058060403</v>
       </c>
       <c r="N4">
-        <v>1.052931810973549</v>
+        <v>1.046397129423835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034715148735543</v>
+        <v>1.027194466152652</v>
       </c>
       <c r="D5">
-        <v>1.051895162839532</v>
+        <v>1.044407034070393</v>
       </c>
       <c r="E5">
-        <v>1.045109976620101</v>
+        <v>1.040820716193984</v>
       </c>
       <c r="F5">
-        <v>1.057885944769119</v>
+        <v>1.051454496435905</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063836698518917</v>
+        <v>1.054959263442099</v>
       </c>
       <c r="J5">
-        <v>1.052838384542496</v>
+        <v>1.045490130402937</v>
       </c>
       <c r="K5">
-        <v>1.061195216794411</v>
+        <v>1.053785570946696</v>
       </c>
       <c r="L5">
-        <v>1.054481087477034</v>
+        <v>1.050237330756242</v>
       </c>
       <c r="M5">
-        <v>1.067124184974497</v>
+        <v>1.060759131204462</v>
       </c>
       <c r="N5">
-        <v>1.054333535810797</v>
+        <v>1.046974846307503</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035028403070507</v>
+        <v>1.027368251553296</v>
       </c>
       <c r="D6">
-        <v>1.052141371433453</v>
+        <v>1.044541527848912</v>
       </c>
       <c r="E6">
-        <v>1.045356361838726</v>
+        <v>1.040984223995837</v>
       </c>
       <c r="F6">
-        <v>1.058147648443281</v>
+        <v>1.051614411205753</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0639448671106</v>
+        <v>1.05501003499112</v>
       </c>
       <c r="J6">
-        <v>1.05307205900126</v>
+        <v>1.045586606356445</v>
       </c>
       <c r="K6">
-        <v>1.061403630265393</v>
+        <v>1.05388306624568</v>
       </c>
       <c r="L6">
-        <v>1.054689332670651</v>
+        <v>1.050363357849351</v>
       </c>
       <c r="M6">
-        <v>1.067348233236928</v>
+        <v>1.060882122023751</v>
       </c>
       <c r="N6">
-        <v>1.054567542114095</v>
+        <v>1.047071459267932</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032864419347317</v>
+        <v>1.026169649223647</v>
       </c>
       <c r="D7">
-        <v>1.050440695794667</v>
+        <v>1.043614158657016</v>
       </c>
       <c r="E7">
-        <v>1.043655214907212</v>
+        <v>1.039857214461937</v>
       </c>
       <c r="F7">
-        <v>1.056340384254906</v>
+        <v>1.050511977419502</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063196450986043</v>
+        <v>1.054659209881556</v>
       </c>
       <c r="J7">
-        <v>1.051457441857313</v>
+        <v>1.044920967396936</v>
       </c>
       <c r="K7">
-        <v>1.059963389208259</v>
+        <v>1.053210387797653</v>
       </c>
       <c r="L7">
-        <v>1.05325099826099</v>
+        <v>1.04949441927971</v>
       </c>
       <c r="M7">
-        <v>1.065800462482059</v>
+        <v>1.060033909159706</v>
       </c>
       <c r="N7">
-        <v>1.052950632028605</v>
+        <v>1.04640487502475</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023559276904773</v>
+        <v>1.021067164956594</v>
       </c>
       <c r="D8">
-        <v>1.043132339159123</v>
+        <v>1.039672569054914</v>
       </c>
       <c r="E8">
-        <v>1.036364063504543</v>
+        <v>1.035077512936578</v>
       </c>
       <c r="F8">
-        <v>1.048585282839452</v>
+        <v>1.045831748445902</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059948842997905</v>
+        <v>1.05314952363981</v>
       </c>
       <c r="J8">
-        <v>1.04450546836253</v>
+        <v>1.04208141647676</v>
       </c>
       <c r="K8">
-        <v>1.053758110826857</v>
+        <v>1.050340683501944</v>
       </c>
       <c r="L8">
-        <v>1.047072998695763</v>
+        <v>1.045802409514471</v>
       </c>
       <c r="M8">
-        <v>1.059145022161896</v>
+        <v>1.056424724764662</v>
       </c>
       <c r="N8">
-        <v>1.045988785934057</v>
+        <v>1.043561291616566</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006062000216219</v>
+        <v>1.011703635230379</v>
       </c>
       <c r="D9">
-        <v>1.02941535851192</v>
+        <v>1.032465995598839</v>
       </c>
       <c r="E9">
-        <v>1.022756931872142</v>
+        <v>1.02637732368888</v>
       </c>
       <c r="F9">
-        <v>1.03407454421428</v>
+        <v>1.03729461817047</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053733034643645</v>
+        <v>1.050319083004649</v>
       </c>
       <c r="J9">
-        <v>1.031402494820405</v>
+        <v>1.036849770984746</v>
       </c>
       <c r="K9">
-        <v>1.042048561783941</v>
+        <v>1.045053414157812</v>
       </c>
       <c r="L9">
-        <v>1.035491276562128</v>
+        <v>1.039056467223464</v>
       </c>
       <c r="M9">
-        <v>1.046637959604493</v>
+        <v>1.049810266997071</v>
       </c>
       <c r="N9">
-        <v>1.03286720466657</v>
+        <v>1.038322216587875</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9935270626330113</v>
+        <v>1.005187318892459</v>
       </c>
       <c r="D10">
-        <v>1.019614544233097</v>
+        <v>1.027471432847341</v>
       </c>
       <c r="E10">
-        <v>1.013090951881316</v>
+        <v>1.020372783288221</v>
       </c>
       <c r="F10">
-        <v>1.023738218449294</v>
+        <v>1.031390572553036</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04921096990214</v>
+        <v>1.048310683973507</v>
       </c>
       <c r="J10">
-        <v>1.021999872503047</v>
+        <v>1.033196628123415</v>
       </c>
       <c r="K10">
-        <v>1.033638458355858</v>
+        <v>1.041361785972159</v>
       </c>
       <c r="L10">
-        <v>1.027227800529948</v>
+        <v>1.034383692056221</v>
       </c>
       <c r="M10">
-        <v>1.037691703292433</v>
+        <v>1.045215283268967</v>
       </c>
       <c r="N10">
-        <v>1.023451229547025</v>
+        <v>1.03466388584466</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9878590657562836</v>
+        <v>1.002295057401863</v>
       </c>
       <c r="D11">
-        <v>1.015191188442309</v>
+        <v>1.02526013008516</v>
       </c>
       <c r="E11">
-        <v>1.008742778130219</v>
+        <v>1.017720076420606</v>
       </c>
       <c r="F11">
-        <v>1.019081009988425</v>
+        <v>1.02877943087498</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047151087949935</v>
+        <v>1.047410546477634</v>
       </c>
       <c r="J11">
-        <v>1.017745791778621</v>
+        <v>1.031572670005984</v>
       </c>
       <c r="K11">
-        <v>1.029832196952598</v>
+        <v>1.039720897894257</v>
       </c>
       <c r="L11">
-        <v>1.023501680621079</v>
+        <v>1.032315380252112</v>
       </c>
       <c r="M11">
-        <v>1.03365183959617</v>
+        <v>1.043178278896884</v>
       </c>
       <c r="N11">
-        <v>1.019191107540021</v>
+        <v>1.033037621520432</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9857143015903974</v>
+        <v>1.001209614570569</v>
       </c>
       <c r="D12">
-        <v>1.013518855567749</v>
+        <v>1.024431132029034</v>
       </c>
       <c r="E12">
-        <v>1.007101114822099</v>
+        <v>1.016726446214857</v>
       </c>
       <c r="F12">
-        <v>1.017321474809156</v>
+        <v>1.027800946350136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046369483604943</v>
+        <v>1.047071462619805</v>
       </c>
       <c r="J12">
-        <v>1.016135809481364</v>
+        <v>1.030962869414702</v>
       </c>
       <c r="K12">
-        <v>1.028391559202013</v>
+        <v>1.03910477517054</v>
       </c>
       <c r="L12">
-        <v>1.022093521596051</v>
+        <v>1.031540059830935</v>
       </c>
       <c r="M12">
-        <v>1.032124180204713</v>
+        <v>1.042414226686079</v>
       </c>
       <c r="N12">
-        <v>1.017578838883234</v>
+        <v>1.032426954942365</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9861762023714243</v>
+        <v>1.001442957894229</v>
       </c>
       <c r="D13">
-        <v>1.013878943100853</v>
+        <v>1.024609305106043</v>
       </c>
       <c r="E13">
-        <v>1.00745449558847</v>
+        <v>1.016939965030459</v>
       </c>
       <c r="F13">
-        <v>1.017700283589245</v>
+        <v>1.028011229658096</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046537906303825</v>
+        <v>1.047144413967549</v>
       </c>
       <c r="J13">
-        <v>1.016482547360191</v>
+        <v>1.031093976304668</v>
       </c>
       <c r="K13">
-        <v>1.028701831027454</v>
+        <v>1.0392372395921</v>
       </c>
       <c r="L13">
-        <v>1.022396700276855</v>
+        <v>1.03170669307424</v>
       </c>
       <c r="M13">
-        <v>1.03245313041348</v>
+        <v>1.042578459248929</v>
       </c>
       <c r="N13">
-        <v>1.01792606916962</v>
+        <v>1.032558248019153</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9876826036641515</v>
+        <v>1.002205564445263</v>
       </c>
       <c r="D14">
-        <v>1.015053565102465</v>
+        <v>1.025191762221552</v>
       </c>
       <c r="E14">
-        <v>1.00860763259007</v>
+        <v>1.017638114154454</v>
       </c>
       <c r="F14">
-        <v>1.018936185651086</v>
+        <v>1.028698726546585</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047086823651177</v>
+        <v>1.047382615158065</v>
       </c>
       <c r="J14">
-        <v>1.017613333425756</v>
+        <v>1.03152239970474</v>
       </c>
       <c r="K14">
-        <v>1.029713673555002</v>
+        <v>1.039670105650385</v>
       </c>
       <c r="L14">
-        <v>1.023385785313099</v>
+        <v>1.032251437792223</v>
       </c>
       <c r="M14">
-        <v>1.033526128295113</v>
+        <v>1.043115275252992</v>
       </c>
       <c r="N14">
-        <v>1.019058461081101</v>
+        <v>1.032987279829594</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.988605417664057</v>
+        <v>1.002673941056201</v>
       </c>
       <c r="D15">
-        <v>1.015773331288574</v>
+        <v>1.025549613550641</v>
       </c>
       <c r="E15">
-        <v>1.00931453184197</v>
+        <v>1.018067155781335</v>
       </c>
       <c r="F15">
-        <v>1.019693662259619</v>
+        <v>1.029121166069542</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04742280929439</v>
+        <v>1.047528746937389</v>
       </c>
       <c r="J15">
-        <v>1.018306019416444</v>
+        <v>1.031785484145881</v>
       </c>
       <c r="K15">
-        <v>1.030333482025724</v>
+        <v>1.039935923106753</v>
       </c>
       <c r="L15">
-        <v>1.023991938088544</v>
+        <v>1.03258612853608</v>
       </c>
       <c r="M15">
-        <v>1.034183582233391</v>
+        <v>1.043445032932769</v>
       </c>
       <c r="N15">
-        <v>1.019752130765349</v>
+        <v>1.033250737880818</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9938978924838909</v>
+        <v>1.005377737056233</v>
       </c>
       <c r="D16">
-        <v>1.019904132732537</v>
+        <v>1.027617138658182</v>
       </c>
       <c r="E16">
-        <v>1.013375922760437</v>
+        <v>1.0205476924742</v>
       </c>
       <c r="F16">
-        <v>1.024043281842163</v>
+        <v>1.031562682073976</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049345435324104</v>
+        <v>1.048369767997744</v>
       </c>
       <c r="J16">
-        <v>1.022278156196588</v>
+        <v>1.033303495393625</v>
       </c>
       <c r="K16">
-        <v>1.033887426203377</v>
+        <v>1.041469771758804</v>
       </c>
       <c r="L16">
-        <v>1.027471817633917</v>
+        <v>1.034519986316803</v>
       </c>
       <c r="M16">
-        <v>1.037956141232892</v>
+        <v>1.04534944937761</v>
       </c>
       <c r="N16">
-        <v>1.023729908435331</v>
+        <v>1.034770904878651</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9971511746093903</v>
+        <v>1.007054488037523</v>
       </c>
       <c r="D17">
-        <v>1.022445650073815</v>
+        <v>1.028900806518951</v>
       </c>
       <c r="E17">
-        <v>1.01587854349474</v>
+        <v>1.02208929689944</v>
       </c>
       <c r="F17">
-        <v>1.02672150064594</v>
+        <v>1.033079287540972</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05052340505238</v>
+        <v>1.048889051143632</v>
       </c>
       <c r="J17">
-        <v>1.02471927089073</v>
+        <v>1.034244246128804</v>
       </c>
       <c r="K17">
-        <v>1.036071247723685</v>
+        <v>1.04242039006221</v>
       </c>
       <c r="L17">
-        <v>1.029613776737892</v>
+        <v>1.035720797204915</v>
       </c>
       <c r="M17">
-        <v>1.04027668366355</v>
+        <v>1.046531153692165</v>
       </c>
       <c r="N17">
-        <v>1.026174489792338</v>
+        <v>1.03571299158778</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9990258196424182</v>
+        <v>1.008025727711721</v>
       </c>
       <c r="D18">
-        <v>1.02391092259653</v>
+        <v>1.029644879030375</v>
       </c>
       <c r="E18">
-        <v>1.017322732587205</v>
+        <v>1.022983430439671</v>
       </c>
       <c r="F18">
-        <v>1.028266321508829</v>
+        <v>1.033958651544179</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05120075955866</v>
+        <v>1.049189009363581</v>
       </c>
       <c r="J18">
-        <v>1.026125680923777</v>
+        <v>1.034788924301059</v>
       </c>
       <c r="K18">
-        <v>1.03732930313696</v>
+        <v>1.042970797742885</v>
       </c>
       <c r="L18">
-        <v>1.030849005471709</v>
+        <v>1.036416892194326</v>
       </c>
       <c r="M18">
-        <v>1.041614349107014</v>
+        <v>1.047215875086747</v>
       </c>
       <c r="N18">
-        <v>1.027582897088949</v>
+        <v>1.036258443265515</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9996612283947358</v>
+        <v>1.008355760287949</v>
       </c>
       <c r="D19">
-        <v>1.024407699672885</v>
+        <v>1.029897805867681</v>
       </c>
       <c r="E19">
-        <v>1.017812586707189</v>
+        <v>1.023287460073891</v>
       </c>
       <c r="F19">
-        <v>1.02879019199197</v>
+        <v>1.034257613261337</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051430102181699</v>
+        <v>1.049290794722359</v>
       </c>
       <c r="J19">
-        <v>1.026602338101137</v>
+        <v>1.034973966941455</v>
       </c>
       <c r="K19">
-        <v>1.037755658708301</v>
+        <v>1.043157789391819</v>
       </c>
       <c r="L19">
-        <v>1.031267841717541</v>
+        <v>1.036653519115956</v>
       </c>
       <c r="M19">
-        <v>1.042067827421417</v>
+        <v>1.047448585160077</v>
       </c>
       <c r="N19">
-        <v>1.028060231174174</v>
+        <v>1.036443748687686</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9968045236199229</v>
+        <v>1.006875293508782</v>
       </c>
       <c r="D20">
-        <v>1.022174759313095</v>
+        <v>1.028763566298376</v>
       </c>
       <c r="E20">
-        <v>1.01561165854351</v>
+        <v>1.021924423204737</v>
       </c>
       <c r="F20">
-        <v>1.026435962785618</v>
+        <v>1.032917115453885</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050398035082878</v>
+        <v>1.048833641201419</v>
       </c>
       <c r="J20">
-        <v>1.024459183697632</v>
+        <v>1.034143732799236</v>
       </c>
       <c r="K20">
-        <v>1.035838585737871</v>
+        <v>1.042318820689457</v>
       </c>
       <c r="L20">
-        <v>1.02938544021692</v>
+        <v>1.035592410283381</v>
       </c>
       <c r="M20">
-        <v>1.04002936722678</v>
+        <v>1.046404840442569</v>
       </c>
       <c r="N20">
-        <v>1.025914033245594</v>
+        <v>1.035612335517755</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9872401228942466</v>
+        <v>1.001981307290929</v>
       </c>
       <c r="D21">
-        <v>1.014708497190207</v>
+        <v>1.025020456147862</v>
       </c>
       <c r="E21">
-        <v>1.008268813808755</v>
+        <v>1.017432758818996</v>
       </c>
       <c r="F21">
-        <v>1.018573082003414</v>
+        <v>1.028496516136238</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046925646081332</v>
+        <v>1.047312602758527</v>
       </c>
       <c r="J21">
-        <v>1.017281189095194</v>
+        <v>1.031396423793118</v>
       </c>
       <c r="K21">
-        <v>1.02941646965292</v>
+        <v>1.039542822360493</v>
       </c>
       <c r="L21">
-        <v>1.023095206268706</v>
+        <v>1.032091221370509</v>
       </c>
       <c r="M21">
-        <v>1.033210922889085</v>
+        <v>1.042957403630379</v>
       </c>
       <c r="N21">
-        <v>1.018725845067493</v>
+        <v>1.032861125017728</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.980996582517068</v>
+        <v>0.9988396030448178</v>
       </c>
       <c r="D22">
-        <v>1.009843261630008</v>
+        <v>1.022622747205644</v>
       </c>
       <c r="E22">
-        <v>1.003497183206743</v>
+        <v>1.014560465448669</v>
       </c>
       <c r="F22">
-        <v>1.01345649193108</v>
+        <v>1.025667205740172</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044646419047983</v>
+        <v>1.046328801505375</v>
       </c>
       <c r="J22">
-        <v>1.01259412287299</v>
+        <v>1.029630811598</v>
       </c>
       <c r="K22">
-        <v>1.025222211482524</v>
+        <v>1.037758981240084</v>
       </c>
       <c r="L22">
-        <v>1.018999677112288</v>
+        <v>1.02984889184791</v>
       </c>
       <c r="M22">
-        <v>1.028766004808873</v>
+        <v>1.040746780790124</v>
       </c>
       <c r="N22">
-        <v>1.014032122673639</v>
+        <v>1.031093005450774</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9843294260392588</v>
+        <v>1.000511388525247</v>
       </c>
       <c r="D23">
-        <v>1.01243946884349</v>
+        <v>1.02389812449027</v>
       </c>
       <c r="E23">
-        <v>1.006042169062424</v>
+        <v>1.016087823950715</v>
       </c>
       <c r="F23">
-        <v>1.016186150031908</v>
+        <v>1.027171939401275</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045864212455113</v>
+        <v>1.046852989645141</v>
       </c>
       <c r="J23">
-        <v>1.015096191272453</v>
+        <v>1.030570515007833</v>
       </c>
       <c r="K23">
-        <v>1.027461260792871</v>
+        <v>1.038708363980148</v>
       </c>
       <c r="L23">
-        <v>1.021184811730324</v>
+        <v>1.031041583844707</v>
       </c>
       <c r="M23">
-        <v>1.03113808522397</v>
+        <v>1.041922863863624</v>
       </c>
       <c r="N23">
-        <v>1.01653774429722</v>
+        <v>1.032034043347234</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9969612309244127</v>
+        <v>1.006956284720726</v>
       </c>
       <c r="D24">
-        <v>1.022297216018592</v>
+        <v>1.028825593653484</v>
       </c>
       <c r="E24">
-        <v>1.015732300254814</v>
+        <v>1.021998938135057</v>
       </c>
       <c r="F24">
-        <v>1.026565038460724</v>
+        <v>1.032990410225118</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050454714373205</v>
+        <v>1.048858687615462</v>
       </c>
       <c r="J24">
-        <v>1.024576759656859</v>
+        <v>1.034189162930355</v>
       </c>
       <c r="K24">
-        <v>1.035943764132371</v>
+        <v>1.042364728082115</v>
       </c>
       <c r="L24">
-        <v>1.029488659219153</v>
+        <v>1.035650436128407</v>
       </c>
       <c r="M24">
-        <v>1.040141167757694</v>
+        <v>1.046461929992039</v>
       </c>
       <c r="N24">
-        <v>1.026031776176169</v>
+        <v>1.035657830164871</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010728415636455</v>
+        <v>1.014170805717946</v>
       </c>
       <c r="D25">
-        <v>1.033069823942611</v>
+        <v>1.034361462697577</v>
       </c>
       <c r="E25">
-        <v>1.02637280173823</v>
+        <v>1.028661209269781</v>
       </c>
       <c r="F25">
-        <v>1.037935182913144</v>
+        <v>1.039537796257598</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055402907744791</v>
+        <v>1.051071685786971</v>
       </c>
       <c r="J25">
-        <v>1.034900042572612</v>
+        <v>1.038230499247607</v>
       </c>
       <c r="K25">
-        <v>1.045175581774883</v>
+        <v>1.046448791011524</v>
       </c>
       <c r="L25">
-        <v>1.038575057824388</v>
+        <v>1.040830312320304</v>
       </c>
       <c r="M25">
-        <v>1.0499718223576</v>
+        <v>1.051551847587736</v>
       </c>
       <c r="N25">
-        <v>1.036369719337759</v>
+        <v>1.039704905643241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019729134679243</v>
+        <v>1.043451830166994</v>
       </c>
       <c r="D2">
-        <v>1.038640644296488</v>
+        <v>1.052481821455733</v>
       </c>
       <c r="E2">
-        <v>1.033828791623348</v>
+        <v>1.058000762522915</v>
       </c>
       <c r="F2">
-        <v>1.04460780501468</v>
+        <v>1.065114435861702</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052749563319891</v>
+        <v>1.044657451029663</v>
       </c>
       <c r="J2">
-        <v>1.041335348328588</v>
+        <v>1.04852220459069</v>
       </c>
       <c r="K2">
-        <v>1.049586674401145</v>
+        <v>1.055230433028185</v>
       </c>
       <c r="L2">
-        <v>1.04483612740876</v>
+        <v>1.060734192414079</v>
       </c>
       <c r="M2">
-        <v>1.055478788055643</v>
+        <v>1.067828548415715</v>
       </c>
       <c r="N2">
-        <v>1.042814163966049</v>
+        <v>1.050011226388387</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023659216102224</v>
+        <v>1.044288254662686</v>
       </c>
       <c r="D3">
-        <v>1.041673620839776</v>
+        <v>1.053155087987962</v>
       </c>
       <c r="E3">
-        <v>1.037502007582775</v>
+        <v>1.058863916503</v>
       </c>
       <c r="F3">
-        <v>1.048206725474405</v>
+        <v>1.065943137249212</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053919619720388</v>
+        <v>1.044863234344691</v>
       </c>
       <c r="J3">
-        <v>1.043525047324176</v>
+        <v>1.049006042784637</v>
       </c>
       <c r="K3">
-        <v>1.051799663819028</v>
+        <v>1.055716912274248</v>
       </c>
       <c r="L3">
-        <v>1.047676516747844</v>
+        <v>1.061411168544632</v>
       </c>
       <c r="M3">
-        <v>1.058257822493639</v>
+        <v>1.068472552543844</v>
       </c>
       <c r="N3">
-        <v>1.045006972585372</v>
+        <v>1.050495751688066</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026155727573</v>
+        <v>1.0448300831774</v>
       </c>
       <c r="D4">
-        <v>1.043603390623237</v>
+        <v>1.053591305905539</v>
       </c>
       <c r="E4">
-        <v>1.039844134034916</v>
+        <v>1.059423807069321</v>
       </c>
       <c r="F4">
-        <v>1.05049917963506</v>
+        <v>1.06648042691526</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054655126195597</v>
+        <v>1.044995559675705</v>
       </c>
       <c r="J4">
-        <v>1.044913232780064</v>
+        <v>1.049319044860052</v>
       </c>
       <c r="K4">
-        <v>1.053202571298256</v>
+        <v>1.056031583129814</v>
       </c>
       <c r="L4">
-        <v>1.049484330393479</v>
+        <v>1.061849943736719</v>
       </c>
       <c r="M4">
-        <v>1.060024058060403</v>
+        <v>1.068889677274683</v>
       </c>
       <c r="N4">
-        <v>1.046397129423835</v>
+        <v>1.050809198262331</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027194466152652</v>
+        <v>1.045058011313557</v>
       </c>
       <c r="D5">
-        <v>1.044407034070393</v>
+        <v>1.05377482647006</v>
       </c>
       <c r="E5">
-        <v>1.040820716193984</v>
+        <v>1.059659511647906</v>
       </c>
       <c r="F5">
-        <v>1.051454496435905</v>
+        <v>1.066706556390013</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054959263442099</v>
+        <v>1.045050989760851</v>
       </c>
       <c r="J5">
-        <v>1.045490130402937</v>
+        <v>1.049450612067086</v>
       </c>
       <c r="K5">
-        <v>1.053785570946696</v>
+        <v>1.056163842202385</v>
       </c>
       <c r="L5">
-        <v>1.050237330756242</v>
+        <v>1.062034577113855</v>
       </c>
       <c r="M5">
-        <v>1.060759131204462</v>
+        <v>1.069065133306923</v>
       </c>
       <c r="N5">
-        <v>1.046974846307503</v>
+        <v>1.050940952309889</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027368251553296</v>
+        <v>1.045096289813848</v>
       </c>
       <c r="D6">
-        <v>1.044541527848912</v>
+        <v>1.053805648218919</v>
       </c>
       <c r="E6">
-        <v>1.040984223995837</v>
+        <v>1.059699106578818</v>
       </c>
       <c r="F6">
-        <v>1.051614411205753</v>
+        <v>1.06674453929777</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05501003499112</v>
+        <v>1.045060284997199</v>
       </c>
       <c r="J6">
-        <v>1.045586606356445</v>
+        <v>1.049472701637528</v>
       </c>
       <c r="K6">
-        <v>1.05388306624568</v>
+        <v>1.056186047369677</v>
       </c>
       <c r="L6">
-        <v>1.050363357849351</v>
+        <v>1.062065587926542</v>
       </c>
       <c r="M6">
-        <v>1.060882122023751</v>
+        <v>1.069094598776469</v>
       </c>
       <c r="N6">
-        <v>1.047071459267932</v>
+        <v>1.050963073250054</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026169649223647</v>
+        <v>1.044833128202775</v>
       </c>
       <c r="D7">
-        <v>1.043614158657016</v>
+        <v>1.053593757589839</v>
       </c>
       <c r="E7">
-        <v>1.039857214461937</v>
+        <v>1.059426955284603</v>
       </c>
       <c r="F7">
-        <v>1.050511977419502</v>
+        <v>1.066483447477075</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054659209881556</v>
+        <v>1.044996301119953</v>
       </c>
       <c r="J7">
-        <v>1.044920967396936</v>
+        <v>1.049320802943204</v>
       </c>
       <c r="K7">
-        <v>1.053210387797653</v>
+        <v>1.056033350495877</v>
       </c>
       <c r="L7">
-        <v>1.04949441927971</v>
+        <v>1.06185241014199</v>
       </c>
       <c r="M7">
-        <v>1.060033909159706</v>
+        <v>1.068892021348438</v>
       </c>
       <c r="N7">
-        <v>1.04640487502475</v>
+        <v>1.050810958842162</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021067164956594</v>
+        <v>1.043734377295138</v>
       </c>
       <c r="D8">
-        <v>1.039672569054914</v>
+        <v>1.052709236056439</v>
       </c>
       <c r="E8">
-        <v>1.035077512936578</v>
+        <v>1.058292184163883</v>
       </c>
       <c r="F8">
-        <v>1.045831748445902</v>
+        <v>1.06539427781052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05314952363981</v>
+        <v>1.044727167933846</v>
       </c>
       <c r="J8">
-        <v>1.04208141647676</v>
+        <v>1.048685734460183</v>
       </c>
       <c r="K8">
-        <v>1.050340683501944</v>
+        <v>1.055394863722799</v>
       </c>
       <c r="L8">
-        <v>1.045802409514471</v>
+        <v>1.060962828301025</v>
       </c>
       <c r="M8">
-        <v>1.056424724764662</v>
+        <v>1.068046106565357</v>
       </c>
       <c r="N8">
-        <v>1.043561291616566</v>
+        <v>1.050174988489051</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.011703635230379</v>
+        <v>1.04180295090964</v>
       </c>
       <c r="D9">
-        <v>1.032465995598839</v>
+        <v>1.051155035944626</v>
       </c>
       <c r="E9">
-        <v>1.02637732368888</v>
+        <v>1.056303167427457</v>
       </c>
       <c r="F9">
-        <v>1.03729461817047</v>
+        <v>1.06348325971281</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050319083004649</v>
+        <v>1.04424659437763</v>
       </c>
       <c r="J9">
-        <v>1.036849770984746</v>
+        <v>1.047566154270686</v>
       </c>
       <c r="K9">
-        <v>1.045053414157812</v>
+        <v>1.054268955874646</v>
       </c>
       <c r="L9">
-        <v>1.039056467223464</v>
+        <v>1.059400905697176</v>
       </c>
       <c r="M9">
-        <v>1.049810266997071</v>
+        <v>1.066558715109496</v>
       </c>
       <c r="N9">
-        <v>1.038322216587875</v>
+        <v>1.049053818367267</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005187318892459</v>
+        <v>1.04051859951879</v>
       </c>
       <c r="D10">
-        <v>1.027471432847341</v>
+        <v>1.050121993663312</v>
       </c>
       <c r="E10">
-        <v>1.020372783288221</v>
+        <v>1.054984395029488</v>
       </c>
       <c r="F10">
-        <v>1.031390572553036</v>
+        <v>1.062214901955727</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048310683973507</v>
+        <v>1.043922001746932</v>
       </c>
       <c r="J10">
-        <v>1.033196628123415</v>
+        <v>1.046819500131128</v>
       </c>
       <c r="K10">
-        <v>1.041361785972159</v>
+        <v>1.053517883357141</v>
       </c>
       <c r="L10">
-        <v>1.034383692056221</v>
+        <v>1.058363508194452</v>
       </c>
       <c r="M10">
-        <v>1.045215283268967</v>
+        <v>1.065569380199614</v>
       </c>
       <c r="N10">
-        <v>1.03466388584466</v>
+        <v>1.048306103893189</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002295057401863</v>
+        <v>1.039963256364886</v>
       </c>
       <c r="D11">
-        <v>1.02526013008516</v>
+        <v>1.049675430542335</v>
       </c>
       <c r="E11">
-        <v>1.017720076420606</v>
+        <v>1.054415093354291</v>
       </c>
       <c r="F11">
-        <v>1.02877943087498</v>
+        <v>1.061667054600531</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047410546477634</v>
+        <v>1.043780460067248</v>
       </c>
       <c r="J11">
-        <v>1.031572670005984</v>
+        <v>1.046496142934786</v>
       </c>
       <c r="K11">
-        <v>1.039720897894257</v>
+        <v>1.053192566515327</v>
       </c>
       <c r="L11">
-        <v>1.032315380252112</v>
+        <v>1.057915245225018</v>
       </c>
       <c r="M11">
-        <v>1.043178278896884</v>
+        <v>1.065141543333094</v>
       </c>
       <c r="N11">
-        <v>1.033037621520432</v>
+        <v>1.047982287492539</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.001209614570569</v>
+        <v>1.039757097442194</v>
       </c>
       <c r="D12">
-        <v>1.024431132029034</v>
+        <v>1.049509671762139</v>
       </c>
       <c r="E12">
-        <v>1.016726446214857</v>
+        <v>1.054203892083897</v>
       </c>
       <c r="F12">
-        <v>1.027800946350136</v>
+        <v>1.061463765995577</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047071462619805</v>
+        <v>1.04372773703173</v>
       </c>
       <c r="J12">
-        <v>1.030962869414702</v>
+        <v>1.046376027268415</v>
       </c>
       <c r="K12">
-        <v>1.03910477517054</v>
+        <v>1.053071716050387</v>
       </c>
       <c r="L12">
-        <v>1.031540059830935</v>
+        <v>1.057748882818337</v>
       </c>
       <c r="M12">
-        <v>1.042414226686079</v>
+        <v>1.064982710184632</v>
       </c>
       <c r="N12">
-        <v>1.032426954942365</v>
+        <v>1.047862001248144</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.001442957894229</v>
+        <v>1.03980131376291</v>
       </c>
       <c r="D13">
-        <v>1.024609305106043</v>
+        <v>1.049545222366042</v>
       </c>
       <c r="E13">
-        <v>1.016939965030459</v>
+        <v>1.05424918355284</v>
       </c>
       <c r="F13">
-        <v>1.028011229658096</v>
+        <v>1.061507362724271</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047144413967549</v>
+        <v>1.043739052994461</v>
       </c>
       <c r="J13">
-        <v>1.031093976304668</v>
+        <v>1.046401792756245</v>
       </c>
       <c r="K13">
-        <v>1.0392372395921</v>
+        <v>1.053097639465902</v>
       </c>
       <c r="L13">
-        <v>1.03170669307424</v>
+        <v>1.057784561648099</v>
       </c>
       <c r="M13">
-        <v>1.042578459248929</v>
+        <v>1.065016776583571</v>
       </c>
       <c r="N13">
-        <v>1.032558248019153</v>
+        <v>1.047887803325923</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.002205564445263</v>
+        <v>1.039946212741425</v>
       </c>
       <c r="D14">
-        <v>1.025191762221552</v>
+        <v>1.049661726520609</v>
       </c>
       <c r="E14">
-        <v>1.017638114154454</v>
+        <v>1.054397630020512</v>
       </c>
       <c r="F14">
-        <v>1.028698726546585</v>
+        <v>1.061650246481195</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047382615158065</v>
+        <v>1.043776104982786</v>
       </c>
       <c r="J14">
-        <v>1.03152239970474</v>
+        <v>1.046486214259726</v>
       </c>
       <c r="K14">
-        <v>1.039670105650385</v>
+        <v>1.053182577241858</v>
       </c>
       <c r="L14">
-        <v>1.032251437792223</v>
+        <v>1.057901490741757</v>
       </c>
       <c r="M14">
-        <v>1.043115275252992</v>
+        <v>1.065128412402022</v>
       </c>
       <c r="N14">
-        <v>1.032987279829594</v>
+        <v>1.047972344717621</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002673941056201</v>
+        <v>1.040035505768002</v>
       </c>
       <c r="D15">
-        <v>1.025549613550641</v>
+        <v>1.049733523821396</v>
       </c>
       <c r="E15">
-        <v>1.018067155781335</v>
+        <v>1.054489127660898</v>
       </c>
       <c r="F15">
-        <v>1.029121166069542</v>
+        <v>1.061738309275078</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047528746937389</v>
+        <v>1.043798914325526</v>
       </c>
       <c r="J15">
-        <v>1.031785484145881</v>
+        <v>1.04653822832311</v>
       </c>
       <c r="K15">
-        <v>1.039935923106753</v>
+        <v>1.053234908485987</v>
       </c>
       <c r="L15">
-        <v>1.03258612853608</v>
+        <v>1.057973553536666</v>
       </c>
       <c r="M15">
-        <v>1.043445032932769</v>
+        <v>1.0651972061618</v>
       </c>
       <c r="N15">
-        <v>1.033250737880818</v>
+        <v>1.048024432646941</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005377737056233</v>
+        <v>1.040555472588297</v>
       </c>
       <c r="D16">
-        <v>1.027617138658182</v>
+        <v>1.050151646564785</v>
       </c>
       <c r="E16">
-        <v>1.0205476924742</v>
+        <v>1.055022214440566</v>
       </c>
       <c r="F16">
-        <v>1.031562682073976</v>
+        <v>1.062251289601644</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048369767997744</v>
+        <v>1.04393137458593</v>
       </c>
       <c r="J16">
-        <v>1.033303495393625</v>
+        <v>1.046840959315753</v>
       </c>
       <c r="K16">
-        <v>1.041469771758804</v>
+        <v>1.053539471625062</v>
       </c>
       <c r="L16">
-        <v>1.034519986316803</v>
+        <v>1.058393277813321</v>
       </c>
       <c r="M16">
-        <v>1.04534944937761</v>
+        <v>1.065597786085719</v>
       </c>
       <c r="N16">
-        <v>1.034770904878651</v>
+        <v>1.048327593552318</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.007054488037523</v>
+        <v>1.040881846559684</v>
       </c>
       <c r="D17">
-        <v>1.028900806518951</v>
+        <v>1.050414126262668</v>
       </c>
       <c r="E17">
-        <v>1.02208929689944</v>
+        <v>1.055357071730217</v>
       </c>
       <c r="F17">
-        <v>1.033079287540972</v>
+        <v>1.062573434097287</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048889051143632</v>
+        <v>1.044014198617157</v>
       </c>
       <c r="J17">
-        <v>1.034244246128804</v>
+        <v>1.047030841697243</v>
       </c>
       <c r="K17">
-        <v>1.04242039006221</v>
+        <v>1.053730490882475</v>
       </c>
       <c r="L17">
-        <v>1.035720797204915</v>
+        <v>1.058656811785111</v>
       </c>
       <c r="M17">
-        <v>1.046531153692165</v>
+        <v>1.065849208138937</v>
       </c>
       <c r="N17">
-        <v>1.03571299158778</v>
+        <v>1.048517745588569</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008025727711721</v>
+        <v>1.041072291037848</v>
       </c>
       <c r="D18">
-        <v>1.029644879030375</v>
+        <v>1.050567298568877</v>
       </c>
       <c r="E18">
-        <v>1.022983430439671</v>
+        <v>1.055552555637064</v>
       </c>
       <c r="F18">
-        <v>1.033958651544179</v>
+        <v>1.062761466611265</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049189009363581</v>
+        <v>1.044062412814495</v>
       </c>
       <c r="J18">
-        <v>1.034788924301059</v>
+        <v>1.047141591869913</v>
       </c>
       <c r="K18">
-        <v>1.042970797742885</v>
+        <v>1.053841899687632</v>
       </c>
       <c r="L18">
-        <v>1.036416892194326</v>
+        <v>1.058810616988205</v>
       </c>
       <c r="M18">
-        <v>1.047215875086747</v>
+        <v>1.065995911488436</v>
       </c>
       <c r="N18">
-        <v>1.036258443265515</v>
+        <v>1.048628653039188</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008355760287949</v>
+        <v>1.041137240534994</v>
       </c>
       <c r="D19">
-        <v>1.029897805867681</v>
+        <v>1.050619538581683</v>
       </c>
       <c r="E19">
-        <v>1.023287460073891</v>
+        <v>1.05561923891673</v>
       </c>
       <c r="F19">
-        <v>1.034257613261337</v>
+        <v>1.062825603012455</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049290794722359</v>
+        <v>1.044078836362487</v>
       </c>
       <c r="J19">
-        <v>1.034973966941455</v>
+        <v>1.047179353929007</v>
       </c>
       <c r="K19">
-        <v>1.043157789391819</v>
+        <v>1.053879885559677</v>
       </c>
       <c r="L19">
-        <v>1.036653519115956</v>
+        <v>1.058863075853474</v>
       </c>
       <c r="M19">
-        <v>1.047448585160077</v>
+        <v>1.066045942499894</v>
       </c>
       <c r="N19">
-        <v>1.036443748687686</v>
+        <v>1.048666468724737</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006875293508782</v>
+        <v>1.040846821841984</v>
       </c>
       <c r="D20">
-        <v>1.028763566298376</v>
+        <v>1.05038595717968</v>
       </c>
       <c r="E20">
-        <v>1.021924423204737</v>
+        <v>1.055321127391597</v>
       </c>
       <c r="F20">
-        <v>1.032917115453885</v>
+        <v>1.062538857469141</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048833641201419</v>
+        <v>1.044005322271678</v>
       </c>
       <c r="J20">
-        <v>1.034143732799236</v>
+        <v>1.047010469623639</v>
       </c>
       <c r="K20">
-        <v>1.042318820689457</v>
+        <v>1.053709997296476</v>
       </c>
       <c r="L20">
-        <v>1.035592410283381</v>
+        <v>1.058628527732388</v>
       </c>
       <c r="M20">
-        <v>1.046404840442569</v>
+        <v>1.065822227425899</v>
       </c>
       <c r="N20">
-        <v>1.035612335517755</v>
+        <v>1.048497344584284</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001981307290929</v>
+        <v>1.039903540271035</v>
       </c>
       <c r="D21">
-        <v>1.025020456147862</v>
+        <v>1.049627415771503</v>
       </c>
       <c r="E21">
-        <v>1.017432758818996</v>
+        <v>1.054353908967419</v>
       </c>
       <c r="F21">
-        <v>1.028496516136238</v>
+        <v>1.061608165065371</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047312602758527</v>
+        <v>1.043765198179672</v>
       </c>
       <c r="J21">
-        <v>1.031396423793118</v>
+        <v>1.046461354397819</v>
       </c>
       <c r="K21">
-        <v>1.039542822360493</v>
+        <v>1.053157565540372</v>
       </c>
       <c r="L21">
-        <v>1.032091221370509</v>
+        <v>1.057867054093368</v>
       </c>
       <c r="M21">
-        <v>1.042957403630379</v>
+        <v>1.065095536089867</v>
       </c>
       <c r="N21">
-        <v>1.032861125017728</v>
+        <v>1.047947449551859</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9988396030448178</v>
+        <v>1.039311158261241</v>
       </c>
       <c r="D22">
-        <v>1.022622747205644</v>
+        <v>1.049151154887311</v>
       </c>
       <c r="E22">
-        <v>1.014560465448669</v>
+        <v>1.053747301354502</v>
       </c>
       <c r="F22">
-        <v>1.025667205740172</v>
+        <v>1.06102419635679</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046328801505375</v>
+        <v>1.043613365821046</v>
       </c>
       <c r="J22">
-        <v>1.029630811598</v>
+        <v>1.046116067421395</v>
       </c>
       <c r="K22">
-        <v>1.037758981240084</v>
+        <v>1.052810153454197</v>
       </c>
       <c r="L22">
-        <v>1.02984889184791</v>
+        <v>1.05738911020196</v>
       </c>
       <c r="M22">
-        <v>1.040746780790124</v>
+        <v>1.064639126179341</v>
       </c>
       <c r="N22">
-        <v>1.031093005450774</v>
+        <v>1.047601672228324</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000511388525247</v>
+        <v>1.039625124598488</v>
       </c>
       <c r="D23">
-        <v>1.02389812449027</v>
+        <v>1.049403566227971</v>
       </c>
       <c r="E23">
-        <v>1.016087823950715</v>
+        <v>1.054068730691611</v>
       </c>
       <c r="F23">
-        <v>1.027171939401275</v>
+        <v>1.061333655327127</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046852989645141</v>
+        <v>1.04369393600116</v>
       </c>
       <c r="J23">
-        <v>1.030570515007833</v>
+        <v>1.04629911361368</v>
       </c>
       <c r="K23">
-        <v>1.038708363980148</v>
+        <v>1.052994329960152</v>
       </c>
       <c r="L23">
-        <v>1.031041583844707</v>
+        <v>1.057642398569625</v>
       </c>
       <c r="M23">
-        <v>1.041922863863624</v>
+        <v>1.064881030739028</v>
       </c>
       <c r="N23">
-        <v>1.032034043347234</v>
+        <v>1.047784978367197</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006956284720726</v>
+        <v>1.040862647769469</v>
       </c>
       <c r="D24">
-        <v>1.028825593653484</v>
+        <v>1.050398685352477</v>
       </c>
       <c r="E24">
-        <v>1.021998938135057</v>
+        <v>1.055337368574296</v>
       </c>
       <c r="F24">
-        <v>1.032990410225118</v>
+        <v>1.062554480754307</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048858687615462</v>
+        <v>1.04400933340578</v>
       </c>
       <c r="J24">
-        <v>1.034189162930355</v>
+        <v>1.047019674902425</v>
       </c>
       <c r="K24">
-        <v>1.042364728082115</v>
+        <v>1.053719257495362</v>
       </c>
       <c r="L24">
-        <v>1.035650436128407</v>
+        <v>1.058641307799552</v>
       </c>
       <c r="M24">
-        <v>1.046461929992039</v>
+        <v>1.065834418684826</v>
       </c>
       <c r="N24">
-        <v>1.035657830164871</v>
+        <v>1.048506562935621</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014170805717946</v>
+        <v>1.042301702379796</v>
       </c>
       <c r="D25">
-        <v>1.034361462697577</v>
+        <v>1.051556296854897</v>
       </c>
       <c r="E25">
-        <v>1.028661209269781</v>
+        <v>1.056816108494728</v>
       </c>
       <c r="F25">
-        <v>1.039537796257598</v>
+        <v>1.063976315548619</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051071685786971</v>
+        <v>1.044371579428462</v>
       </c>
       <c r="J25">
-        <v>1.038230499247607</v>
+        <v>1.047855645163283</v>
       </c>
       <c r="K25">
-        <v>1.046448791011524</v>
+        <v>1.054560118194346</v>
       </c>
       <c r="L25">
-        <v>1.040830312320304</v>
+        <v>1.059804022544505</v>
       </c>
       <c r="M25">
-        <v>1.051551847587736</v>
+        <v>1.066942850214103</v>
       </c>
       <c r="N25">
-        <v>1.039704905643241</v>
+        <v>1.049343720370138</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043451830166994</v>
+        <v>1.019729134679243</v>
       </c>
       <c r="D2">
-        <v>1.052481821455733</v>
+        <v>1.038640644296488</v>
       </c>
       <c r="E2">
-        <v>1.058000762522915</v>
+        <v>1.033828791623349</v>
       </c>
       <c r="F2">
-        <v>1.065114435861702</v>
+        <v>1.044607805014681</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044657451029663</v>
+        <v>1.052749563319892</v>
       </c>
       <c r="J2">
-        <v>1.04852220459069</v>
+        <v>1.041335348328589</v>
       </c>
       <c r="K2">
-        <v>1.055230433028185</v>
+        <v>1.049586674401146</v>
       </c>
       <c r="L2">
-        <v>1.060734192414079</v>
+        <v>1.044836127408761</v>
       </c>
       <c r="M2">
-        <v>1.067828548415715</v>
+        <v>1.055478788055643</v>
       </c>
       <c r="N2">
-        <v>1.050011226388387</v>
+        <v>1.042814163966049</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044288254662686</v>
+        <v>1.023659216102224</v>
       </c>
       <c r="D3">
-        <v>1.053155087987962</v>
+        <v>1.041673620839775</v>
       </c>
       <c r="E3">
-        <v>1.058863916503</v>
+        <v>1.037502007582775</v>
       </c>
       <c r="F3">
-        <v>1.065943137249212</v>
+        <v>1.048206725474405</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044863234344691</v>
+        <v>1.053919619720388</v>
       </c>
       <c r="J3">
-        <v>1.049006042784637</v>
+        <v>1.043525047324176</v>
       </c>
       <c r="K3">
-        <v>1.055716912274248</v>
+        <v>1.051799663819028</v>
       </c>
       <c r="L3">
-        <v>1.061411168544632</v>
+        <v>1.047676516747844</v>
       </c>
       <c r="M3">
-        <v>1.068472552543844</v>
+        <v>1.058257822493639</v>
       </c>
       <c r="N3">
-        <v>1.050495751688066</v>
+        <v>1.045006972585372</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0448300831774</v>
+        <v>1.026155727573</v>
       </c>
       <c r="D4">
-        <v>1.053591305905539</v>
+        <v>1.043603390623237</v>
       </c>
       <c r="E4">
-        <v>1.059423807069321</v>
+        <v>1.039844134034916</v>
       </c>
       <c r="F4">
-        <v>1.06648042691526</v>
+        <v>1.05049917963506</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044995559675705</v>
+        <v>1.054655126195598</v>
       </c>
       <c r="J4">
-        <v>1.049319044860052</v>
+        <v>1.044913232780064</v>
       </c>
       <c r="K4">
-        <v>1.056031583129814</v>
+        <v>1.053202571298256</v>
       </c>
       <c r="L4">
-        <v>1.061849943736719</v>
+        <v>1.04948433039348</v>
       </c>
       <c r="M4">
-        <v>1.068889677274683</v>
+        <v>1.060024058060403</v>
       </c>
       <c r="N4">
-        <v>1.050809198262331</v>
+        <v>1.046397129423834</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045058011313557</v>
+        <v>1.027194466152652</v>
       </c>
       <c r="D5">
-        <v>1.05377482647006</v>
+        <v>1.044407034070393</v>
       </c>
       <c r="E5">
-        <v>1.059659511647906</v>
+        <v>1.040820716193984</v>
       </c>
       <c r="F5">
-        <v>1.066706556390013</v>
+        <v>1.051454496435905</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045050989760851</v>
+        <v>1.054959263442099</v>
       </c>
       <c r="J5">
-        <v>1.049450612067086</v>
+        <v>1.045490130402937</v>
       </c>
       <c r="K5">
-        <v>1.056163842202385</v>
+        <v>1.053785570946696</v>
       </c>
       <c r="L5">
-        <v>1.062034577113855</v>
+        <v>1.050237330756242</v>
       </c>
       <c r="M5">
-        <v>1.069065133306923</v>
+        <v>1.060759131204462</v>
       </c>
       <c r="N5">
-        <v>1.050940952309889</v>
+        <v>1.046974846307503</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045096289813848</v>
+        <v>1.027368251553296</v>
       </c>
       <c r="D6">
-        <v>1.053805648218919</v>
+        <v>1.044541527848912</v>
       </c>
       <c r="E6">
-        <v>1.059699106578818</v>
+        <v>1.040984223995836</v>
       </c>
       <c r="F6">
-        <v>1.06674453929777</v>
+        <v>1.051614411205753</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045060284997199</v>
+        <v>1.055010034991119</v>
       </c>
       <c r="J6">
-        <v>1.049472701637528</v>
+        <v>1.045586606356445</v>
       </c>
       <c r="K6">
-        <v>1.056186047369677</v>
+        <v>1.053883066245679</v>
       </c>
       <c r="L6">
-        <v>1.062065587926542</v>
+        <v>1.050363357849351</v>
       </c>
       <c r="M6">
-        <v>1.069094598776469</v>
+        <v>1.060882122023751</v>
       </c>
       <c r="N6">
-        <v>1.050963073250054</v>
+        <v>1.047071459267931</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044833128202775</v>
+        <v>1.026169649223647</v>
       </c>
       <c r="D7">
-        <v>1.053593757589839</v>
+        <v>1.043614158657015</v>
       </c>
       <c r="E7">
-        <v>1.059426955284603</v>
+        <v>1.039857214461937</v>
       </c>
       <c r="F7">
-        <v>1.066483447477075</v>
+        <v>1.050511977419502</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044996301119953</v>
+        <v>1.054659209881555</v>
       </c>
       <c r="J7">
-        <v>1.049320802943204</v>
+        <v>1.044920967396935</v>
       </c>
       <c r="K7">
-        <v>1.056033350495877</v>
+        <v>1.053210387797652</v>
       </c>
       <c r="L7">
-        <v>1.06185241014199</v>
+        <v>1.04949441927971</v>
       </c>
       <c r="M7">
-        <v>1.068892021348438</v>
+        <v>1.060033909159706</v>
       </c>
       <c r="N7">
-        <v>1.050810958842162</v>
+        <v>1.046404875024749</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043734377295138</v>
+        <v>1.021067164956595</v>
       </c>
       <c r="D8">
-        <v>1.052709236056439</v>
+        <v>1.039672569054915</v>
       </c>
       <c r="E8">
-        <v>1.058292184163883</v>
+        <v>1.035077512936579</v>
       </c>
       <c r="F8">
-        <v>1.06539427781052</v>
+        <v>1.045831748445903</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044727167933846</v>
+        <v>1.053149523639811</v>
       </c>
       <c r="J8">
-        <v>1.048685734460183</v>
+        <v>1.042081416476762</v>
       </c>
       <c r="K8">
-        <v>1.055394863722799</v>
+        <v>1.050340683501945</v>
       </c>
       <c r="L8">
-        <v>1.060962828301025</v>
+        <v>1.045802409514472</v>
       </c>
       <c r="M8">
-        <v>1.068046106565357</v>
+        <v>1.056424724764663</v>
       </c>
       <c r="N8">
-        <v>1.050174988489051</v>
+        <v>1.043561291616568</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04180295090964</v>
+        <v>1.011703635230378</v>
       </c>
       <c r="D9">
-        <v>1.051155035944626</v>
+        <v>1.032465995598838</v>
       </c>
       <c r="E9">
-        <v>1.056303167427457</v>
+        <v>1.026377323688879</v>
       </c>
       <c r="F9">
-        <v>1.06348325971281</v>
+        <v>1.037294618170469</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04424659437763</v>
+        <v>1.050319083004648</v>
       </c>
       <c r="J9">
-        <v>1.047566154270686</v>
+        <v>1.036849770984745</v>
       </c>
       <c r="K9">
-        <v>1.054268955874646</v>
+        <v>1.045053414157811</v>
       </c>
       <c r="L9">
-        <v>1.059400905697176</v>
+        <v>1.039056467223463</v>
       </c>
       <c r="M9">
-        <v>1.066558715109496</v>
+        <v>1.04981026699707</v>
       </c>
       <c r="N9">
-        <v>1.049053818367267</v>
+        <v>1.038322216587874</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04051859951879</v>
+        <v>1.005187318892459</v>
       </c>
       <c r="D10">
-        <v>1.050121993663312</v>
+        <v>1.027471432847341</v>
       </c>
       <c r="E10">
-        <v>1.054984395029488</v>
+        <v>1.020372783288221</v>
       </c>
       <c r="F10">
-        <v>1.062214901955727</v>
+        <v>1.031390572553035</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043922001746932</v>
+        <v>1.048310683973507</v>
       </c>
       <c r="J10">
-        <v>1.046819500131128</v>
+        <v>1.033196628123415</v>
       </c>
       <c r="K10">
-        <v>1.053517883357141</v>
+        <v>1.041361785972158</v>
       </c>
       <c r="L10">
-        <v>1.058363508194452</v>
+        <v>1.034383692056221</v>
       </c>
       <c r="M10">
-        <v>1.065569380199614</v>
+        <v>1.045215283268967</v>
       </c>
       <c r="N10">
-        <v>1.048306103893189</v>
+        <v>1.03466388584466</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039963256364886</v>
+        <v>1.002295057401862</v>
       </c>
       <c r="D11">
-        <v>1.049675430542335</v>
+        <v>1.025260130085159</v>
       </c>
       <c r="E11">
-        <v>1.054415093354291</v>
+        <v>1.017720076420605</v>
       </c>
       <c r="F11">
-        <v>1.061667054600531</v>
+        <v>1.02877943087498</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043780460067248</v>
+        <v>1.047410546477634</v>
       </c>
       <c r="J11">
-        <v>1.046496142934786</v>
+        <v>1.031572670005983</v>
       </c>
       <c r="K11">
-        <v>1.053192566515327</v>
+        <v>1.039720897894256</v>
       </c>
       <c r="L11">
-        <v>1.057915245225018</v>
+        <v>1.032315380252111</v>
       </c>
       <c r="M11">
-        <v>1.065141543333094</v>
+        <v>1.043178278896884</v>
       </c>
       <c r="N11">
-        <v>1.047982287492539</v>
+        <v>1.033037621520431</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039757097442194</v>
+        <v>1.00120961457057</v>
       </c>
       <c r="D12">
-        <v>1.049509671762139</v>
+        <v>1.024431132029035</v>
       </c>
       <c r="E12">
-        <v>1.054203892083897</v>
+        <v>1.016726446214857</v>
       </c>
       <c r="F12">
-        <v>1.061463765995577</v>
+        <v>1.027800946350137</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04372773703173</v>
+        <v>1.047071462619806</v>
       </c>
       <c r="J12">
-        <v>1.046376027268415</v>
+        <v>1.030962869414703</v>
       </c>
       <c r="K12">
-        <v>1.053071716050387</v>
+        <v>1.039104775170541</v>
       </c>
       <c r="L12">
-        <v>1.057748882818337</v>
+        <v>1.031540059830936</v>
       </c>
       <c r="M12">
-        <v>1.064982710184632</v>
+        <v>1.04241422668608</v>
       </c>
       <c r="N12">
-        <v>1.047862001248144</v>
+        <v>1.032426954942366</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03980131376291</v>
+        <v>1.001442957894228</v>
       </c>
       <c r="D13">
-        <v>1.049545222366042</v>
+        <v>1.024609305106042</v>
       </c>
       <c r="E13">
-        <v>1.05424918355284</v>
+        <v>1.016939965030458</v>
       </c>
       <c r="F13">
-        <v>1.061507362724271</v>
+        <v>1.028011229658094</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043739052994461</v>
+        <v>1.047144413967548</v>
       </c>
       <c r="J13">
-        <v>1.046401792756245</v>
+        <v>1.031093976304668</v>
       </c>
       <c r="K13">
-        <v>1.053097639465902</v>
+        <v>1.039237239592099</v>
       </c>
       <c r="L13">
-        <v>1.057784561648099</v>
+        <v>1.031706693074239</v>
       </c>
       <c r="M13">
-        <v>1.065016776583571</v>
+        <v>1.042578459248928</v>
       </c>
       <c r="N13">
-        <v>1.047887803325923</v>
+        <v>1.032558248019152</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039946212741425</v>
+        <v>1.002205564445262</v>
       </c>
       <c r="D14">
-        <v>1.049661726520609</v>
+        <v>1.025191762221551</v>
       </c>
       <c r="E14">
-        <v>1.054397630020512</v>
+        <v>1.017638114154453</v>
       </c>
       <c r="F14">
-        <v>1.061650246481195</v>
+        <v>1.028698726546584</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043776104982786</v>
+        <v>1.047382615158064</v>
       </c>
       <c r="J14">
-        <v>1.046486214259726</v>
+        <v>1.031522399704739</v>
       </c>
       <c r="K14">
-        <v>1.053182577241858</v>
+        <v>1.039670105650384</v>
       </c>
       <c r="L14">
-        <v>1.057901490741757</v>
+        <v>1.032251437792222</v>
       </c>
       <c r="M14">
-        <v>1.065128412402022</v>
+        <v>1.043115275252991</v>
       </c>
       <c r="N14">
-        <v>1.047972344717621</v>
+        <v>1.032987279829594</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040035505768002</v>
+        <v>1.0026739410562</v>
       </c>
       <c r="D15">
-        <v>1.049733523821396</v>
+        <v>1.02554961355064</v>
       </c>
       <c r="E15">
-        <v>1.054489127660898</v>
+        <v>1.018067155781335</v>
       </c>
       <c r="F15">
-        <v>1.061738309275078</v>
+        <v>1.029121166069542</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043798914325526</v>
+        <v>1.047528746937389</v>
       </c>
       <c r="J15">
-        <v>1.04653822832311</v>
+        <v>1.03178548414588</v>
       </c>
       <c r="K15">
-        <v>1.053234908485987</v>
+        <v>1.039935923106752</v>
       </c>
       <c r="L15">
-        <v>1.057973553536666</v>
+        <v>1.032586128536079</v>
       </c>
       <c r="M15">
-        <v>1.0651972061618</v>
+        <v>1.043445032932768</v>
       </c>
       <c r="N15">
-        <v>1.048024432646941</v>
+        <v>1.033250737880816</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040555472588297</v>
+        <v>1.005377737056233</v>
       </c>
       <c r="D16">
-        <v>1.050151646564785</v>
+        <v>1.027617138658181</v>
       </c>
       <c r="E16">
-        <v>1.055022214440566</v>
+        <v>1.020547692474199</v>
       </c>
       <c r="F16">
-        <v>1.062251289601644</v>
+        <v>1.031562682073976</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04393137458593</v>
+        <v>1.048369767997743</v>
       </c>
       <c r="J16">
-        <v>1.046840959315753</v>
+        <v>1.033303495393624</v>
       </c>
       <c r="K16">
-        <v>1.053539471625062</v>
+        <v>1.041469771758803</v>
       </c>
       <c r="L16">
-        <v>1.058393277813321</v>
+        <v>1.034519986316803</v>
       </c>
       <c r="M16">
-        <v>1.065597786085719</v>
+        <v>1.04534944937761</v>
       </c>
       <c r="N16">
-        <v>1.048327593552318</v>
+        <v>1.034770904878651</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040881846559684</v>
+        <v>1.007054488037522</v>
       </c>
       <c r="D17">
-        <v>1.050414126262668</v>
+        <v>1.02890080651895</v>
       </c>
       <c r="E17">
-        <v>1.055357071730217</v>
+        <v>1.022089296899439</v>
       </c>
       <c r="F17">
-        <v>1.062573434097287</v>
+        <v>1.033079287540971</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044014198617157</v>
+        <v>1.048889051143631</v>
       </c>
       <c r="J17">
-        <v>1.047030841697243</v>
+        <v>1.034244246128803</v>
       </c>
       <c r="K17">
-        <v>1.053730490882475</v>
+        <v>1.042420390062209</v>
       </c>
       <c r="L17">
-        <v>1.058656811785111</v>
+        <v>1.035720797204914</v>
       </c>
       <c r="M17">
-        <v>1.065849208138937</v>
+        <v>1.046531153692164</v>
       </c>
       <c r="N17">
-        <v>1.048517745588569</v>
+        <v>1.035712991587779</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041072291037848</v>
+        <v>1.008025727711721</v>
       </c>
       <c r="D18">
-        <v>1.050567298568877</v>
+        <v>1.029644879030375</v>
       </c>
       <c r="E18">
-        <v>1.055552555637064</v>
+        <v>1.022983430439671</v>
       </c>
       <c r="F18">
-        <v>1.062761466611265</v>
+        <v>1.033958651544179</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044062412814495</v>
+        <v>1.049189009363582</v>
       </c>
       <c r="J18">
-        <v>1.047141591869913</v>
+        <v>1.034788924301059</v>
       </c>
       <c r="K18">
-        <v>1.053841899687632</v>
+        <v>1.042970797742884</v>
       </c>
       <c r="L18">
-        <v>1.058810616988205</v>
+        <v>1.036416892194326</v>
       </c>
       <c r="M18">
-        <v>1.065995911488436</v>
+        <v>1.047215875086747</v>
       </c>
       <c r="N18">
-        <v>1.048628653039188</v>
+        <v>1.036258443265515</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041137240534994</v>
+        <v>1.008355760287949</v>
       </c>
       <c r="D19">
-        <v>1.050619538581683</v>
+        <v>1.02989780586768</v>
       </c>
       <c r="E19">
-        <v>1.05561923891673</v>
+        <v>1.02328746007389</v>
       </c>
       <c r="F19">
-        <v>1.062825603012455</v>
+        <v>1.034257613261336</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044078836362487</v>
+        <v>1.049290794722358</v>
       </c>
       <c r="J19">
-        <v>1.047179353929007</v>
+        <v>1.034973966941455</v>
       </c>
       <c r="K19">
-        <v>1.053879885559677</v>
+        <v>1.043157789391818</v>
       </c>
       <c r="L19">
-        <v>1.058863075853474</v>
+        <v>1.036653519115956</v>
       </c>
       <c r="M19">
-        <v>1.066045942499894</v>
+        <v>1.047448585160076</v>
       </c>
       <c r="N19">
-        <v>1.048666468724737</v>
+        <v>1.036443748687685</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040846821841984</v>
+        <v>1.006875293508782</v>
       </c>
       <c r="D20">
-        <v>1.05038595717968</v>
+        <v>1.028763566298376</v>
       </c>
       <c r="E20">
-        <v>1.055321127391597</v>
+        <v>1.021924423204738</v>
       </c>
       <c r="F20">
-        <v>1.062538857469141</v>
+        <v>1.032917115453885</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044005322271678</v>
+        <v>1.048833641201419</v>
       </c>
       <c r="J20">
-        <v>1.047010469623639</v>
+        <v>1.034143732799236</v>
       </c>
       <c r="K20">
-        <v>1.053709997296476</v>
+        <v>1.042318820689457</v>
       </c>
       <c r="L20">
-        <v>1.058628527732388</v>
+        <v>1.035592410283382</v>
       </c>
       <c r="M20">
-        <v>1.065822227425899</v>
+        <v>1.04640484044257</v>
       </c>
       <c r="N20">
-        <v>1.048497344584284</v>
+        <v>1.035612335517755</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039903540271035</v>
+        <v>1.001981307290928</v>
       </c>
       <c r="D21">
-        <v>1.049627415771503</v>
+        <v>1.025020456147861</v>
       </c>
       <c r="E21">
-        <v>1.054353908967419</v>
+        <v>1.017432758818996</v>
       </c>
       <c r="F21">
-        <v>1.061608165065371</v>
+        <v>1.028496516136237</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043765198179672</v>
+        <v>1.047312602758527</v>
       </c>
       <c r="J21">
-        <v>1.046461354397819</v>
+        <v>1.031396423793117</v>
       </c>
       <c r="K21">
-        <v>1.053157565540372</v>
+        <v>1.039542822360493</v>
       </c>
       <c r="L21">
-        <v>1.057867054093368</v>
+        <v>1.032091221370509</v>
       </c>
       <c r="M21">
-        <v>1.065095536089867</v>
+        <v>1.042957403630379</v>
       </c>
       <c r="N21">
-        <v>1.047947449551859</v>
+        <v>1.032861125017727</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039311158261241</v>
+        <v>0.9988396030448176</v>
       </c>
       <c r="D22">
-        <v>1.049151154887311</v>
+        <v>1.022622747205643</v>
       </c>
       <c r="E22">
-        <v>1.053747301354502</v>
+        <v>1.014560465448668</v>
       </c>
       <c r="F22">
-        <v>1.06102419635679</v>
+        <v>1.025667205740172</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043613365821046</v>
+        <v>1.046328801505375</v>
       </c>
       <c r="J22">
-        <v>1.046116067421395</v>
+        <v>1.029630811597999</v>
       </c>
       <c r="K22">
-        <v>1.052810153454197</v>
+        <v>1.037758981240084</v>
       </c>
       <c r="L22">
-        <v>1.05738911020196</v>
+        <v>1.029848891847909</v>
       </c>
       <c r="M22">
-        <v>1.064639126179341</v>
+        <v>1.040746780790124</v>
       </c>
       <c r="N22">
-        <v>1.047601672228324</v>
+        <v>1.031093005450774</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039625124598488</v>
+        <v>1.000511388525247</v>
       </c>
       <c r="D23">
-        <v>1.049403566227971</v>
+        <v>1.02389812449027</v>
       </c>
       <c r="E23">
-        <v>1.054068730691611</v>
+        <v>1.016087823950715</v>
       </c>
       <c r="F23">
-        <v>1.061333655327127</v>
+        <v>1.027171939401276</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04369393600116</v>
+        <v>1.046852989645141</v>
       </c>
       <c r="J23">
-        <v>1.04629911361368</v>
+        <v>1.030570515007833</v>
       </c>
       <c r="K23">
-        <v>1.052994329960152</v>
+        <v>1.038708363980149</v>
       </c>
       <c r="L23">
-        <v>1.057642398569625</v>
+        <v>1.031041583844708</v>
       </c>
       <c r="M23">
-        <v>1.064881030739028</v>
+        <v>1.041922863863625</v>
       </c>
       <c r="N23">
-        <v>1.047784978367197</v>
+        <v>1.032034043347235</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040862647769469</v>
+        <v>1.006956284720726</v>
       </c>
       <c r="D24">
-        <v>1.050398685352477</v>
+        <v>1.028825593653484</v>
       </c>
       <c r="E24">
-        <v>1.055337368574296</v>
+        <v>1.021998938135057</v>
       </c>
       <c r="F24">
-        <v>1.062554480754307</v>
+        <v>1.032990410225118</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04400933340578</v>
+        <v>1.048858687615462</v>
       </c>
       <c r="J24">
-        <v>1.047019674902425</v>
+        <v>1.034189162930355</v>
       </c>
       <c r="K24">
-        <v>1.053719257495362</v>
+        <v>1.042364728082116</v>
       </c>
       <c r="L24">
-        <v>1.058641307799552</v>
+        <v>1.035650436128408</v>
       </c>
       <c r="M24">
-        <v>1.065834418684826</v>
+        <v>1.04646192999204</v>
       </c>
       <c r="N24">
-        <v>1.048506562935621</v>
+        <v>1.035657830164871</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042301702379796</v>
+        <v>1.014170805717946</v>
       </c>
       <c r="D25">
-        <v>1.051556296854897</v>
+        <v>1.034361462697577</v>
       </c>
       <c r="E25">
-        <v>1.056816108494728</v>
+        <v>1.028661209269781</v>
       </c>
       <c r="F25">
-        <v>1.063976315548619</v>
+        <v>1.039537796257598</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044371579428462</v>
+        <v>1.051071685786971</v>
       </c>
       <c r="J25">
-        <v>1.047855645163283</v>
+        <v>1.038230499247607</v>
       </c>
       <c r="K25">
-        <v>1.054560118194346</v>
+        <v>1.046448791011523</v>
       </c>
       <c r="L25">
-        <v>1.059804022544505</v>
+        <v>1.040830312320304</v>
       </c>
       <c r="M25">
-        <v>1.066942850214103</v>
+        <v>1.051551847587735</v>
       </c>
       <c r="N25">
-        <v>1.049343720370138</v>
+        <v>1.039704905643241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019729134679243</v>
+        <v>1.004114542130303</v>
       </c>
       <c r="D2">
-        <v>1.038640644296488</v>
+        <v>1.029266872926343</v>
       </c>
       <c r="E2">
-        <v>1.033828791623349</v>
+        <v>1.028637121688972</v>
       </c>
       <c r="F2">
-        <v>1.044607805014681</v>
+        <v>1.03766012456134</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052749563319892</v>
+        <v>1.052857758343576</v>
       </c>
       <c r="J2">
-        <v>1.041335348328589</v>
+        <v>1.026172880565734</v>
       </c>
       <c r="K2">
-        <v>1.049586674401146</v>
+        <v>1.040332992466866</v>
       </c>
       <c r="L2">
-        <v>1.044836127408761</v>
+        <v>1.039711407312759</v>
       </c>
       <c r="M2">
-        <v>1.055478788055643</v>
+        <v>1.048618589436434</v>
       </c>
       <c r="N2">
-        <v>1.042814163966049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012690270818209</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047050713547413</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039589198737386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023659216102224</v>
+        <v>1.007513962034476</v>
       </c>
       <c r="D3">
-        <v>1.041673620839775</v>
+        <v>1.031555549346513</v>
       </c>
       <c r="E3">
-        <v>1.037502007582775</v>
+        <v>1.03149952482402</v>
       </c>
       <c r="F3">
-        <v>1.048206725474405</v>
+        <v>1.040228719623568</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053919619720388</v>
+        <v>1.053576685369284</v>
       </c>
       <c r="J3">
-        <v>1.043525047324176</v>
+        <v>1.027801863870732</v>
       </c>
       <c r="K3">
-        <v>1.051799663819028</v>
+        <v>1.041799984326783</v>
       </c>
       <c r="L3">
-        <v>1.047676516747844</v>
+        <v>1.041744623359065</v>
       </c>
       <c r="M3">
-        <v>1.058257822493639</v>
+        <v>1.050371495210483</v>
       </c>
       <c r="N3">
-        <v>1.045006972585372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013234541062572</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048438007178101</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040623824772855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026155727573</v>
+        <v>1.00967698488695</v>
       </c>
       <c r="D4">
-        <v>1.043603390623237</v>
+        <v>1.033013939761558</v>
       </c>
       <c r="E4">
-        <v>1.039844134034916</v>
+        <v>1.03332939841487</v>
       </c>
       <c r="F4">
-        <v>1.05049917963506</v>
+        <v>1.041868648135761</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054655126195598</v>
+        <v>1.054021679111315</v>
       </c>
       <c r="J4">
-        <v>1.044913232780064</v>
+        <v>1.028836350324448</v>
       </c>
       <c r="K4">
-        <v>1.053202571298256</v>
+        <v>1.042729597167525</v>
       </c>
       <c r="L4">
-        <v>1.04948433039348</v>
+        <v>1.043041543555052</v>
       </c>
       <c r="M4">
-        <v>1.060024058060403</v>
+        <v>1.05148671071989</v>
       </c>
       <c r="N4">
-        <v>1.046397129423834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013580231854191</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049320615375102</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041282032559196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027194466152652</v>
+        <v>1.010580168977794</v>
       </c>
       <c r="D5">
-        <v>1.044407034070393</v>
+        <v>1.033624932276324</v>
       </c>
       <c r="E5">
-        <v>1.040820716193984</v>
+        <v>1.034095265455205</v>
       </c>
       <c r="F5">
-        <v>1.051454496435905</v>
+        <v>1.042554866478173</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054959263442099</v>
+        <v>1.054205587963881</v>
       </c>
       <c r="J5">
-        <v>1.045490130402937</v>
+        <v>1.029268985432358</v>
       </c>
       <c r="K5">
-        <v>1.053785570946696</v>
+        <v>1.043118925343867</v>
       </c>
       <c r="L5">
-        <v>1.050237330756242</v>
+        <v>1.043584160542694</v>
       </c>
       <c r="M5">
-        <v>1.060759131204462</v>
+        <v>1.051953028689555</v>
       </c>
       <c r="N5">
-        <v>1.046974846307503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013725072031654</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049689670246244</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041564474583794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027368251553296</v>
+        <v>1.010734220841407</v>
       </c>
       <c r="D6">
-        <v>1.044541527848912</v>
+        <v>1.033731066634138</v>
       </c>
       <c r="E6">
-        <v>1.040984223995836</v>
+        <v>1.034225736425276</v>
       </c>
       <c r="F6">
-        <v>1.051614411205753</v>
+        <v>1.042672178438052</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055010034991119</v>
+        <v>1.054238157072628</v>
       </c>
       <c r="J6">
-        <v>1.045586606356445</v>
+        <v>1.029344188134919</v>
       </c>
       <c r="K6">
-        <v>1.053883066245679</v>
+        <v>1.04318783825324</v>
       </c>
       <c r="L6">
-        <v>1.050363357849351</v>
+        <v>1.043677170686948</v>
       </c>
       <c r="M6">
-        <v>1.060882122023751</v>
+        <v>1.052033433980812</v>
       </c>
       <c r="N6">
-        <v>1.047071459267931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013750561328735</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049753304842628</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041621927452858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026169649223647</v>
+        <v>1.009696843834655</v>
       </c>
       <c r="D7">
-        <v>1.043614158657015</v>
+        <v>1.033032413970179</v>
       </c>
       <c r="E7">
-        <v>1.039857214461937</v>
+        <v>1.033345497733266</v>
       </c>
       <c r="F7">
-        <v>1.050511977419502</v>
+        <v>1.041884227734157</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054659209881555</v>
+        <v>1.05402941175313</v>
       </c>
       <c r="J7">
-        <v>1.044920967396935</v>
+        <v>1.028849713166474</v>
       </c>
       <c r="K7">
-        <v>1.053210387797652</v>
+        <v>1.042744992322862</v>
       </c>
       <c r="L7">
-        <v>1.04949441927971</v>
+        <v>1.043054591566568</v>
       </c>
       <c r="M7">
-        <v>1.060033909159706</v>
+        <v>1.051499279571158</v>
       </c>
       <c r="N7">
-        <v>1.046404875024749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013585552645156</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049330562658299</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04131298836928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021067164956595</v>
+        <v>1.005280664750014</v>
       </c>
       <c r="D8">
-        <v>1.039672569054915</v>
+        <v>1.030057620361873</v>
       </c>
       <c r="E8">
-        <v>1.035077512936579</v>
+        <v>1.02961640711663</v>
       </c>
       <c r="F8">
-        <v>1.045831748445903</v>
+        <v>1.03854063128613</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053149523639811</v>
+        <v>1.053111331697047</v>
       </c>
       <c r="J8">
-        <v>1.042081416476762</v>
+        <v>1.02673678726613</v>
       </c>
       <c r="K8">
-        <v>1.050340683501945</v>
+        <v>1.040845270976579</v>
       </c>
       <c r="L8">
-        <v>1.045802409514472</v>
+        <v>1.040409609861898</v>
       </c>
       <c r="M8">
-        <v>1.056424724764663</v>
+        <v>1.049222675294517</v>
       </c>
       <c r="N8">
-        <v>1.043561291616568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012879772251152</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04752880255289</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039974290481489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011703635230378</v>
+        <v>0.9971949613396502</v>
       </c>
       <c r="D9">
-        <v>1.032465995598838</v>
+        <v>1.02462177811171</v>
       </c>
       <c r="E9">
-        <v>1.026377323688879</v>
+        <v>1.02285908932797</v>
       </c>
       <c r="F9">
-        <v>1.037294618170469</v>
+        <v>1.032463782465309</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050319083004648</v>
+        <v>1.051328319506198</v>
       </c>
       <c r="J9">
-        <v>1.036849770984745</v>
+        <v>1.02284716308719</v>
       </c>
       <c r="K9">
-        <v>1.045053414157811</v>
+        <v>1.037327626837398</v>
       </c>
       <c r="L9">
-        <v>1.039056467223463</v>
+        <v>1.035591869559429</v>
       </c>
       <c r="M9">
-        <v>1.04981026699707</v>
+        <v>1.04505123411477</v>
       </c>
       <c r="N9">
-        <v>1.038322216587874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011579546451197</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044227410932171</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037483919882249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005187318892459</v>
+        <v>0.9916304421881911</v>
       </c>
       <c r="D10">
-        <v>1.027471432847341</v>
+        <v>1.020913004349099</v>
       </c>
       <c r="E10">
-        <v>1.020372783288221</v>
+        <v>1.01830480035684</v>
       </c>
       <c r="F10">
-        <v>1.031390572553035</v>
+        <v>1.028377194983246</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048310683973507</v>
+        <v>1.050056193129845</v>
       </c>
       <c r="J10">
-        <v>1.033196628123415</v>
+        <v>1.020180107411245</v>
       </c>
       <c r="K10">
-        <v>1.041361785972158</v>
+        <v>1.034914662445326</v>
       </c>
       <c r="L10">
-        <v>1.034383692056221</v>
+        <v>1.032351238265138</v>
       </c>
       <c r="M10">
-        <v>1.045215283268967</v>
+        <v>1.042252320013242</v>
       </c>
       <c r="N10">
-        <v>1.03466388584466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01069207017697</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042063481675325</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035794605639063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002295057401862</v>
+        <v>0.9894596962687272</v>
       </c>
       <c r="D11">
-        <v>1.025260130085159</v>
+        <v>1.019597042813323</v>
       </c>
       <c r="E11">
-        <v>1.017720076420605</v>
+        <v>1.01691647730158</v>
       </c>
       <c r="F11">
-        <v>1.02877943087498</v>
+        <v>1.027286133903611</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047410546477634</v>
+        <v>1.04967514615034</v>
       </c>
       <c r="J11">
-        <v>1.031572670005983</v>
+        <v>1.019277634682661</v>
       </c>
       <c r="K11">
-        <v>1.039720897894256</v>
+        <v>1.034158614584085</v>
       </c>
       <c r="L11">
-        <v>1.032315380252111</v>
+        <v>1.031526272573833</v>
       </c>
       <c r="M11">
-        <v>1.043178278896884</v>
+        <v>1.041711188344917</v>
       </c>
       <c r="N11">
-        <v>1.033037621520431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010421373074042</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042069646455893</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035292875866151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00120961457057</v>
+        <v>0.9887416731795226</v>
       </c>
       <c r="D12">
-        <v>1.024431132029035</v>
+        <v>1.019207044903701</v>
       </c>
       <c r="E12">
-        <v>1.016726446214857</v>
+        <v>1.016614733651289</v>
       </c>
       <c r="F12">
-        <v>1.027800946350137</v>
+        <v>1.027129306100434</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047071462619806</v>
+        <v>1.049594636731856</v>
       </c>
       <c r="J12">
-        <v>1.030962869414703</v>
+        <v>1.01903026826788</v>
       </c>
       <c r="K12">
-        <v>1.039104775170541</v>
+        <v>1.033975293029135</v>
       </c>
       <c r="L12">
-        <v>1.031540059830936</v>
+        <v>1.031430397065823</v>
       </c>
       <c r="M12">
-        <v>1.04241422668608</v>
+        <v>1.041754576354543</v>
       </c>
       <c r="N12">
-        <v>1.032426954942366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010361902915393</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.04242912375484</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035163261698416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.001442957894228</v>
+        <v>0.9891053644516529</v>
       </c>
       <c r="D13">
-        <v>1.024609305106042</v>
+        <v>1.01951862375012</v>
       </c>
       <c r="E13">
-        <v>1.016939965030458</v>
+        <v>1.017141070763434</v>
       </c>
       <c r="F13">
-        <v>1.028011229658094</v>
+        <v>1.027698859729197</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047144413967548</v>
+        <v>1.049753613987145</v>
       </c>
       <c r="J13">
-        <v>1.031093976304668</v>
+        <v>1.019283733514726</v>
       </c>
       <c r="K13">
-        <v>1.039237239592099</v>
+        <v>1.034238382169277</v>
       </c>
       <c r="L13">
-        <v>1.031706693074239</v>
+        <v>1.031904124569917</v>
       </c>
       <c r="M13">
-        <v>1.042578459248928</v>
+        <v>1.042271641589276</v>
       </c>
       <c r="N13">
-        <v>1.032558248019152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010466602340506</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.043113686673813</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035346782504405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002205564445262</v>
+        <v>0.9898510643554956</v>
       </c>
       <c r="D14">
-        <v>1.025191762221551</v>
+        <v>1.020055831077711</v>
       </c>
       <c r="E14">
-        <v>1.017638114154453</v>
+        <v>1.017884123526177</v>
       </c>
       <c r="F14">
-        <v>1.028698726546584</v>
+        <v>1.028426789617318</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047382615158064</v>
+        <v>1.049973613207749</v>
       </c>
       <c r="J14">
-        <v>1.031522399704739</v>
+        <v>1.019688499060187</v>
       </c>
       <c r="K14">
-        <v>1.039670105650384</v>
+        <v>1.034625668650318</v>
       </c>
       <c r="L14">
-        <v>1.032251437792222</v>
+        <v>1.032493010065189</v>
       </c>
       <c r="M14">
-        <v>1.043115275252991</v>
+        <v>1.042848110475716</v>
       </c>
       <c r="N14">
-        <v>1.032987279829594</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010614494862789</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043742168639009</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035622030483996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0026739410562</v>
+        <v>0.9902716448040163</v>
       </c>
       <c r="D15">
-        <v>1.02554961355064</v>
+        <v>1.020345695538014</v>
       </c>
       <c r="E15">
-        <v>1.018067155781335</v>
+        <v>1.01825465225115</v>
       </c>
       <c r="F15">
-        <v>1.029121166069542</v>
+        <v>1.0287738272956</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047528746937389</v>
+        <v>1.050083057089442</v>
       </c>
       <c r="J15">
-        <v>1.03178548414588</v>
+        <v>1.019901234393176</v>
       </c>
       <c r="K15">
-        <v>1.039935923106752</v>
+        <v>1.034824002600666</v>
       </c>
       <c r="L15">
-        <v>1.032586128536079</v>
+        <v>1.032770269782998</v>
       </c>
       <c r="M15">
-        <v>1.043445032932768</v>
+        <v>1.043103742161675</v>
       </c>
       <c r="N15">
-        <v>1.033250737880816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01068832627538</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.0439816505588</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035768126872043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005377737056233</v>
+        <v>0.9925589478898543</v>
       </c>
       <c r="D16">
-        <v>1.027617138658181</v>
+        <v>1.021863971285873</v>
       </c>
       <c r="E16">
-        <v>1.020547692474199</v>
+        <v>1.020091089571037</v>
       </c>
       <c r="F16">
-        <v>1.031562682073976</v>
+        <v>1.030420538946535</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048369767997743</v>
+        <v>1.050613462458526</v>
       </c>
       <c r="J16">
-        <v>1.033303495393624</v>
+        <v>1.020993194251386</v>
       </c>
       <c r="K16">
-        <v>1.041469771758803</v>
+        <v>1.035813823202959</v>
       </c>
       <c r="L16">
-        <v>1.034519986316803</v>
+        <v>1.034071185755239</v>
       </c>
       <c r="M16">
-        <v>1.04534944937761</v>
+        <v>1.044226306048599</v>
       </c>
       <c r="N16">
-        <v>1.034770904878651</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011048204144463</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044830321888839</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036471129650769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007054488037522</v>
+        <v>0.9939246634524147</v>
       </c>
       <c r="D17">
-        <v>1.02890080651895</v>
+        <v>1.022748099583623</v>
       </c>
       <c r="E17">
-        <v>1.022089296899439</v>
+        <v>1.021110866734666</v>
       </c>
       <c r="F17">
-        <v>1.033079287540971</v>
+        <v>1.031299111159907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048889051143631</v>
+        <v>1.050901518751769</v>
       </c>
       <c r="J17">
-        <v>1.034244246128803</v>
+        <v>1.021618326598914</v>
       </c>
       <c r="K17">
-        <v>1.042420390062209</v>
+        <v>1.036368691594984</v>
       </c>
       <c r="L17">
-        <v>1.035720797204914</v>
+        <v>1.034758601096918</v>
       </c>
       <c r="M17">
-        <v>1.046531153692164</v>
+        <v>1.044779741104901</v>
       </c>
       <c r="N17">
-        <v>1.035712991587779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011246579569395</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045139147414851</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036866027930357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008025727711721</v>
+        <v>0.9946190688720127</v>
       </c>
       <c r="D18">
-        <v>1.029644879030375</v>
+        <v>1.0231527872541</v>
       </c>
       <c r="E18">
-        <v>1.022983430439671</v>
+        <v>1.021493696087865</v>
       </c>
       <c r="F18">
-        <v>1.033958651544179</v>
+        <v>1.031563127102212</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049189009363582</v>
+        <v>1.051000461821798</v>
       </c>
       <c r="J18">
-        <v>1.034788924301059</v>
+        <v>1.021886914013154</v>
       </c>
       <c r="K18">
-        <v>1.042970797742884</v>
+        <v>1.03658349261064</v>
       </c>
       <c r="L18">
-        <v>1.036416892194326</v>
+        <v>1.034951454902877</v>
       </c>
       <c r="M18">
-        <v>1.047215875086747</v>
+        <v>1.044858407541232</v>
       </c>
       <c r="N18">
-        <v>1.036258443265515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011318794736065</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044964513607465</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037006272476971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008355760287949</v>
+        <v>0.9947078842218688</v>
       </c>
       <c r="D19">
-        <v>1.02989780586768</v>
+        <v>1.023129145401659</v>
       </c>
       <c r="E19">
-        <v>1.02328746007389</v>
+        <v>1.021296187607147</v>
       </c>
       <c r="F19">
-        <v>1.034257613261336</v>
+        <v>1.031269671543218</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049290794722358</v>
+        <v>1.050933532650037</v>
       </c>
       <c r="J19">
-        <v>1.034973966941455</v>
+        <v>1.021836516878032</v>
       </c>
       <c r="K19">
-        <v>1.043157789391818</v>
+        <v>1.036497766479529</v>
       </c>
       <c r="L19">
-        <v>1.036653519115956</v>
+        <v>1.034694546072992</v>
       </c>
       <c r="M19">
-        <v>1.047448585160076</v>
+        <v>1.044507859144529</v>
       </c>
       <c r="N19">
-        <v>1.036443748687685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011280531612508</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044363186953268</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036952050620217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006875293508782</v>
+        <v>0.9930905323693203</v>
       </c>
       <c r="D20">
-        <v>1.028763566298376</v>
+        <v>1.021897379562352</v>
       </c>
       <c r="E20">
-        <v>1.021924423204738</v>
+        <v>1.019497323244171</v>
       </c>
       <c r="F20">
-        <v>1.032917115453885</v>
+        <v>1.029451124396233</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048833641201419</v>
+        <v>1.050403178527951</v>
       </c>
       <c r="J20">
-        <v>1.034143732799236</v>
+        <v>1.020890425470191</v>
       </c>
       <c r="K20">
-        <v>1.042318820689457</v>
+        <v>1.03556581627077</v>
       </c>
       <c r="L20">
-        <v>1.035592410283382</v>
+        <v>1.033205785906362</v>
       </c>
       <c r="M20">
-        <v>1.04640484044257</v>
+        <v>1.042995151939261</v>
       </c>
       <c r="N20">
-        <v>1.035612335517755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01093102172974</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042640848613027</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03629704321168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001981307290928</v>
+        <v>0.9888604899898567</v>
       </c>
       <c r="D21">
-        <v>1.025020456147861</v>
+        <v>1.019056907258518</v>
       </c>
       <c r="E21">
-        <v>1.017432758818996</v>
+        <v>1.015980622431724</v>
       </c>
       <c r="F21">
-        <v>1.028496516136237</v>
+        <v>1.026260535019712</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047312602758527</v>
+        <v>1.04938866046289</v>
       </c>
       <c r="J21">
-        <v>1.031396423793117</v>
+        <v>1.018831447187305</v>
       </c>
       <c r="K21">
-        <v>1.039542822360493</v>
+        <v>1.033686016749189</v>
       </c>
       <c r="L21">
-        <v>1.032091221370509</v>
+        <v>1.030665432679764</v>
       </c>
       <c r="M21">
-        <v>1.042957403630379</v>
+        <v>1.040760906810472</v>
       </c>
       <c r="N21">
-        <v>1.032861125017727</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010240330731987</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04083191404672</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034971180684149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9988396030448176</v>
+        <v>0.9861618729663643</v>
       </c>
       <c r="D22">
-        <v>1.022622747205643</v>
+        <v>1.017252235977192</v>
       </c>
       <c r="E22">
-        <v>1.014560465448668</v>
+        <v>1.013772388624594</v>
       </c>
       <c r="F22">
-        <v>1.025667205740172</v>
+        <v>1.024263975231535</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046328801505375</v>
+        <v>1.048734289409256</v>
       </c>
       <c r="J22">
-        <v>1.029630811597999</v>
+        <v>1.017521684358842</v>
       </c>
       <c r="K22">
-        <v>1.037758981240084</v>
+        <v>1.032489498916425</v>
       </c>
       <c r="L22">
-        <v>1.029848891847909</v>
+        <v>1.029075861570469</v>
       </c>
       <c r="M22">
-        <v>1.040746780790124</v>
+        <v>1.039369610554852</v>
       </c>
       <c r="N22">
-        <v>1.031093005450774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009801708012654</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039730796009682</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034111687031498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000511388525247</v>
+        <v>0.9875905160922387</v>
       </c>
       <c r="D23">
-        <v>1.02389812449027</v>
+        <v>1.018203164751343</v>
       </c>
       <c r="E23">
-        <v>1.016087823950715</v>
+        <v>1.014940684501101</v>
       </c>
       <c r="F23">
-        <v>1.027171939401276</v>
+        <v>1.025319886112572</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046852989645141</v>
+        <v>1.049079129153791</v>
       </c>
       <c r="J23">
-        <v>1.030570515007833</v>
+        <v>1.018212002222863</v>
       </c>
       <c r="K23">
-        <v>1.038708363980149</v>
+        <v>1.033117770226351</v>
       </c>
       <c r="L23">
-        <v>1.031041583844708</v>
+        <v>1.029915766699925</v>
       </c>
       <c r="M23">
-        <v>1.041922863863625</v>
+        <v>1.040104305583993</v>
       </c>
       <c r="N23">
-        <v>1.032034043347235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010031964286464</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040312258251731</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034546267395795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006956284720726</v>
+        <v>0.9931210185330897</v>
       </c>
       <c r="D24">
-        <v>1.028825593653484</v>
+        <v>1.021898900826985</v>
       </c>
       <c r="E24">
-        <v>1.021998938135057</v>
+        <v>1.019485959698249</v>
       </c>
       <c r="F24">
-        <v>1.032990410225118</v>
+        <v>1.029424246699516</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048858687615462</v>
+        <v>1.050393302206026</v>
       </c>
       <c r="J24">
-        <v>1.034189162930355</v>
+        <v>1.020886465056155</v>
       </c>
       <c r="K24">
-        <v>1.042364728082116</v>
+        <v>1.0355520597586</v>
       </c>
       <c r="L24">
-        <v>1.035650436128408</v>
+        <v>1.033179308389963</v>
       </c>
       <c r="M24">
-        <v>1.04646192999204</v>
+        <v>1.042953618900374</v>
       </c>
       <c r="N24">
-        <v>1.035657830164871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010925688057268</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042567295768047</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036259927234183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014170805717946</v>
+        <v>0.9993334434598947</v>
       </c>
       <c r="D25">
-        <v>1.034361462697577</v>
+        <v>1.026064435643274</v>
       </c>
       <c r="E25">
-        <v>1.028661209269781</v>
+        <v>1.024636995027091</v>
       </c>
       <c r="F25">
-        <v>1.039537796257598</v>
+        <v>1.034065971583157</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051071685786971</v>
+        <v>1.051816122674625</v>
       </c>
       <c r="J25">
-        <v>1.038230499247607</v>
+        <v>1.023883260732749</v>
       </c>
       <c r="K25">
-        <v>1.046448791011523</v>
+        <v>1.038271173484555</v>
       </c>
       <c r="L25">
-        <v>1.040830312320304</v>
+        <v>1.036864523702082</v>
       </c>
       <c r="M25">
-        <v>1.051551847587735</v>
+        <v>1.046157510920598</v>
       </c>
       <c r="N25">
-        <v>1.039704905643241</v>
+        <v>1.011927298161978</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.0451029498292</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038179617598819</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004114542130303</v>
+        <v>1.003750841285847</v>
       </c>
       <c r="D2">
-        <v>1.029266872926343</v>
+        <v>1.028381511261693</v>
       </c>
       <c r="E2">
-        <v>1.028637121688972</v>
+        <v>1.028239253329482</v>
       </c>
       <c r="F2">
-        <v>1.03766012456134</v>
+        <v>1.0371356625369</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052857758343576</v>
+        <v>1.052403495288207</v>
       </c>
       <c r="J2">
-        <v>1.026172880565734</v>
+        <v>1.025819941198331</v>
       </c>
       <c r="K2">
-        <v>1.040332992466866</v>
+        <v>1.039459114998301</v>
       </c>
       <c r="L2">
-        <v>1.039711407312759</v>
+        <v>1.039318704629683</v>
       </c>
       <c r="M2">
-        <v>1.048618589436434</v>
+        <v>1.048100790595496</v>
       </c>
       <c r="N2">
-        <v>1.012690270818209</v>
+        <v>1.014092758762427</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047050713547413</v>
+        <v>1.046640914048672</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039589198737386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038980056022495</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022581435896752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007513962034476</v>
+        <v>1.007032491051414</v>
       </c>
       <c r="D3">
-        <v>1.031555549346513</v>
+        <v>1.030523094949653</v>
       </c>
       <c r="E3">
-        <v>1.03149952482402</v>
+        <v>1.031027108980157</v>
       </c>
       <c r="F3">
-        <v>1.040228719623568</v>
+        <v>1.03961009568224</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053576685369284</v>
+        <v>1.05304619819744</v>
       </c>
       <c r="J3">
-        <v>1.027801863870732</v>
+        <v>1.027333262034991</v>
       </c>
       <c r="K3">
-        <v>1.041799984326783</v>
+        <v>1.040779772683562</v>
       </c>
       <c r="L3">
-        <v>1.041744623359065</v>
+        <v>1.041277806364504</v>
       </c>
       <c r="M3">
-        <v>1.050371495210483</v>
+        <v>1.049760052790754</v>
       </c>
       <c r="N3">
-        <v>1.013234541062572</v>
+        <v>1.014494618834655</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048438007178101</v>
+        <v>1.047954096594098</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040623824772855</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039910935937165</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022832319691111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00967698488695</v>
+        <v>1.009121274275334</v>
       </c>
       <c r="D4">
-        <v>1.033013939761558</v>
+        <v>1.031888341258831</v>
       </c>
       <c r="E4">
-        <v>1.03332939841487</v>
+        <v>1.032809993705232</v>
       </c>
       <c r="F4">
-        <v>1.041868648135761</v>
+        <v>1.041190485082202</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054021679111315</v>
+        <v>1.053442830671471</v>
       </c>
       <c r="J4">
-        <v>1.028836350324448</v>
+        <v>1.028294500188104</v>
       </c>
       <c r="K4">
-        <v>1.042729597167525</v>
+        <v>1.041616552435571</v>
       </c>
       <c r="L4">
-        <v>1.043041543555052</v>
+        <v>1.04252792321875</v>
       </c>
       <c r="M4">
-        <v>1.05148671071989</v>
+        <v>1.05081595017295</v>
       </c>
       <c r="N4">
-        <v>1.013580231854191</v>
+        <v>1.014749943554736</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049320615375102</v>
+        <v>1.048789759579236</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041282032559196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040503585450826</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022988839010524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010580168977794</v>
+        <v>1.00999364004968</v>
       </c>
       <c r="D5">
-        <v>1.033624932276324</v>
+        <v>1.03246062706113</v>
       </c>
       <c r="E5">
-        <v>1.034095265455205</v>
+        <v>1.033556368364583</v>
       </c>
       <c r="F5">
-        <v>1.042554866478173</v>
+        <v>1.04185197121825</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054205587963881</v>
+        <v>1.053606619887066</v>
       </c>
       <c r="J5">
-        <v>1.029268985432358</v>
+        <v>1.0286966536161</v>
       </c>
       <c r="K5">
-        <v>1.043118925343867</v>
+        <v>1.041967264645092</v>
       </c>
       <c r="L5">
-        <v>1.043584160542694</v>
+        <v>1.043051105077341</v>
       </c>
       <c r="M5">
-        <v>1.051953028689555</v>
+        <v>1.051257603575496</v>
       </c>
       <c r="N5">
-        <v>1.013725072031654</v>
+        <v>1.014856979335985</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049689670246244</v>
+        <v>1.049139294593125</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041564474583794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040759433085472</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023054206927187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010734220841407</v>
+        <v>1.010142471283669</v>
       </c>
       <c r="D6">
-        <v>1.033731066634138</v>
+        <v>1.032560264576748</v>
       </c>
       <c r="E6">
-        <v>1.034225736425276</v>
+        <v>1.033683551157837</v>
       </c>
       <c r="F6">
-        <v>1.042672178438052</v>
+        <v>1.041965121493716</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054238157072628</v>
+        <v>1.053635810204699</v>
       </c>
       <c r="J6">
-        <v>1.029344188134919</v>
+        <v>1.028766689267842</v>
       </c>
       <c r="K6">
-        <v>1.04318783825324</v>
+        <v>1.042029693832033</v>
       </c>
       <c r="L6">
-        <v>1.043677170686948</v>
+        <v>1.043140835786179</v>
       </c>
       <c r="M6">
-        <v>1.052033433980812</v>
+        <v>1.051333857347912</v>
       </c>
       <c r="N6">
-        <v>1.013750561328735</v>
+        <v>1.01487586284351</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049753304842628</v>
+        <v>1.049199643626779</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041621927452858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040813169142794</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023066248413243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009696843834655</v>
+        <v>1.009147919598479</v>
       </c>
       <c r="D7">
-        <v>1.033032413970179</v>
+        <v>1.0319109009181</v>
       </c>
       <c r="E7">
-        <v>1.033345497733266</v>
+        <v>1.032828849040688</v>
       </c>
       <c r="F7">
-        <v>1.041884227734157</v>
+        <v>1.041209213049571</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05402941175313</v>
+        <v>1.053452688832467</v>
       </c>
       <c r="J7">
-        <v>1.028849713166474</v>
+        <v>1.028314474290913</v>
       </c>
       <c r="K7">
-        <v>1.042744992322862</v>
+        <v>1.041635982697191</v>
       </c>
       <c r="L7">
-        <v>1.043054591566568</v>
+        <v>1.042543694398498</v>
       </c>
       <c r="M7">
-        <v>1.051499279571158</v>
+        <v>1.050831630279982</v>
       </c>
       <c r="N7">
-        <v>1.013585552645156</v>
+        <v>1.014781749157362</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049330562658299</v>
+        <v>1.048802169191934</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04131298836928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04053939071611</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022994143677971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005280664750014</v>
+        <v>1.004899152067411</v>
       </c>
       <c r="D8">
-        <v>1.030057620361873</v>
+        <v>1.029136349353097</v>
       </c>
       <c r="E8">
-        <v>1.02961640711663</v>
+        <v>1.029202560373605</v>
       </c>
       <c r="F8">
-        <v>1.03854063128613</v>
+        <v>1.037994835382301</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053111331697047</v>
+        <v>1.052638497476053</v>
       </c>
       <c r="J8">
-        <v>1.02673678726613</v>
+        <v>1.026366188581898</v>
       </c>
       <c r="K8">
-        <v>1.040845270976579</v>
+        <v>1.039935599786615</v>
       </c>
       <c r="L8">
-        <v>1.040409609861898</v>
+        <v>1.040000976273197</v>
       </c>
       <c r="M8">
-        <v>1.049222675294517</v>
+        <v>1.048683609435053</v>
       </c>
       <c r="N8">
-        <v>1.012879772251152</v>
+        <v>1.014317173949386</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04752880255289</v>
+        <v>1.047102172052867</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039974290481489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039342103154223</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022675367754472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9971949613396502</v>
+        <v>0.9971010862848723</v>
       </c>
       <c r="D9">
-        <v>1.02462177811171</v>
+        <v>1.024054853498181</v>
       </c>
       <c r="E9">
-        <v>1.02285908932797</v>
+        <v>1.022626737355105</v>
       </c>
       <c r="F9">
-        <v>1.032463782465309</v>
+        <v>1.032145677952247</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051328319506198</v>
+        <v>1.051038550829214</v>
       </c>
       <c r="J9">
-        <v>1.02284716308719</v>
+        <v>1.022756629619584</v>
       </c>
       <c r="K9">
-        <v>1.037327626837398</v>
+        <v>1.036769351168549</v>
       </c>
       <c r="L9">
-        <v>1.035591869559429</v>
+        <v>1.035363076446758</v>
       </c>
       <c r="M9">
-        <v>1.04505123411477</v>
+        <v>1.044737887737013</v>
       </c>
       <c r="N9">
-        <v>1.011579546451197</v>
+        <v>1.013367792081859</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044227410932171</v>
+        <v>1.043979419515103</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037483919882249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037099912839102</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022059089043849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9916304421881911</v>
+        <v>0.991769664258881</v>
       </c>
       <c r="D10">
-        <v>1.020913004349099</v>
+        <v>1.020611327521135</v>
       </c>
       <c r="E10">
-        <v>1.01830480035684</v>
+        <v>1.018212528201802</v>
       </c>
       <c r="F10">
-        <v>1.028377194983246</v>
+        <v>1.02823243852442</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050056193129845</v>
+        <v>1.049902985262163</v>
       </c>
       <c r="J10">
-        <v>1.020180107411245</v>
+        <v>1.02031367370089</v>
       </c>
       <c r="K10">
-        <v>1.034914662445326</v>
+        <v>1.034618149930007</v>
       </c>
       <c r="L10">
-        <v>1.032351238265138</v>
+        <v>1.032260555748177</v>
       </c>
       <c r="M10">
-        <v>1.042252320013242</v>
+        <v>1.042109994944993</v>
       </c>
       <c r="N10">
-        <v>1.01069207017697</v>
+        <v>1.012838725641188</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042063481675325</v>
+        <v>1.041950848123574</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035794605639063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035597359144545</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021633820173957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9894596962687272</v>
+        <v>0.9897265902848209</v>
       </c>
       <c r="D11">
-        <v>1.019597042813323</v>
+        <v>1.019416148675207</v>
       </c>
       <c r="E11">
-        <v>1.01691647730158</v>
+        <v>1.016886525757991</v>
       </c>
       <c r="F11">
-        <v>1.027286133903611</v>
+        <v>1.02722289952274</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04967514615034</v>
+        <v>1.049584265536598</v>
       </c>
       <c r="J11">
-        <v>1.019277634682661</v>
+        <v>1.01953308971043</v>
       </c>
       <c r="K11">
-        <v>1.034158614584085</v>
+        <v>1.033980964373735</v>
       </c>
       <c r="L11">
-        <v>1.031526272573833</v>
+        <v>1.031496861727158</v>
       </c>
       <c r="M11">
-        <v>1.041711188344917</v>
+        <v>1.041649065867046</v>
       </c>
       <c r="N11">
-        <v>1.010421373074042</v>
+        <v>1.012880903120336</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042069646455893</v>
+        <v>1.042020508334617</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035292875866151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035182883304435</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02153584735668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9887416731795226</v>
+        <v>0.9890515466256645</v>
       </c>
       <c r="D12">
-        <v>1.019207044903701</v>
+        <v>1.019064197514165</v>
       </c>
       <c r="E12">
-        <v>1.016614733651289</v>
+        <v>1.016601636638623</v>
       </c>
       <c r="F12">
-        <v>1.027129306100434</v>
+        <v>1.027091939293424</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049594636731856</v>
+        <v>1.049523482075088</v>
       </c>
       <c r="J12">
-        <v>1.01903026826788</v>
+        <v>1.019326602708055</v>
       </c>
       <c r="K12">
-        <v>1.033975293029135</v>
+        <v>1.033835050249875</v>
       </c>
       <c r="L12">
-        <v>1.031430397065823</v>
+        <v>1.031417540406869</v>
       </c>
       <c r="M12">
-        <v>1.041754576354543</v>
+        <v>1.041717877206387</v>
       </c>
       <c r="N12">
-        <v>1.010361902915393</v>
+        <v>1.01294331478122</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04242912375484</v>
+        <v>1.042400104928515</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035163261698416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035079719509752</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021525399171743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9891053644516529</v>
+        <v>0.9893850343554221</v>
       </c>
       <c r="D13">
-        <v>1.01951862375012</v>
+        <v>1.019345746603331</v>
       </c>
       <c r="E13">
-        <v>1.017141070763434</v>
+        <v>1.017107446641213</v>
       </c>
       <c r="F13">
-        <v>1.027698859729197</v>
+        <v>1.027641474513115</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049753613987145</v>
+        <v>1.049667187590637</v>
       </c>
       <c r="J13">
-        <v>1.019283733514726</v>
+        <v>1.019551241154385</v>
       </c>
       <c r="K13">
-        <v>1.034238382169277</v>
+        <v>1.034068644268053</v>
       </c>
       <c r="L13">
-        <v>1.031904124569917</v>
+        <v>1.031871114634668</v>
       </c>
       <c r="M13">
-        <v>1.042271641589276</v>
+        <v>1.0422152768522</v>
       </c>
       <c r="N13">
-        <v>1.010466602340506</v>
+        <v>1.012993837338267</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043113686673813</v>
+        <v>1.043069128962458</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035346782504405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03524214072415</v>
+      </c>
+      <c r="S13">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T13">
+        <v>1.021586304641324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9898510643554956</v>
+        <v>0.9900770180120545</v>
       </c>
       <c r="D14">
-        <v>1.020055831077711</v>
+        <v>1.019831547579023</v>
       </c>
       <c r="E14">
-        <v>1.017884123526177</v>
+        <v>1.01782021113439</v>
       </c>
       <c r="F14">
-        <v>1.028426789617318</v>
+        <v>1.028335123806003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049973613207749</v>
+        <v>1.049860871087247</v>
       </c>
       <c r="J14">
-        <v>1.019688499060187</v>
+        <v>1.01990476490115</v>
       </c>
       <c r="K14">
-        <v>1.034625668650318</v>
+        <v>1.034405407936469</v>
       </c>
       <c r="L14">
-        <v>1.032493010065189</v>
+        <v>1.03243025014837</v>
       </c>
       <c r="M14">
-        <v>1.042848110475716</v>
+        <v>1.042758054021501</v>
       </c>
       <c r="N14">
-        <v>1.010614494862789</v>
+        <v>1.01302526737064</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043742168639009</v>
+        <v>1.043670986361111</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035622030483996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035481801003652</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021661664466689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9902716448040163</v>
+        <v>0.9904689770163982</v>
       </c>
       <c r="D15">
-        <v>1.020345695538014</v>
+        <v>1.020094167106844</v>
       </c>
       <c r="E15">
-        <v>1.01825465225115</v>
+        <v>1.018175531163504</v>
       </c>
       <c r="F15">
-        <v>1.0287738272956</v>
+        <v>1.02866395053838</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050083057089442</v>
+        <v>1.049956330304126</v>
       </c>
       <c r="J15">
-        <v>1.019901234393176</v>
+        <v>1.020090179145787</v>
       </c>
       <c r="K15">
-        <v>1.034824002600666</v>
+        <v>1.034576951684374</v>
       </c>
       <c r="L15">
-        <v>1.032770269782998</v>
+        <v>1.032692564360311</v>
       </c>
       <c r="M15">
-        <v>1.043103742161675</v>
+        <v>1.042995779723979</v>
       </c>
       <c r="N15">
-        <v>1.01068832627538</v>
+        <v>1.013034780138185</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.0439816505588</v>
+        <v>1.043896317300099</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035768126872043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035609523869705</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021697730904844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9925589478898543</v>
+        <v>0.9926141255183126</v>
       </c>
       <c r="D16">
-        <v>1.021863971285873</v>
+        <v>1.021474562342512</v>
       </c>
       <c r="E16">
-        <v>1.020091089571037</v>
+        <v>1.019938178345729</v>
       </c>
       <c r="F16">
-        <v>1.030420538946535</v>
+        <v>1.030218351416402</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050613462458526</v>
+        <v>1.050415771117497</v>
       </c>
       <c r="J16">
-        <v>1.020993194251386</v>
+        <v>1.02104614318513</v>
       </c>
       <c r="K16">
-        <v>1.035813823202959</v>
+        <v>1.035431045716098</v>
       </c>
       <c r="L16">
-        <v>1.034071185755239</v>
+        <v>1.033920889464673</v>
       </c>
       <c r="M16">
-        <v>1.044226306048599</v>
+        <v>1.044027487605609</v>
       </c>
       <c r="N16">
-        <v>1.011048204144463</v>
+        <v>1.013079076867721</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044830321888839</v>
+        <v>1.044673171792361</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036471129650769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036216860567212</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021866214388699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9939246634524147</v>
+        <v>0.9939071488039062</v>
       </c>
       <c r="D17">
-        <v>1.022748099583623</v>
+        <v>1.022284996012741</v>
       </c>
       <c r="E17">
-        <v>1.021110866734666</v>
+        <v>1.020919671550251</v>
       </c>
       <c r="F17">
-        <v>1.031299111159907</v>
+        <v>1.031047638231613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050901518751769</v>
+        <v>1.050665799994737</v>
       </c>
       <c r="J17">
-        <v>1.021618326598914</v>
+        <v>1.021601496717847</v>
       </c>
       <c r="K17">
-        <v>1.036368691594984</v>
+        <v>1.035913254090471</v>
       </c>
       <c r="L17">
-        <v>1.034758601096918</v>
+        <v>1.034570582892186</v>
       </c>
       <c r="M17">
-        <v>1.044779741104901</v>
+        <v>1.04453234171481</v>
       </c>
       <c r="N17">
-        <v>1.011246579569395</v>
+        <v>1.013125324107809</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045139147414851</v>
+        <v>1.044943578577258</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036866027930357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036560631794454</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02195611835411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9946190688720127</v>
+        <v>0.9945724830377862</v>
       </c>
       <c r="D18">
-        <v>1.0231527872541</v>
+        <v>1.02265897002569</v>
       </c>
       <c r="E18">
-        <v>1.021493696087865</v>
+        <v>1.021287961097569</v>
       </c>
       <c r="F18">
-        <v>1.031563127102212</v>
+        <v>1.031290860105985</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051000461821798</v>
+        <v>1.050748780867204</v>
       </c>
       <c r="J18">
-        <v>1.021886914013154</v>
+        <v>1.021842115238655</v>
       </c>
       <c r="K18">
-        <v>1.03658349261064</v>
+        <v>1.036097715872009</v>
       </c>
       <c r="L18">
-        <v>1.034951454902877</v>
+        <v>1.03474908254019</v>
       </c>
       <c r="M18">
-        <v>1.044858407541232</v>
+        <v>1.044590480300184</v>
       </c>
       <c r="N18">
-        <v>1.011318794736065</v>
+        <v>1.01313603911997</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044964513607465</v>
+        <v>1.044752673670708</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037006272476971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036678290901384</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021980198298818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9947078842218688</v>
+        <v>0.9946667635974701</v>
       </c>
       <c r="D19">
-        <v>1.023129145401659</v>
+        <v>1.022641009242202</v>
       </c>
       <c r="E19">
-        <v>1.021296187607147</v>
+        <v>1.02109617229034</v>
       </c>
       <c r="F19">
-        <v>1.031269671543218</v>
+        <v>1.031000705945248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050933532650037</v>
+        <v>1.050684594306198</v>
       </c>
       <c r="J19">
-        <v>1.021836516878032</v>
+        <v>1.021796964018597</v>
       </c>
       <c r="K19">
-        <v>1.036497766479529</v>
+        <v>1.0360175363303</v>
       </c>
       <c r="L19">
-        <v>1.034694546072992</v>
+        <v>1.034497784047455</v>
       </c>
       <c r="M19">
-        <v>1.044507859144529</v>
+        <v>1.044243160961613</v>
       </c>
       <c r="N19">
-        <v>1.011280531612508</v>
+        <v>1.013097564151941</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044363186953268</v>
+        <v>1.044153832255808</v>
       </c>
       <c r="Q19">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R19">
-        <v>1.036952050620217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036628614442923</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021946313996701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9930905323693203</v>
+        <v>0.9931479442089539</v>
       </c>
       <c r="D20">
-        <v>1.021897379562352</v>
+        <v>1.021513543434144</v>
       </c>
       <c r="E20">
-        <v>1.019497323244171</v>
+        <v>1.019359217842463</v>
       </c>
       <c r="F20">
-        <v>1.029451124396233</v>
+        <v>1.029251139561178</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050403178527951</v>
+        <v>1.050207674717534</v>
       </c>
       <c r="J20">
-        <v>1.020890425470191</v>
+        <v>1.020945580565569</v>
       </c>
       <c r="K20">
-        <v>1.03556581627077</v>
+        <v>1.035188365138976</v>
       </c>
       <c r="L20">
-        <v>1.033205785906362</v>
+        <v>1.03306999109169</v>
       </c>
       <c r="M20">
-        <v>1.042995151939261</v>
+        <v>1.042798430584841</v>
       </c>
       <c r="N20">
-        <v>1.01093102172974</v>
+        <v>1.012909519576806</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042640848613027</v>
+        <v>1.042485164941122</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03629704321168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036046666100649</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021748940725635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9888604899898567</v>
+        <v>0.9891980584010984</v>
       </c>
       <c r="D21">
-        <v>1.019056907258518</v>
+        <v>1.018940825148255</v>
       </c>
       <c r="E21">
-        <v>1.015980622431724</v>
+        <v>1.015996028391438</v>
       </c>
       <c r="F21">
-        <v>1.026260535019712</v>
+        <v>1.026242295812907</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04938866046289</v>
+        <v>1.049330876201405</v>
       </c>
       <c r="J21">
-        <v>1.018831447187305</v>
+        <v>1.019154451161778</v>
       </c>
       <c r="K21">
-        <v>1.033686016749189</v>
+        <v>1.033572028542091</v>
       </c>
       <c r="L21">
-        <v>1.030665432679764</v>
+        <v>1.030680558598029</v>
       </c>
       <c r="M21">
-        <v>1.040760906810472</v>
+        <v>1.040742990600255</v>
       </c>
       <c r="N21">
-        <v>1.010240330731987</v>
+        <v>1.012848939123722</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04083191404672</v>
+        <v>1.040817734573966</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034971180684149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034907412292191</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021425382725195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9861618729663643</v>
+        <v>0.9866760040384251</v>
       </c>
       <c r="D22">
-        <v>1.017252235977192</v>
+        <v>1.017305010409687</v>
       </c>
       <c r="E22">
-        <v>1.013772388624594</v>
+        <v>1.013885430403574</v>
       </c>
       <c r="F22">
-        <v>1.024263975231535</v>
+        <v>1.024360328395214</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048734289409256</v>
+        <v>1.048763185682368</v>
       </c>
       <c r="J22">
-        <v>1.017521684358842</v>
+        <v>1.01801234825278</v>
       </c>
       <c r="K22">
-        <v>1.032489498916425</v>
+        <v>1.032541273783701</v>
       </c>
       <c r="L22">
-        <v>1.029075861570469</v>
+        <v>1.029186743191742</v>
       </c>
       <c r="M22">
-        <v>1.039369610554852</v>
+        <v>1.039464171305374</v>
       </c>
       <c r="N22">
-        <v>1.009801708012654</v>
+        <v>1.012802454193086</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039730796009682</v>
+        <v>1.039805634579687</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034111687031498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034163823036324</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02121727680123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9875905160922387</v>
+        <v>0.987999441386325</v>
       </c>
       <c r="D23">
-        <v>1.018203164751343</v>
+        <v>1.018158941780242</v>
       </c>
       <c r="E23">
-        <v>1.014940684501101</v>
+        <v>1.014996755197266</v>
       </c>
       <c r="F23">
-        <v>1.025319886112572</v>
+        <v>1.025349938894761</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049079129153791</v>
+        <v>1.049058236631373</v>
       </c>
       <c r="J23">
-        <v>1.018212002222863</v>
+        <v>1.018602807007504</v>
       </c>
       <c r="K23">
-        <v>1.033117770226351</v>
+        <v>1.033074363640908</v>
       </c>
       <c r="L23">
-        <v>1.029915766699925</v>
+        <v>1.029970793727763</v>
       </c>
       <c r="M23">
-        <v>1.040104305583993</v>
+        <v>1.040133813595287</v>
       </c>
       <c r="N23">
-        <v>1.010031964286464</v>
+        <v>1.012782971008089</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040312258251731</v>
+        <v>1.040335611869923</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034546267395795</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034530163311669</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021323538290722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9931210185330897</v>
+        <v>0.9931780478903911</v>
       </c>
       <c r="D24">
-        <v>1.021898900826985</v>
+        <v>1.021514499235736</v>
       </c>
       <c r="E24">
-        <v>1.019485959698249</v>
+        <v>1.019348178578685</v>
       </c>
       <c r="F24">
-        <v>1.029424246699516</v>
+        <v>1.029223983300318</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050393302206026</v>
+        <v>1.050197491804246</v>
       </c>
       <c r="J24">
-        <v>1.020886465056155</v>
+        <v>1.020941256051575</v>
       </c>
       <c r="K24">
-        <v>1.0355520597586</v>
+        <v>1.035174044357092</v>
       </c>
       <c r="L24">
-        <v>1.033179308389963</v>
+        <v>1.033043829541677</v>
       </c>
       <c r="M24">
-        <v>1.042953618900374</v>
+        <v>1.042756619569695</v>
       </c>
       <c r="N24">
-        <v>1.010925688057268</v>
+        <v>1.012901538123238</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042567295768047</v>
+        <v>1.042411384434982</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036259927234183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036006481056273</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021741939677901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9993334434598947</v>
+        <v>0.9991538272449686</v>
       </c>
       <c r="D25">
-        <v>1.026064435643274</v>
+        <v>1.025398027075364</v>
       </c>
       <c r="E25">
-        <v>1.024636995027091</v>
+        <v>1.024352365446745</v>
       </c>
       <c r="F25">
-        <v>1.034065971583157</v>
+        <v>1.03368309511265</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051816122674625</v>
+        <v>1.051475031847245</v>
       </c>
       <c r="J25">
-        <v>1.023883260732749</v>
+        <v>1.023709702073719</v>
       </c>
       <c r="K25">
-        <v>1.038271173484555</v>
+        <v>1.037614462095461</v>
       </c>
       <c r="L25">
-        <v>1.036864523702082</v>
+        <v>1.036584048574673</v>
       </c>
       <c r="M25">
-        <v>1.046157510920598</v>
+        <v>1.045780095327421</v>
       </c>
       <c r="N25">
-        <v>1.011927298161978</v>
+        <v>1.01358914338635</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.0451029498292</v>
+        <v>1.044804252522868</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038179617598819</v>
+        <v>1.037728811071718</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022226893847031</v>
       </c>
     </row>
   </sheetData>
